--- a/data/quality_results.xlsx
+++ b/data/quality_results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="15">
   <si>
     <t>Top 5</t>
   </si>
@@ -53,6 +53,15 @@
   </si>
   <si>
     <t>Top 10</t>
+  </si>
+  <si>
+    <t>DCG</t>
+  </si>
+  <si>
+    <t>Top5</t>
+  </si>
+  <si>
+    <t>Top10</t>
   </si>
 </sst>
 </file>
@@ -398,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AF21"/>
+  <dimension ref="B1:BB21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AI26" sqref="AI26"/>
+      <selection activeCell="AO21" sqref="AO21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,22 +423,29 @@
     <col min="7" max="12" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="2" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="30" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="2" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="1"/>
+    <col min="15" max="15" width="6.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="6.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="4" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="20" width="12" style="1" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="2" style="1" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="6.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="23" max="24" width="12" style="1" hidden="1" customWidth="1"/>
+    <col min="25" max="26" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="2" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="2" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="40" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="2" style="1" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="3" style="1" hidden="1" customWidth="1"/>
+    <col min="45" max="52" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="53" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
@@ -450,9 +466,7 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
-      <c r="T1" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="T1" s="2"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
@@ -462,11 +476,23 @@
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
+      <c r="AD1" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
     </row>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -492,18 +518,44 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
+      <c r="Y2" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
-      <c r="AE2" s="2" t="s">
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AF2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="2"/>
+      <c r="AU2" s="2"/>
+      <c r="AV2" s="2"/>
+      <c r="AW2" s="2"/>
+      <c r="AX2" s="2"/>
+      <c r="AY2" s="2"/>
+      <c r="AZ2" s="2"/>
+      <c r="BA2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB2" s="2"/>
     </row>
-    <row r="3" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="2">
         <v>1</v>
@@ -547,44 +599,74 @@
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
-      <c r="U3" s="2">
-        <v>1</v>
-      </c>
-      <c r="V3" s="2">
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="2">
         <v>2</v>
       </c>
-      <c r="W3" s="2">
+      <c r="AG3" s="2">
         <v>3</v>
       </c>
-      <c r="X3" s="2">
+      <c r="AH3" s="2">
         <v>4</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="AI3" s="2">
         <v>5</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="AJ3" s="2">
         <v>6</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AK3" s="2">
         <v>7</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AL3" s="2">
         <v>8</v>
       </c>
-      <c r="AC3" s="2">
+      <c r="AM3" s="2">
         <v>9</v>
       </c>
-      <c r="AD3" s="2">
+      <c r="AN3" s="2">
         <v>10</v>
       </c>
-      <c r="AE3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AO3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="2"/>
+      <c r="AU3" s="2"/>
+      <c r="AV3" s="2"/>
+      <c r="AW3" s="2"/>
+      <c r="AX3" s="2"/>
+      <c r="AY3" s="2"/>
+      <c r="AZ3" s="2"/>
+      <c r="BA3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="BB3" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -597,12 +679,12 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2">
-        <f>AVERAGE(M5:M8)</f>
-        <v>0.79999999999999993</v>
+        <f>AVERAGE(M5:M9)</f>
+        <v>0.96</v>
       </c>
       <c r="N4" s="2">
-        <f>AVERAGE(N5:N8)</f>
-        <v>0.78749999999999998</v>
+        <f>AVERAGE(N5:N9)</f>
+        <v>0.86</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -614,22 +696,56 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
+      <c r="Y4" s="2">
+        <f>AVERAGE(Y5:Y9)</f>
+        <v>8.2322302989003244</v>
+      </c>
+      <c r="Z4" s="2">
+        <f>AVERAGE(Z5:Z9)</f>
+        <v>11.451648996514891</v>
+      </c>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
-      <c r="AE4" s="2">
-        <f>AVERAGE(AE5:AE8)</f>
-        <v>0.86249999999999993</v>
-      </c>
-      <c r="AF4" s="2">
-        <f>AVERAGE(AF5:AF8)</f>
-        <v>0.86249999999999993</v>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="2">
+        <f>AVERAGE(AO5:AO9)</f>
+        <v>1</v>
+      </c>
+      <c r="AP4" s="2">
+        <f>AVERAGE(AP5:AP9)</f>
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2"/>
+      <c r="AU4" s="2"/>
+      <c r="AV4" s="2"/>
+      <c r="AW4" s="2"/>
+      <c r="AX4" s="2"/>
+      <c r="AY4" s="2"/>
+      <c r="AZ4" s="2"/>
+      <c r="BA4" s="2">
+        <f>AVERAGE(BA5:BA9)</f>
+        <v>8.6906362337443621</v>
+      </c>
+      <c r="BB4" s="2">
+        <f>AVERAGE(BB5:BB9)</f>
+        <v>12.184709006348626</v>
       </c>
     </row>
-    <row r="5" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
@@ -664,61 +780,155 @@
         <v>1</v>
       </c>
       <c r="M5" s="2">
-        <f>AVERAGE(C5:G5)</f>
+        <f>COUNTIF(C5:G5,"&gt;0")/5</f>
         <v>1</v>
       </c>
       <c r="N5" s="2">
-        <f>AVERAGE(C5:L5)</f>
-        <v>0.95</v>
-      </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2" t="s">
+        <f>COUNTIF(C5:L5,"&gt;0")/10</f>
+        <v>1</v>
+      </c>
+      <c r="O5" s="2">
+        <f>((2^(C5*2))-1)/LOG(C$3+1,2)</f>
+        <v>3</v>
+      </c>
+      <c r="P5" s="2">
+        <f t="shared" ref="P5:X5" si="0">((2^(D5*2))-1)/LOG(D$3+1,2)</f>
+        <v>1.8927892607143721</v>
+      </c>
+      <c r="Q5" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="R5" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2920296742201793</v>
+      </c>
+      <c r="S5" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1605584217036249</v>
+      </c>
+      <c r="T5" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0686215613240666</v>
+      </c>
+      <c r="U5" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.31546487678572871</v>
+      </c>
+      <c r="W5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.90308998699194354</v>
+      </c>
+      <c r="X5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.86719447895366342</v>
+      </c>
+      <c r="Y5" s="2">
+        <f>SUM(O5:S5)</f>
+        <v>8.8453773566381777</v>
+      </c>
+      <c r="Z5" s="2">
+        <f>SUM(O5:X5)</f>
+        <v>12.999748260693581</v>
+      </c>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="U5" s="2">
-        <v>1</v>
-      </c>
-      <c r="V5" s="2">
-        <v>1</v>
-      </c>
-      <c r="W5" s="2">
-        <v>1</v>
-      </c>
-      <c r="X5" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="2">
+      <c r="AE5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="2">
         <v>0.5</v>
       </c>
-      <c r="Z5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="2">
-        <f>AVERAGE(U5:AD5)</f>
-        <v>0.95</v>
-      </c>
-      <c r="AF5" s="2">
-        <f>AVERAGE(U5:AD5)</f>
-        <v>0.95</v>
+      <c r="AJ5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="2">
+        <f>COUNTIF(AE5:AI5,"&gt;0")/5</f>
+        <v>1</v>
+      </c>
+      <c r="AP5" s="2">
+        <f>COUNTIF(AE5:AN5,"&gt;0")/10</f>
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="2">
+        <f>((2^(AE5*2))-1)/LOG(AE$3+1,2)</f>
+        <v>3</v>
+      </c>
+      <c r="AR5" s="2">
+        <f t="shared" ref="AR5:AR9" si="1">((2^(AF5*2))-1)/LOG(AF$3+1,2)</f>
+        <v>1.8927892607143721</v>
+      </c>
+      <c r="AS5" s="2">
+        <f t="shared" ref="AS5:AS9" si="2">((2^(AG5*2))-1)/LOG(AG$3+1,2)</f>
+        <v>1.5</v>
+      </c>
+      <c r="AT5" s="2">
+        <f t="shared" ref="AT5:AT9" si="3">((2^(AH5*2))-1)/LOG(AH$3+1,2)</f>
+        <v>1.2920296742201793</v>
+      </c>
+      <c r="AU5" s="2">
+        <f t="shared" ref="AU5:AU9" si="4">((2^(AI5*2))-1)/LOG(AI$3+1,2)</f>
+        <v>0.38685280723454163</v>
+      </c>
+      <c r="AV5" s="2">
+        <f t="shared" ref="AV5:AV9" si="5">((2^(AJ5*2))-1)/LOG(AJ$3+1,2)</f>
+        <v>1.0686215613240666</v>
+      </c>
+      <c r="AW5" s="2">
+        <f t="shared" ref="AW5:AW9" si="6">((2^(AK5*2))-1)/LOG(AK$3+1,2)</f>
+        <v>1</v>
+      </c>
+      <c r="AX5" s="2">
+        <f t="shared" ref="AX5:AX9" si="7">((2^(AL5*2))-1)/LOG(AL$3+1,2)</f>
+        <v>0.94639463035718607</v>
+      </c>
+      <c r="AY5" s="2">
+        <f t="shared" ref="AY5:AY9" si="8">((2^(AM5*2))-1)/LOG(AM$3+1,2)</f>
+        <v>0.90308998699194354</v>
+      </c>
+      <c r="AZ5" s="2">
+        <f t="shared" ref="AZ5:AZ9" si="9">((2^(AN5*2))-1)/LOG(AN$3+1,2)</f>
+        <v>0.86719447895366342</v>
+      </c>
+      <c r="BA5" s="2">
+        <f>SUM(AQ5:AU5)</f>
+        <v>8.0716717421690944</v>
+      </c>
+      <c r="BB5" s="2">
+        <f>SUM(AQ5:AZ5)</f>
+        <v>12.856972399795955</v>
       </c>
     </row>
-    <row r="6" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
@@ -753,61 +963,155 @@
         <v>1</v>
       </c>
       <c r="M6" s="2">
-        <f>AVERAGE(C6:L6)</f>
+        <f>COUNTIF(C6:G6,"&gt;0")/5</f>
         <v>1</v>
       </c>
       <c r="N6" s="2">
-        <f>AVERAGE(C6:L6)</f>
-        <v>1</v>
-      </c>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2" t="s">
+        <f>COUNTIF(C6:L6,"&gt;0")/10</f>
+        <v>1</v>
+      </c>
+      <c r="O6" s="2">
+        <f t="shared" ref="O6:O9" si="10">((2^(C6*2))-1)/LOG(C$3+1,2)</f>
+        <v>3</v>
+      </c>
+      <c r="P6" s="2">
+        <f t="shared" ref="P6:P9" si="11">((2^(D6*2))-1)/LOG(D$3+1,2)</f>
+        <v>1.8927892607143721</v>
+      </c>
+      <c r="Q6" s="2">
+        <f t="shared" ref="Q6:Q9" si="12">((2^(E6*2))-1)/LOG(E$3+1,2)</f>
+        <v>1.5</v>
+      </c>
+      <c r="R6" s="2">
+        <f t="shared" ref="R6:R9" si="13">((2^(F6*2))-1)/LOG(F$3+1,2)</f>
+        <v>1.2920296742201793</v>
+      </c>
+      <c r="S6" s="2">
+        <f t="shared" ref="S6:S9" si="14">((2^(G6*2))-1)/LOG(G$3+1,2)</f>
+        <v>1.1605584217036249</v>
+      </c>
+      <c r="T6" s="2">
+        <f t="shared" ref="T6:T9" si="15">((2^(H6*2))-1)/LOG(H$3+1,2)</f>
+        <v>1.0686215613240666</v>
+      </c>
+      <c r="U6" s="2">
+        <f t="shared" ref="U6:U9" si="16">((2^(I6*2))-1)/LOG(I$3+1,2)</f>
+        <v>1</v>
+      </c>
+      <c r="V6" s="2">
+        <f t="shared" ref="V6:V9" si="17">((2^(J6*2))-1)/LOG(J$3+1,2)</f>
+        <v>0.94639463035718607</v>
+      </c>
+      <c r="W6" s="2">
+        <f t="shared" ref="W6:W9" si="18">((2^(K6*2))-1)/LOG(K$3+1,2)</f>
+        <v>0.90308998699194354</v>
+      </c>
+      <c r="X6" s="2">
+        <f t="shared" ref="X6:X9" si="19">((2^(L6*2))-1)/LOG(L$3+1,2)</f>
+        <v>0.86719447895366342</v>
+      </c>
+      <c r="Y6" s="2">
+        <f t="shared" ref="Y6:Y9" si="20">SUM(O6:S6)</f>
+        <v>8.8453773566381777</v>
+      </c>
+      <c r="Z6" s="2">
+        <f t="shared" ref="Z6:Z9" si="21">SUM(O6:X6)</f>
+        <v>13.630678014265039</v>
+      </c>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="U6" s="2">
-        <v>1</v>
-      </c>
-      <c r="V6" s="2">
-        <v>1</v>
-      </c>
-      <c r="W6" s="2">
-        <v>1</v>
-      </c>
-      <c r="X6" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="2">
-        <v>1</v>
-      </c>
       <c r="AE6" s="2">
-        <f>AVERAGE(U6:AD6)</f>
         <v>1</v>
       </c>
       <c r="AF6" s="2">
-        <f>AVERAGE(U6:AD6)</f>
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="2">
+        <f>COUNTIF(AE6:AI6,"&gt;0")/5</f>
+        <v>1</v>
+      </c>
+      <c r="AP6" s="2">
+        <f>COUNTIF(AE6:AN6,"&gt;0")/10</f>
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="2">
+        <f t="shared" ref="AQ6:AQ9" si="22">((2^(AE6*2))-1)/LOG(AE$3+1,2)</f>
+        <v>3</v>
+      </c>
+      <c r="AR6" s="2">
+        <f t="shared" si="1"/>
+        <v>1.8927892607143721</v>
+      </c>
+      <c r="AS6" s="2">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="AT6" s="2">
+        <f t="shared" si="3"/>
+        <v>1.2920296742201793</v>
+      </c>
+      <c r="AU6" s="2">
+        <f t="shared" si="4"/>
+        <v>1.1605584217036249</v>
+      </c>
+      <c r="AV6" s="2">
+        <f t="shared" si="5"/>
+        <v>1.0686215613240666</v>
+      </c>
+      <c r="AW6" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AX6" s="2">
+        <f t="shared" si="7"/>
+        <v>0.94639463035718607</v>
+      </c>
+      <c r="AY6" s="2">
+        <f t="shared" si="8"/>
+        <v>0.90308998699194354</v>
+      </c>
+      <c r="AZ6" s="2">
+        <f t="shared" si="9"/>
+        <v>0.86719447895366342</v>
+      </c>
+      <c r="BA6" s="2">
+        <f t="shared" ref="BA6:BA9" si="23">SUM(AQ6:AU6)</f>
+        <v>8.8453773566381777</v>
+      </c>
+      <c r="BB6" s="2">
+        <f t="shared" ref="BB6:BB9" si="24">SUM(AQ6:AZ6)</f>
+        <v>13.630678014265039</v>
       </c>
     </row>
-    <row r="7" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
@@ -842,61 +1146,155 @@
         <v>0</v>
       </c>
       <c r="M7" s="2">
-        <f>AVERAGE(C7:L7)</f>
-        <v>0.3</v>
+        <f>COUNTIF(C7:G7,"&gt;0")/5</f>
+        <v>0.8</v>
       </c>
       <c r="N7" s="2">
-        <f>AVERAGE(C7:L7)</f>
-        <v>0.3</v>
-      </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2" t="s">
+        <f>COUNTIF(C7:L7,"&gt;0")/10</f>
+        <v>0.4</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="P7" s="2">
+        <f t="shared" si="11"/>
+        <v>1.8927892607143721</v>
+      </c>
+      <c r="Q7" s="2">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="R7" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="2">
+        <f t="shared" si="14"/>
+        <v>0.38685280723454163</v>
+      </c>
+      <c r="T7" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="X7" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="2">
+        <f t="shared" si="20"/>
+        <v>5.779642067948914</v>
+      </c>
+      <c r="Z7" s="2">
+        <f t="shared" si="21"/>
+        <v>5.779642067948914</v>
+      </c>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="U7" s="2">
-        <v>1</v>
-      </c>
-      <c r="V7" s="2">
-        <v>1</v>
-      </c>
-      <c r="W7" s="2">
-        <v>1</v>
-      </c>
-      <c r="X7" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="2">
+      <c r="AE7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="2">
         <v>0.5</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AK7" s="2">
         <v>0.5</v>
       </c>
-      <c r="AB7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="2">
-        <f>AVERAGE(U7:AD7)</f>
-        <v>0.6</v>
-      </c>
-      <c r="AF7" s="2">
-        <f>AVERAGE(U7:AD7)</f>
-        <v>0.6</v>
+      <c r="AL7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="2">
+        <f>COUNTIF(AE7:AI7,"&gt;0")/5</f>
+        <v>1</v>
+      </c>
+      <c r="AP7" s="2">
+        <f>COUNTIF(AE7:AN7,"&gt;0")/10</f>
+        <v>0.7</v>
+      </c>
+      <c r="AQ7" s="2">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="AR7" s="2">
+        <f t="shared" si="1"/>
+        <v>1.8927892607143721</v>
+      </c>
+      <c r="AS7" s="2">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="AT7" s="2">
+        <f t="shared" si="3"/>
+        <v>1.2920296742201793</v>
+      </c>
+      <c r="AU7" s="2">
+        <f t="shared" si="4"/>
+        <v>1.1605584217036249</v>
+      </c>
+      <c r="AV7" s="2">
+        <f t="shared" si="5"/>
+        <v>0.35620718710802218</v>
+      </c>
+      <c r="AW7" s="2">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AX7" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AY7" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BA7" s="2">
+        <f t="shared" si="23"/>
+        <v>8.8453773566381777</v>
+      </c>
+      <c r="BB7" s="2">
+        <f t="shared" si="24"/>
+        <v>9.5349178770795344</v>
       </c>
     </row>
-    <row r="8" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
@@ -931,61 +1329,155 @@
         <v>1</v>
       </c>
       <c r="M8" s="2">
-        <f>AVERAGE(C8:L8)</f>
-        <v>0.9</v>
+        <f>COUNTIF(C8:G8,"&gt;0")/5</f>
+        <v>1</v>
       </c>
       <c r="N8" s="2">
         <f>AVERAGE(C8:L8)</f>
         <v>0.9</v>
       </c>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2" t="s">
+      <c r="O8" s="2">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="P8" s="2">
+        <f t="shared" si="11"/>
+        <v>1.8927892607143721</v>
+      </c>
+      <c r="Q8" s="2">
+        <f t="shared" si="12"/>
+        <v>1.5</v>
+      </c>
+      <c r="R8" s="2">
+        <f t="shared" si="13"/>
+        <v>1.2920296742201793</v>
+      </c>
+      <c r="S8" s="2">
+        <f t="shared" si="14"/>
+        <v>1.1605584217036249</v>
+      </c>
+      <c r="T8" s="2">
+        <f t="shared" si="15"/>
+        <v>1.0686215613240666</v>
+      </c>
+      <c r="U8" s="2">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="V8" s="2">
+        <f t="shared" si="17"/>
+        <v>0.31546487678572871</v>
+      </c>
+      <c r="W8" s="2">
+        <f t="shared" si="18"/>
+        <v>0.30102999566398114</v>
+      </c>
+      <c r="X8" s="2">
+        <f t="shared" si="19"/>
+        <v>0.86719447895366342</v>
+      </c>
+      <c r="Y8" s="2">
+        <f t="shared" si="20"/>
+        <v>8.8453773566381777</v>
+      </c>
+      <c r="Z8" s="2">
+        <f t="shared" si="21"/>
+        <v>12.397688269365618</v>
+      </c>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U8" s="2">
-        <v>1</v>
-      </c>
-      <c r="V8" s="2">
-        <v>1</v>
-      </c>
-      <c r="W8" s="2">
-        <v>1</v>
-      </c>
-      <c r="X8" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="2">
+      <c r="AE8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="2">
         <v>0.5</v>
       </c>
-      <c r="AD8" s="2">
+      <c r="AN8" s="2">
         <v>0.5</v>
       </c>
-      <c r="AE8" s="2">
-        <f>AVERAGE(U8:AD8)</f>
+      <c r="AO8" s="2">
+        <f>COUNTIF(AE8:AI8,"&gt;0")/5</f>
+        <v>1</v>
+      </c>
+      <c r="AP8" s="2">
+        <f>AVERAGE(AE8:AN8)</f>
         <v>0.9</v>
       </c>
-      <c r="AF8" s="2">
-        <f>AVERAGE(U8:AD8)</f>
-        <v>0.9</v>
+      <c r="AQ8" s="2">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="AR8" s="2">
+        <f t="shared" si="1"/>
+        <v>1.8927892607143721</v>
+      </c>
+      <c r="AS8" s="2">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="AT8" s="2">
+        <f t="shared" si="3"/>
+        <v>1.2920296742201793</v>
+      </c>
+      <c r="AU8" s="2">
+        <f t="shared" si="4"/>
+        <v>1.1605584217036249</v>
+      </c>
+      <c r="AV8" s="2">
+        <f t="shared" si="5"/>
+        <v>1.0686215613240666</v>
+      </c>
+      <c r="AW8" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AX8" s="2">
+        <f t="shared" si="7"/>
+        <v>0.94639463035718607</v>
+      </c>
+      <c r="AY8" s="2">
+        <f t="shared" si="8"/>
+        <v>0.30102999566398114</v>
+      </c>
+      <c r="AZ8" s="2">
+        <f t="shared" si="9"/>
+        <v>0.28906482631788782</v>
+      </c>
+      <c r="BA8" s="2">
+        <f t="shared" si="23"/>
+        <v>8.8453773566381777</v>
+      </c>
+      <c r="BB8" s="2">
+        <f t="shared" si="24"/>
+        <v>12.450488370301301</v>
       </c>
     </row>
-    <row r="9" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1020,61 +1512,155 @@
         <v>0.5</v>
       </c>
       <c r="M9" s="2">
-        <f>AVERAGE(C9:L9)</f>
-        <v>0.9</v>
+        <f>COUNTIF(C9:G9,"&gt;0")/5</f>
+        <v>1</v>
       </c>
       <c r="N9" s="2">
-        <f>AVERAGE(C9:L9)</f>
-        <v>0.9</v>
-      </c>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2" t="s">
+        <f>COUNTIF(C9:L9,"&gt;0")/10</f>
+        <v>1</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" si="11"/>
+        <v>1.8927892607143721</v>
+      </c>
+      <c r="Q9" s="2">
+        <f t="shared" si="12"/>
+        <v>1.5</v>
+      </c>
+      <c r="R9" s="2">
+        <f t="shared" si="13"/>
+        <v>1.2920296742201793</v>
+      </c>
+      <c r="S9" s="2">
+        <f t="shared" si="14"/>
+        <v>1.1605584217036249</v>
+      </c>
+      <c r="T9" s="2">
+        <f t="shared" si="15"/>
+        <v>1.0686215613240666</v>
+      </c>
+      <c r="U9" s="2">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="V9" s="2">
+        <f t="shared" si="17"/>
+        <v>0.94639463035718607</v>
+      </c>
+      <c r="W9" s="2">
+        <f t="shared" si="18"/>
+        <v>0.30102999566398114</v>
+      </c>
+      <c r="X9" s="2">
+        <f t="shared" si="19"/>
+        <v>0.28906482631788782</v>
+      </c>
+      <c r="Y9" s="2">
+        <f t="shared" si="20"/>
+        <v>8.8453773566381777</v>
+      </c>
+      <c r="Z9" s="2">
+        <f t="shared" si="21"/>
+        <v>12.450488370301301</v>
+      </c>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="U9" s="2">
-        <v>1</v>
-      </c>
-      <c r="V9" s="2">
-        <v>1</v>
-      </c>
-      <c r="W9" s="2">
-        <v>1</v>
-      </c>
-      <c r="X9" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC9" s="2">
+      <c r="AE9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM9" s="2">
         <v>0.5</v>
       </c>
-      <c r="AD9" s="2">
+      <c r="AN9" s="2">
         <v>0.5</v>
       </c>
-      <c r="AE9" s="2">
-        <f>AVERAGE(U9:AD9)</f>
-        <v>0.9</v>
-      </c>
-      <c r="AF9" s="2">
-        <f>AVERAGE(U9:AD9)</f>
-        <v>0.9</v>
+      <c r="AO9" s="2">
+        <f>COUNTIF(AE9:AI9,"&gt;0")/5</f>
+        <v>1</v>
+      </c>
+      <c r="AP9" s="2">
+        <f>COUNTIF(AE9:AN9,"&gt;0")/10</f>
+        <v>1</v>
+      </c>
+      <c r="AQ9" s="2">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="AR9" s="2">
+        <f t="shared" si="1"/>
+        <v>1.8927892607143721</v>
+      </c>
+      <c r="AS9" s="2">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="AT9" s="2">
+        <f t="shared" si="3"/>
+        <v>1.2920296742201793</v>
+      </c>
+      <c r="AU9" s="2">
+        <f t="shared" si="4"/>
+        <v>1.1605584217036249</v>
+      </c>
+      <c r="AV9" s="2">
+        <f t="shared" si="5"/>
+        <v>1.0686215613240666</v>
+      </c>
+      <c r="AW9" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AX9" s="2">
+        <f t="shared" si="7"/>
+        <v>0.94639463035718607</v>
+      </c>
+      <c r="AY9" s="2">
+        <f t="shared" si="8"/>
+        <v>0.30102999566398114</v>
+      </c>
+      <c r="AZ9" s="2">
+        <f t="shared" si="9"/>
+        <v>0.28906482631788782</v>
+      </c>
+      <c r="BA9" s="2">
+        <f t="shared" si="23"/>
+        <v>8.8453773566381777</v>
+      </c>
+      <c r="BB9" s="2">
+        <f t="shared" si="24"/>
+        <v>12.450488370301301</v>
       </c>
     </row>
-    <row r="10" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -1106,8 +1692,18 @@
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="2"/>
+      <c r="AN10" s="2"/>
+      <c r="AO10" s="2"/>
+      <c r="AP10" s="2"/>
     </row>
-    <row r="11" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
@@ -1128,9 +1724,7 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
-      <c r="T11" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
@@ -1140,11 +1734,23 @@
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
-      <c r="AD11" s="2"/>
+      <c r="AD11" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="2"/>
+      <c r="AK11" s="2"/>
+      <c r="AL11" s="2"/>
+      <c r="AM11" s="2"/>
+      <c r="AN11" s="2"/>
+      <c r="AO11" s="2"/>
+      <c r="AP11" s="2"/>
     </row>
-    <row r="12" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1170,18 +1776,44 @@
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
+      <c r="Y12" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
-      <c r="AE12" s="2" t="s">
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="2"/>
+      <c r="AM12" s="2"/>
+      <c r="AN12" s="2"/>
+      <c r="AO12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AF12" s="2"/>
+      <c r="AP12" s="2"/>
+      <c r="AQ12" s="2"/>
+      <c r="AR12" s="2"/>
+      <c r="AS12" s="2"/>
+      <c r="AT12" s="2"/>
+      <c r="AU12" s="2"/>
+      <c r="AV12" s="2"/>
+      <c r="AW12" s="2"/>
+      <c r="AX12" s="2"/>
+      <c r="AY12" s="2"/>
+      <c r="AZ12" s="2"/>
+      <c r="BA12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB12" s="2"/>
     </row>
-    <row r="13" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2">
         <v>1</v>
@@ -1225,44 +1857,74 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
-      <c r="U13" s="2">
-        <v>1</v>
-      </c>
-      <c r="V13" s="2">
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="2">
         <v>2</v>
       </c>
-      <c r="W13" s="2">
+      <c r="AG13" s="2">
         <v>3</v>
       </c>
-      <c r="X13" s="2">
+      <c r="AH13" s="2">
         <v>4</v>
       </c>
-      <c r="Y13" s="2">
+      <c r="AI13" s="2">
         <v>5</v>
       </c>
-      <c r="Z13" s="2">
+      <c r="AJ13" s="2">
         <v>6</v>
       </c>
-      <c r="AA13" s="2">
+      <c r="AK13" s="2">
         <v>7</v>
       </c>
-      <c r="AB13" s="2">
+      <c r="AL13" s="2">
         <v>8</v>
       </c>
-      <c r="AC13" s="2">
+      <c r="AM13" s="2">
         <v>9</v>
       </c>
-      <c r="AD13" s="2">
+      <c r="AN13" s="2">
         <v>10</v>
       </c>
-      <c r="AE13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="2" t="s">
+      <c r="AO13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="AQ13" s="2"/>
+      <c r="AR13" s="2"/>
+      <c r="AS13" s="2"/>
+      <c r="AT13" s="2"/>
+      <c r="AU13" s="2"/>
+      <c r="AV13" s="2"/>
+      <c r="AW13" s="2"/>
+      <c r="AX13" s="2"/>
+      <c r="AY13" s="2"/>
+      <c r="AZ13" s="2"/>
+      <c r="BA13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="BB13" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="14" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1275,12 +1937,12 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2">
-        <f>AVERAGE(M15:M18)</f>
-        <v>0.875</v>
+        <f>AVERAGE(M15:M19)</f>
+        <v>1</v>
       </c>
       <c r="N14" s="2">
-        <f>AVERAGE(N15:N18)</f>
-        <v>0.875</v>
+        <f>AVERAGE(N15:N19)</f>
+        <v>0.91999999999999993</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -1292,22 +1954,56 @@
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
+      <c r="Y14" s="2">
+        <f>AVERAGE(Y15:Y19)</f>
+        <v>8.8453773566381777</v>
+      </c>
+      <c r="Z14" s="2">
+        <f>AVERAGE(Z15:Z19)</f>
+        <v>12.570503888048407</v>
+      </c>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
-      <c r="AE14" s="2">
-        <f>AVERAGE(AE15:AE18)</f>
-        <v>1</v>
-      </c>
-      <c r="AF14" s="2">
-        <f>AVERAGE(AF15:AF18)</f>
-        <v>0.875</v>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="2"/>
+      <c r="AN14" s="2"/>
+      <c r="AO14" s="2">
+        <f>AVERAGE(AO15:AO19)</f>
+        <v>1</v>
+      </c>
+      <c r="AP14" s="2">
+        <f>AVERAGE(AP15:AP19)</f>
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="AQ14" s="2"/>
+      <c r="AR14" s="2"/>
+      <c r="AS14" s="2"/>
+      <c r="AT14" s="2"/>
+      <c r="AU14" s="2"/>
+      <c r="AV14" s="2"/>
+      <c r="AW14" s="2"/>
+      <c r="AX14" s="2"/>
+      <c r="AY14" s="2"/>
+      <c r="AZ14" s="2"/>
+      <c r="BA14" s="2">
+        <f>AVERAGE(BA15:BA19)</f>
+        <v>8.8453773566381777</v>
+      </c>
+      <c r="BB14" s="2">
+        <f>AVERAGE(BB15:BB19)</f>
+        <v>12.570503888048407</v>
       </c>
     </row>
-    <row r="15" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
@@ -1342,61 +2038,155 @@
         <v>1</v>
       </c>
       <c r="M15" s="2">
-        <f>AVERAGE(C15:L15)</f>
-        <v>0.95</v>
+        <f>COUNTIF(C15:G15,"&gt;0")/5</f>
+        <v>1</v>
       </c>
       <c r="N15" s="2">
-        <f>AVERAGE(C15:L15)</f>
-        <v>0.95</v>
-      </c>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="2" t="s">
+        <f>COUNTIF(C15:L15,"&gt;0")/10</f>
+        <v>1</v>
+      </c>
+      <c r="O15" s="2">
+        <f>((2^(C15*2))-1)/LOG(C$3+1,2)</f>
+        <v>3</v>
+      </c>
+      <c r="P15" s="2">
+        <f t="shared" ref="P15:P19" si="25">((2^(D15*2))-1)/LOG(D$3+1,2)</f>
+        <v>1.8927892607143721</v>
+      </c>
+      <c r="Q15" s="2">
+        <f t="shared" ref="Q15:Q19" si="26">((2^(E15*2))-1)/LOG(E$3+1,2)</f>
+        <v>1.5</v>
+      </c>
+      <c r="R15" s="2">
+        <f t="shared" ref="R15:R19" si="27">((2^(F15*2))-1)/LOG(F$3+1,2)</f>
+        <v>1.2920296742201793</v>
+      </c>
+      <c r="S15" s="2">
+        <f t="shared" ref="S15:S19" si="28">((2^(G15*2))-1)/LOG(G$3+1,2)</f>
+        <v>1.1605584217036249</v>
+      </c>
+      <c r="T15" s="2">
+        <f t="shared" ref="T15:T19" si="29">((2^(H15*2))-1)/LOG(H$3+1,2)</f>
+        <v>1.0686215613240666</v>
+      </c>
+      <c r="U15" s="2">
+        <f t="shared" ref="U15:U19" si="30">((2^(I15*2))-1)/LOG(I$3+1,2)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="V15" s="2">
+        <f t="shared" ref="V15:V19" si="31">((2^(J15*2))-1)/LOG(J$3+1,2)</f>
+        <v>0.94639463035718607</v>
+      </c>
+      <c r="W15" s="2">
+        <f t="shared" ref="W15:W19" si="32">((2^(K15*2))-1)/LOG(K$3+1,2)</f>
+        <v>0.90308998699194354</v>
+      </c>
+      <c r="X15" s="2">
+        <f t="shared" ref="X15:X19" si="33">((2^(L15*2))-1)/LOG(L$3+1,2)</f>
+        <v>0.86719447895366342</v>
+      </c>
+      <c r="Y15" s="2">
+        <f>SUM(O15:S15)</f>
+        <v>8.8453773566381777</v>
+      </c>
+      <c r="Z15" s="2">
+        <f>SUM(O15:X15)</f>
+        <v>12.964011347598372</v>
+      </c>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="U15" s="2">
-        <v>1</v>
-      </c>
-      <c r="V15" s="2">
-        <v>1</v>
-      </c>
-      <c r="W15" s="2">
-        <v>1</v>
-      </c>
-      <c r="X15" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA15" s="2">
+      <c r="AE15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK15" s="2">
         <v>0.5</v>
       </c>
-      <c r="AB15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE15" s="2">
-        <f>AVERAGE(U15:Y15)</f>
-        <v>1</v>
-      </c>
-      <c r="AF15" s="2">
-        <f>AVERAGE(U15:AD15)</f>
-        <v>0.95</v>
+      <c r="AL15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO15" s="2">
+        <f>COUNTIF(AE15:AI15,"&gt;0")/5</f>
+        <v>1</v>
+      </c>
+      <c r="AP15" s="2">
+        <f>COUNTIF(AE15:AN15,"&gt;0")/10</f>
+        <v>1</v>
+      </c>
+      <c r="AQ15" s="2">
+        <f>((2^(AE15*2))-1)/LOG(AE$3+1,2)</f>
+        <v>3</v>
+      </c>
+      <c r="AR15" s="2">
+        <f t="shared" ref="AR15:AR19" si="34">((2^(AF15*2))-1)/LOG(AF$3+1,2)</f>
+        <v>1.8927892607143721</v>
+      </c>
+      <c r="AS15" s="2">
+        <f t="shared" ref="AS15:AS19" si="35">((2^(AG15*2))-1)/LOG(AG$3+1,2)</f>
+        <v>1.5</v>
+      </c>
+      <c r="AT15" s="2">
+        <f t="shared" ref="AT15:AT19" si="36">((2^(AH15*2))-1)/LOG(AH$3+1,2)</f>
+        <v>1.2920296742201793</v>
+      </c>
+      <c r="AU15" s="2">
+        <f t="shared" ref="AU15:AU19" si="37">((2^(AI15*2))-1)/LOG(AI$3+1,2)</f>
+        <v>1.1605584217036249</v>
+      </c>
+      <c r="AV15" s="2">
+        <f t="shared" ref="AV15:AV19" si="38">((2^(AJ15*2))-1)/LOG(AJ$3+1,2)</f>
+        <v>1.0686215613240666</v>
+      </c>
+      <c r="AW15" s="2">
+        <f t="shared" ref="AW15:AW19" si="39">((2^(AK15*2))-1)/LOG(AK$3+1,2)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AX15" s="2">
+        <f t="shared" ref="AX15:AX19" si="40">((2^(AL15*2))-1)/LOG(AL$3+1,2)</f>
+        <v>0.94639463035718607</v>
+      </c>
+      <c r="AY15" s="2">
+        <f t="shared" ref="AY15:AY19" si="41">((2^(AM15*2))-1)/LOG(AM$3+1,2)</f>
+        <v>0.90308998699194354</v>
+      </c>
+      <c r="AZ15" s="2">
+        <f t="shared" ref="AZ15:AZ19" si="42">((2^(AN15*2))-1)/LOG(AN$3+1,2)</f>
+        <v>0.86719447895366342</v>
+      </c>
+      <c r="BA15" s="2">
+        <f>SUM(AQ15:AU15)</f>
+        <v>8.8453773566381777</v>
+      </c>
+      <c r="BB15" s="2">
+        <f>SUM(AQ15:AZ15)</f>
+        <v>12.964011347598372</v>
       </c>
     </row>
-    <row r="16" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
@@ -1431,61 +2221,155 @@
         <v>1</v>
       </c>
       <c r="M16" s="2">
-        <f>AVERAGE(C16:L16)</f>
+        <f>COUNTIF(C16:G16,"&gt;0")/5</f>
         <v>1</v>
       </c>
       <c r="N16" s="2">
-        <f>AVERAGE(C16:L16)</f>
-        <v>1</v>
-      </c>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="2" t="s">
+        <f>COUNTIF(C16:L16,"&gt;0")/10</f>
+        <v>1</v>
+      </c>
+      <c r="O16" s="2">
+        <f t="shared" ref="O16:O19" si="43">((2^(C16*2))-1)/LOG(C$3+1,2)</f>
+        <v>3</v>
+      </c>
+      <c r="P16" s="2">
+        <f t="shared" si="25"/>
+        <v>1.8927892607143721</v>
+      </c>
+      <c r="Q16" s="2">
+        <f t="shared" si="26"/>
+        <v>1.5</v>
+      </c>
+      <c r="R16" s="2">
+        <f t="shared" si="27"/>
+        <v>1.2920296742201793</v>
+      </c>
+      <c r="S16" s="2">
+        <f t="shared" si="28"/>
+        <v>1.1605584217036249</v>
+      </c>
+      <c r="T16" s="2">
+        <f t="shared" si="29"/>
+        <v>1.0686215613240666</v>
+      </c>
+      <c r="U16" s="2">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="V16" s="2">
+        <f t="shared" si="31"/>
+        <v>0.94639463035718607</v>
+      </c>
+      <c r="W16" s="2">
+        <f t="shared" si="32"/>
+        <v>0.90308998699194354</v>
+      </c>
+      <c r="X16" s="2">
+        <f t="shared" si="33"/>
+        <v>0.86719447895366342</v>
+      </c>
+      <c r="Y16" s="2">
+        <f t="shared" ref="Y16:Y19" si="44">SUM(O16:S16)</f>
+        <v>8.8453773566381777</v>
+      </c>
+      <c r="Z16" s="2">
+        <f t="shared" ref="Z16:Z19" si="45">SUM(O16:X16)</f>
+        <v>13.630678014265039</v>
+      </c>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="U16" s="2">
-        <v>1</v>
-      </c>
-      <c r="V16" s="2">
-        <v>1</v>
-      </c>
-      <c r="W16" s="2">
-        <v>1</v>
-      </c>
-      <c r="X16" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y16" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA16" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB16" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC16" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD16" s="2">
-        <v>1</v>
-      </c>
       <c r="AE16" s="2">
-        <f>AVERAGE(U16:Y16)</f>
         <v>1</v>
       </c>
       <c r="AF16" s="2">
-        <f>AVERAGE(U16:AD16)</f>
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AG16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO16" s="2">
+        <f>COUNTIF(AE16:AI16,"&gt;0")/5</f>
+        <v>1</v>
+      </c>
+      <c r="AP16" s="2">
+        <f>COUNTIF(AE16:AN16,"&gt;0")/10</f>
+        <v>1</v>
+      </c>
+      <c r="AQ16" s="2">
+        <f t="shared" ref="AQ16:AQ19" si="46">((2^(AE16*2))-1)/LOG(AE$3+1,2)</f>
+        <v>3</v>
+      </c>
+      <c r="AR16" s="2">
+        <f t="shared" si="34"/>
+        <v>1.8927892607143721</v>
+      </c>
+      <c r="AS16" s="2">
+        <f t="shared" si="35"/>
+        <v>1.5</v>
+      </c>
+      <c r="AT16" s="2">
+        <f t="shared" si="36"/>
+        <v>1.2920296742201793</v>
+      </c>
+      <c r="AU16" s="2">
+        <f t="shared" si="37"/>
+        <v>1.1605584217036249</v>
+      </c>
+      <c r="AV16" s="2">
+        <f t="shared" si="38"/>
+        <v>1.0686215613240666</v>
+      </c>
+      <c r="AW16" s="2">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="AX16" s="2">
+        <f t="shared" si="40"/>
+        <v>0.94639463035718607</v>
+      </c>
+      <c r="AY16" s="2">
+        <f t="shared" si="41"/>
+        <v>0.90308998699194354</v>
+      </c>
+      <c r="AZ16" s="2">
+        <f t="shared" si="42"/>
+        <v>0.86719447895366342</v>
+      </c>
+      <c r="BA16" s="2">
+        <f t="shared" ref="BA16:BA19" si="47">SUM(AQ16:AU16)</f>
+        <v>8.8453773566381777</v>
+      </c>
+      <c r="BB16" s="2">
+        <f t="shared" ref="BB16:BB19" si="48">SUM(AQ16:AZ16)</f>
+        <v>13.630678014265039</v>
       </c>
     </row>
-    <row r="17" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
@@ -1520,61 +2404,155 @@
         <v>0</v>
       </c>
       <c r="M17" s="2">
-        <f>AVERAGE(C17:L17)</f>
-        <v>0.65</v>
+        <f>COUNTIF(C17:G17,"&gt;0")/5</f>
+        <v>1</v>
       </c>
       <c r="N17" s="2">
-        <f>AVERAGE(C17:L17)</f>
-        <v>0.65</v>
-      </c>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="2" t="s">
+        <f>COUNTIF(C17:L17,"&gt;0")/10</f>
+        <v>0.7</v>
+      </c>
+      <c r="O17" s="2">
+        <f t="shared" si="43"/>
+        <v>3</v>
+      </c>
+      <c r="P17" s="2">
+        <f t="shared" si="25"/>
+        <v>1.8927892607143721</v>
+      </c>
+      <c r="Q17" s="2">
+        <f t="shared" si="26"/>
+        <v>1.5</v>
+      </c>
+      <c r="R17" s="2">
+        <f t="shared" si="27"/>
+        <v>1.2920296742201793</v>
+      </c>
+      <c r="S17" s="2">
+        <f t="shared" si="28"/>
+        <v>1.1605584217036249</v>
+      </c>
+      <c r="T17" s="2">
+        <f t="shared" si="29"/>
+        <v>1.0686215613240666</v>
+      </c>
+      <c r="U17" s="2">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="2">
+        <f t="shared" si="31"/>
+        <v>0.31546487678572871</v>
+      </c>
+      <c r="W17" s="2">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="X17" s="2">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="2">
+        <f t="shared" si="44"/>
+        <v>8.8453773566381777</v>
+      </c>
+      <c r="Z17" s="2">
+        <f t="shared" si="45"/>
+        <v>10.229463794747973</v>
+      </c>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="U17" s="2">
-        <v>1</v>
-      </c>
-      <c r="V17" s="2">
-        <v>1</v>
-      </c>
-      <c r="W17" s="2">
-        <v>1</v>
-      </c>
-      <c r="X17" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="2">
+      <c r="AE17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="2">
         <v>0.5</v>
       </c>
-      <c r="AC17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="2">
-        <f>AVERAGE(U17:Y17)</f>
-        <v>1</v>
-      </c>
-      <c r="AF17" s="2">
-        <f>AVERAGE(U17:AD17)</f>
-        <v>0.65</v>
+      <c r="AM17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="2">
+        <f>COUNTIF(AE17:AI17,"&gt;0")/5</f>
+        <v>1</v>
+      </c>
+      <c r="AP17" s="2">
+        <f>COUNTIF(AE17:AN17,"&gt;0")/10</f>
+        <v>0.7</v>
+      </c>
+      <c r="AQ17" s="2">
+        <f t="shared" si="46"/>
+        <v>3</v>
+      </c>
+      <c r="AR17" s="2">
+        <f t="shared" si="34"/>
+        <v>1.8927892607143721</v>
+      </c>
+      <c r="AS17" s="2">
+        <f t="shared" si="35"/>
+        <v>1.5</v>
+      </c>
+      <c r="AT17" s="2">
+        <f t="shared" si="36"/>
+        <v>1.2920296742201793</v>
+      </c>
+      <c r="AU17" s="2">
+        <f t="shared" si="37"/>
+        <v>1.1605584217036249</v>
+      </c>
+      <c r="AV17" s="2">
+        <f t="shared" si="38"/>
+        <v>1.0686215613240666</v>
+      </c>
+      <c r="AW17" s="2">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AX17" s="2">
+        <f t="shared" si="40"/>
+        <v>0.31546487678572871</v>
+      </c>
+      <c r="AY17" s="2">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AZ17" s="2">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BA17" s="2">
+        <f t="shared" si="47"/>
+        <v>8.8453773566381777</v>
+      </c>
+      <c r="BB17" s="2">
+        <f t="shared" si="48"/>
+        <v>10.229463794747973</v>
       </c>
     </row>
-    <row r="18" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -1609,61 +2587,155 @@
         <v>1</v>
       </c>
       <c r="M18" s="2">
-        <f>AVERAGE(C18:L18)</f>
-        <v>0.9</v>
+        <f>COUNTIF(C18:G18,"&gt;0")/5</f>
+        <v>1</v>
       </c>
       <c r="N18" s="2">
         <f>AVERAGE(C18:L18)</f>
         <v>0.9</v>
       </c>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="2" t="s">
+      <c r="O18" s="2">
+        <f t="shared" si="43"/>
+        <v>3</v>
+      </c>
+      <c r="P18" s="2">
+        <f t="shared" si="25"/>
+        <v>1.8927892607143721</v>
+      </c>
+      <c r="Q18" s="2">
+        <f t="shared" si="26"/>
+        <v>1.5</v>
+      </c>
+      <c r="R18" s="2">
+        <f t="shared" si="27"/>
+        <v>1.2920296742201793</v>
+      </c>
+      <c r="S18" s="2">
+        <f t="shared" si="28"/>
+        <v>1.1605584217036249</v>
+      </c>
+      <c r="T18" s="2">
+        <f t="shared" si="29"/>
+        <v>1.0686215613240666</v>
+      </c>
+      <c r="U18" s="2">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="V18" s="2">
+        <f t="shared" si="31"/>
+        <v>0.31546487678572871</v>
+      </c>
+      <c r="W18" s="2">
+        <f t="shared" si="32"/>
+        <v>0.30102999566398114</v>
+      </c>
+      <c r="X18" s="2">
+        <f t="shared" si="33"/>
+        <v>0.86719447895366342</v>
+      </c>
+      <c r="Y18" s="2">
+        <f t="shared" si="44"/>
+        <v>8.8453773566381777</v>
+      </c>
+      <c r="Z18" s="2">
+        <f t="shared" si="45"/>
+        <v>12.397688269365618</v>
+      </c>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U18" s="2">
-        <v>1</v>
-      </c>
-      <c r="V18" s="2">
-        <v>1</v>
-      </c>
-      <c r="W18" s="2">
-        <v>1</v>
-      </c>
-      <c r="X18" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB18" s="2">
+      <c r="AE18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL18" s="2">
         <v>0.5</v>
       </c>
-      <c r="AC18" s="2">
+      <c r="AM18" s="2">
         <v>0.5</v>
       </c>
-      <c r="AD18" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE18" s="2">
-        <f>AVERAGE(U18:Y18)</f>
-        <v>1</v>
-      </c>
-      <c r="AF18" s="2">
-        <f>AVERAGE(U18:AD18)</f>
+      <c r="AN18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO18" s="2">
+        <f>COUNTIF(AE18:AI18,"&gt;0")/5</f>
+        <v>1</v>
+      </c>
+      <c r="AP18" s="2">
+        <f>AVERAGE(AE18:AN18)</f>
         <v>0.9</v>
       </c>
+      <c r="AQ18" s="2">
+        <f t="shared" si="46"/>
+        <v>3</v>
+      </c>
+      <c r="AR18" s="2">
+        <f t="shared" si="34"/>
+        <v>1.8927892607143721</v>
+      </c>
+      <c r="AS18" s="2">
+        <f t="shared" si="35"/>
+        <v>1.5</v>
+      </c>
+      <c r="AT18" s="2">
+        <f t="shared" si="36"/>
+        <v>1.2920296742201793</v>
+      </c>
+      <c r="AU18" s="2">
+        <f t="shared" si="37"/>
+        <v>1.1605584217036249</v>
+      </c>
+      <c r="AV18" s="2">
+        <f t="shared" si="38"/>
+        <v>1.0686215613240666</v>
+      </c>
+      <c r="AW18" s="2">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="AX18" s="2">
+        <f t="shared" si="40"/>
+        <v>0.31546487678572871</v>
+      </c>
+      <c r="AY18" s="2">
+        <f t="shared" si="41"/>
+        <v>0.30102999566398114</v>
+      </c>
+      <c r="AZ18" s="2">
+        <f t="shared" si="42"/>
+        <v>0.86719447895366342</v>
+      </c>
+      <c r="BA18" s="2">
+        <f t="shared" si="47"/>
+        <v>8.8453773566381777</v>
+      </c>
+      <c r="BB18" s="2">
+        <f t="shared" si="48"/>
+        <v>12.397688269365618</v>
+      </c>
     </row>
-    <row r="19" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1698,58 +2770,154 @@
         <v>1</v>
       </c>
       <c r="M19" s="2">
-        <f>AVERAGE(C19:L19)</f>
+        <f>COUNTIF(C19:G19,"&gt;0")/5</f>
         <v>1</v>
       </c>
       <c r="N19" s="2">
-        <f>AVERAGE(C19:L19)</f>
-        <v>1</v>
-      </c>
-      <c r="T19" s="2" t="s">
+        <f>COUNTIF(C19:L19,"&gt;0")/10</f>
+        <v>1</v>
+      </c>
+      <c r="O19" s="2">
+        <f t="shared" si="43"/>
+        <v>3</v>
+      </c>
+      <c r="P19" s="2">
+        <f t="shared" si="25"/>
+        <v>1.8927892607143721</v>
+      </c>
+      <c r="Q19" s="2">
+        <f t="shared" si="26"/>
+        <v>1.5</v>
+      </c>
+      <c r="R19" s="2">
+        <f t="shared" si="27"/>
+        <v>1.2920296742201793</v>
+      </c>
+      <c r="S19" s="2">
+        <f t="shared" si="28"/>
+        <v>1.1605584217036249</v>
+      </c>
+      <c r="T19" s="2">
+        <f t="shared" si="29"/>
+        <v>1.0686215613240666</v>
+      </c>
+      <c r="U19" s="2">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="V19" s="2">
+        <f t="shared" si="31"/>
+        <v>0.94639463035718607</v>
+      </c>
+      <c r="W19" s="2">
+        <f t="shared" si="32"/>
+        <v>0.90308998699194354</v>
+      </c>
+      <c r="X19" s="2">
+        <f t="shared" si="33"/>
+        <v>0.86719447895366342</v>
+      </c>
+      <c r="Y19" s="2">
+        <f t="shared" si="44"/>
+        <v>8.8453773566381777</v>
+      </c>
+      <c r="Z19" s="2">
+        <f t="shared" si="45"/>
+        <v>13.630678014265039</v>
+      </c>
+      <c r="AD19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="U19" s="2">
-        <v>1</v>
-      </c>
-      <c r="V19" s="2">
-        <v>1</v>
-      </c>
-      <c r="W19" s="2">
-        <v>1</v>
-      </c>
-      <c r="X19" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z19" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA19" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB19" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC19" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD19" s="2">
-        <v>1</v>
-      </c>
       <c r="AE19" s="2">
-        <f>AVERAGE(U19:AD19)</f>
         <v>1</v>
       </c>
       <c r="AF19" s="2">
-        <f>AVERAGE(U19:AD19)</f>
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AG19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO19" s="2">
+        <f>COUNTIF(AE19:AI19,"&gt;0")/5</f>
+        <v>1</v>
+      </c>
+      <c r="AP19" s="2">
+        <f>COUNTIF(AE19:AN19,"&gt;0")/10</f>
+        <v>1</v>
+      </c>
+      <c r="AQ19" s="2">
+        <f t="shared" si="46"/>
+        <v>3</v>
+      </c>
+      <c r="AR19" s="2">
+        <f t="shared" si="34"/>
+        <v>1.8927892607143721</v>
+      </c>
+      <c r="AS19" s="2">
+        <f t="shared" si="35"/>
+        <v>1.5</v>
+      </c>
+      <c r="AT19" s="2">
+        <f t="shared" si="36"/>
+        <v>1.2920296742201793</v>
+      </c>
+      <c r="AU19" s="2">
+        <f t="shared" si="37"/>
+        <v>1.1605584217036249</v>
+      </c>
+      <c r="AV19" s="2">
+        <f t="shared" si="38"/>
+        <v>1.0686215613240666</v>
+      </c>
+      <c r="AW19" s="2">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="AX19" s="2">
+        <f t="shared" si="40"/>
+        <v>0.94639463035718607</v>
+      </c>
+      <c r="AY19" s="2">
+        <f t="shared" si="41"/>
+        <v>0.90308998699194354</v>
+      </c>
+      <c r="AZ19" s="2">
+        <f t="shared" si="42"/>
+        <v>0.86719447895366342</v>
+      </c>
+      <c r="BA19" s="2">
+        <f t="shared" si="47"/>
+        <v>8.8453773566381777</v>
+      </c>
+      <c r="BB19" s="2">
+        <f t="shared" si="48"/>
+        <v>13.630678014265039</v>
       </c>
     </row>
-    <row r="21" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/quality_results.xlsx
+++ b/data/quality_results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="3120" windowWidth="7125" windowHeight="1875"/>
+    <workbookView xWindow="3435" yWindow="3120" windowWidth="7125" windowHeight="1875" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Raw data" sheetId="1" r:id="rId1"/>
@@ -389,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -435,6 +435,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -444,18 +453,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -827,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BZ52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="X44" sqref="X44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,38 +1079,38 @@
       <c r="B5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="19" t="s">
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="19" t="s">
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="21"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="30"/>
       <c r="AC5" s="11"/>
       <c r="AD5" s="11"/>
       <c r="AE5" s="11"/>
@@ -1128,11 +1131,11 @@
       <c r="AT5" s="11"/>
       <c r="AU5" s="11"/>
       <c r="AV5" s="11"/>
-      <c r="AW5" s="20" t="s">
+      <c r="AW5" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="AX5" s="20"/>
-      <c r="AY5" s="21"/>
+      <c r="AX5" s="29"/>
+      <c r="AY5" s="30"/>
       <c r="AZ5" s="2"/>
       <c r="BA5" s="2"/>
       <c r="BB5" s="2"/>
@@ -3518,38 +3521,38 @@
       <c r="B19" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="20"/>
-      <c r="W19" s="19" t="s">
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="X19" s="20"/>
-      <c r="Y19" s="20"/>
-      <c r="Z19" s="20" t="s">
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="AA19" s="20"/>
-      <c r="AB19" s="21"/>
+      <c r="AA19" s="29"/>
+      <c r="AB19" s="30"/>
       <c r="AC19" s="11"/>
       <c r="AD19" s="11"/>
       <c r="AE19" s="11"/>
@@ -3570,11 +3573,11 @@
       <c r="AT19" s="11"/>
       <c r="AU19" s="11"/>
       <c r="AV19" s="11"/>
-      <c r="AW19" s="20" t="s">
+      <c r="AW19" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="AX19" s="20"/>
-      <c r="AY19" s="21"/>
+      <c r="AX19" s="29"/>
+      <c r="AY19" s="30"/>
       <c r="AZ19" s="2"/>
       <c r="BA19" s="2"/>
       <c r="BB19" s="2"/>
@@ -5857,38 +5860,38 @@
       <c r="B33" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="20"/>
-      <c r="S33" s="20"/>
-      <c r="T33" s="20"/>
-      <c r="U33" s="20"/>
-      <c r="V33" s="21"/>
-      <c r="W33" s="19" t="s">
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="29"/>
+      <c r="U33" s="29"/>
+      <c r="V33" s="30"/>
+      <c r="W33" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="X33" s="20"/>
-      <c r="Y33" s="21"/>
-      <c r="Z33" s="19" t="s">
+      <c r="X33" s="29"/>
+      <c r="Y33" s="30"/>
+      <c r="Z33" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="AA33" s="20"/>
-      <c r="AB33" s="21"/>
+      <c r="AA33" s="29"/>
+      <c r="AB33" s="30"/>
       <c r="AC33" s="2"/>
       <c r="AD33" s="2"/>
       <c r="AE33" s="2"/>
@@ -5909,11 +5912,11 @@
       <c r="AT33" s="2"/>
       <c r="AU33" s="2"/>
       <c r="AV33" s="2"/>
-      <c r="AW33" s="19" t="s">
+      <c r="AW33" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="AX33" s="20"/>
-      <c r="AY33" s="21"/>
+      <c r="AX33" s="29"/>
+      <c r="AY33" s="30"/>
     </row>
     <row r="34" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
@@ -8363,163 +8366,167 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="31" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="31" t="s">
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="25" t="s">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19"/>
+      <c r="B3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="25" t="s">
+      <c r="E3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="24">
+      <c r="A4" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="31">
         <v>0.84444444444444444</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="32">
         <v>0.76666666666666661</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="33">
         <v>0.75555555555555565</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="31">
         <v>0.73333333333333328</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="32">
         <v>0.56666666666666665</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="33">
         <v>0.4555555555555556</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="31">
         <v>6.9890740457885174</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="32">
         <v>9.392224444125981</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="33">
         <v>12.066306168648717</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="31">
         <v>0.88888888888888884</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="32">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="33">
         <v>0.74444444444444446</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="31">
         <v>0.82222222222222219</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="32">
         <v>0.66666666666666663</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="33">
         <v>0.51666666666666672</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="31">
         <v>7.473270152778456</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="32">
         <v>10.383854372092836</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="33">
         <v>13.868233715443559</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="34">
         <v>0.91111111111111098</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="35">
         <v>0.93333333333333335</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="36">
         <v>0.87222222222222223</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="34">
         <v>0.82222222222222219</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="35">
         <v>0.81111111111111112</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="36">
         <v>0.6166666666666667</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="34">
         <v>7.5296230007047518</v>
       </c>
-      <c r="I6" s="28">
+      <c r="I6" s="35">
         <v>11.614769661890849</v>
       </c>
-      <c r="J6" s="29">
+      <c r="J6" s="36">
         <v>15.797467638460009</v>
       </c>
     </row>

--- a/data/quality_results.xlsx
+++ b/data/quality_results.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="3120" windowWidth="7125" windowHeight="1875" activeTab="1"/>
+    <workbookView xWindow="3435" yWindow="3120" windowWidth="7125" windowHeight="1875" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Raw data" sheetId="1" r:id="rId1"/>
     <sheet name="Summarized data" sheetId="2" r:id="rId2"/>
+    <sheet name="Clustering" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="34">
   <si>
     <t>Top 5</t>
   </si>
@@ -128,6 +129,30 @@
   <si>
     <t>Scenario</t>
   </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>Min.</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Intercluster distance</t>
+  </si>
+  <si>
+    <t>Intracluster distance</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>BM25</t>
+  </si>
 </sst>
 </file>
 
@@ -163,12 +188,36 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="19">
@@ -389,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -441,9 +490,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -453,12 +517,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,6 +624,559 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-CO"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Clustering!$C$3:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Clustering!$D$3:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.376</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.30399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.186</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.6000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Clustering!$C$3:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Clustering!$E$3:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.376</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53879999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.628</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.95530000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.96389999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Clustering!$C$3:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Clustering!$F$3:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.376</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.872</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Clustering!$C$3:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Clustering!$G$3:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Clustering!$C$3:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Clustering!$H$3:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.91600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.73199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Clustering!$C$3:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Clustering!$I$3:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="176148992"/>
+        <c:axId val="176148416"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="176148992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="176148416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="176148416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="176148992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -828,10 +1466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BZ52"/>
+  <dimension ref="A1:BZ60"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="X44" sqref="X44"/>
+    <sheetView topLeftCell="C21" workbookViewId="0">
+      <selection activeCell="AW43" sqref="AW43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1079,38 +1717,38 @@
       <c r="B5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="28" t="s">
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="29"/>
-      <c r="Z5" s="28" t="s">
+      <c r="X5" s="32"/>
+      <c r="Y5" s="32"/>
+      <c r="Z5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="AA5" s="29"/>
-      <c r="AB5" s="30"/>
+      <c r="AA5" s="32"/>
+      <c r="AB5" s="33"/>
       <c r="AC5" s="11"/>
       <c r="AD5" s="11"/>
       <c r="AE5" s="11"/>
@@ -1131,11 +1769,11 @@
       <c r="AT5" s="11"/>
       <c r="AU5" s="11"/>
       <c r="AV5" s="11"/>
-      <c r="AW5" s="29" t="s">
+      <c r="AW5" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="AX5" s="29"/>
-      <c r="AY5" s="30"/>
+      <c r="AX5" s="32"/>
+      <c r="AY5" s="33"/>
       <c r="AZ5" s="2"/>
       <c r="BA5" s="2"/>
       <c r="BB5" s="2"/>
@@ -1323,85 +1961,85 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
-      <c r="W7" s="14">
-        <f>AVERAGE(W8:W16)</f>
-        <v>0.84444444444444444</v>
-      </c>
-      <c r="X7" s="14">
-        <f t="shared" ref="X7:AY7" si="0">AVERAGE(X8:X16)</f>
-        <v>0.76666666666666661</v>
-      </c>
-      <c r="Y7" s="14">
+      <c r="W7" s="39">
+        <f>AVERAGE(W8:W17)</f>
+        <v>0.86</v>
+      </c>
+      <c r="X7" s="39">
+        <f t="shared" ref="X7:AY7" si="0">AVERAGE(X8:X17)</f>
+        <v>0.78999999999999992</v>
+      </c>
+      <c r="Y7" s="39">
         <f t="shared" si="0"/>
-        <v>0.75555555555555565</v>
-      </c>
-      <c r="Z7" s="14">
+        <v>0.78</v>
+      </c>
+      <c r="Z7" s="40">
         <f t="shared" si="0"/>
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="AA7" s="14">
+        <v>0.76</v>
+      </c>
+      <c r="AA7" s="40">
         <f t="shared" si="0"/>
-        <v>0.56666666666666665</v>
-      </c>
-      <c r="AB7" s="14">
+        <v>0.61</v>
+      </c>
+      <c r="AB7" s="40">
         <f t="shared" si="0"/>
-        <v>0.4555555555555556</v>
+        <v>0.50500000000000012</v>
       </c>
       <c r="AC7" s="14">
         <f t="shared" si="0"/>
-        <v>2.4444444444444446</v>
+        <v>2.5</v>
       </c>
       <c r="AD7" s="14">
         <f t="shared" si="0"/>
-        <v>1.6824793428572196</v>
+        <v>1.7035103346429348</v>
       </c>
       <c r="AE7" s="14">
         <f t="shared" si="0"/>
-        <v>1.2222222222222223</v>
+        <v>1.25</v>
       </c>
       <c r="AF7" s="14">
         <f t="shared" si="0"/>
-        <v>0.90920606704382989</v>
+        <v>0.94748842776146491</v>
       </c>
       <c r="AG7" s="14">
         <f t="shared" si="0"/>
-        <v>0.7307219692208009</v>
+        <v>0.77370561446908326</v>
       </c>
       <c r="AH7" s="14">
         <f t="shared" si="0"/>
-        <v>0.55410006883470109</v>
+        <v>0.60555221808363768</v>
       </c>
       <c r="AI7" s="14">
         <f t="shared" si="0"/>
-        <v>0.62962962962962954</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AJ7" s="14">
         <f t="shared" si="0"/>
-        <v>0.59587810059526525</v>
+        <v>0.63092975357145731</v>
       </c>
       <c r="AK7" s="14">
         <f t="shared" si="0"/>
-        <v>0.33447777295997905</v>
+        <v>0.39133899436317554</v>
       </c>
       <c r="AL7" s="14">
         <f t="shared" si="0"/>
-        <v>0.28906482631788777</v>
+        <v>0.34687779158146531</v>
       </c>
       <c r="AM7" s="14">
         <f t="shared" si="0"/>
-        <v>0.46490490941854973</v>
+        <v>0.50209730217203374</v>
       </c>
       <c r="AN7" s="14">
         <f t="shared" si="0"/>
-        <v>0.51044984725160392</v>
+        <v>0.54047630885463949</v>
       </c>
       <c r="AO7" s="14">
         <f t="shared" si="0"/>
-        <v>0.20428297169559501</v>
+        <v>0.21011962802975487</v>
       </c>
       <c r="AP7" s="14">
         <f t="shared" si="0"/>
-        <v>0.4550364885507831</v>
+        <v>0.48632024713864946</v>
       </c>
       <c r="AQ7" s="14">
         <f t="shared" si="0"/>
@@ -1409,7 +2047,7 @@
       </c>
       <c r="AR7" s="14">
         <f t="shared" si="0"/>
-        <v>0.27183393568691777</v>
+        <v>0.31804570475369381</v>
       </c>
       <c r="AS7" s="14">
         <f t="shared" si="0"/>
@@ -1417,7 +2055,7 @@
       </c>
       <c r="AT7" s="14">
         <f t="shared" si="0"/>
-        <v>0.36619164301477064</v>
+        <v>0.40019515272328504</v>
       </c>
       <c r="AU7" s="14">
         <f t="shared" si="0"/>
@@ -1427,17 +2065,17 @@
         <f t="shared" si="0"/>
         <v>0.42281617615148404</v>
       </c>
-      <c r="AW7" s="14">
+      <c r="AW7" s="41">
         <f t="shared" si="0"/>
-        <v>6.9890740457885174</v>
-      </c>
-      <c r="AX7" s="14">
+        <v>7.1747043768734837</v>
+      </c>
+      <c r="AX7" s="41">
         <f t="shared" si="0"/>
-        <v>9.392224444125981</v>
-      </c>
-      <c r="AY7" s="14">
+        <v>9.8160698011398875</v>
+      </c>
+      <c r="AY7" s="41">
         <f t="shared" si="0"/>
-        <v>12.066306168648717</v>
+        <v>12.006426236905689</v>
       </c>
       <c r="AZ7" s="2"/>
       <c r="BA7" s="2"/>
@@ -3521,38 +4159,38 @@
       <c r="B19" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="28" t="s">
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="29" t="s">
+      <c r="X19" s="32"/>
+      <c r="Y19" s="32"/>
+      <c r="Z19" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="AA19" s="29"/>
-      <c r="AB19" s="30"/>
+      <c r="AA19" s="32"/>
+      <c r="AB19" s="33"/>
       <c r="AC19" s="11"/>
       <c r="AD19" s="11"/>
       <c r="AE19" s="11"/>
@@ -3573,11 +4211,11 @@
       <c r="AT19" s="11"/>
       <c r="AU19" s="11"/>
       <c r="AV19" s="11"/>
-      <c r="AW19" s="29" t="s">
+      <c r="AW19" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="AX19" s="29"/>
-      <c r="AY19" s="30"/>
+      <c r="AX19" s="32"/>
+      <c r="AY19" s="33"/>
       <c r="AZ19" s="2"/>
       <c r="BA19" s="2"/>
       <c r="BB19" s="2"/>
@@ -3765,121 +4403,121 @@
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
-      <c r="W21" s="14">
-        <f>AVERAGE(W22:W30)</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="X21" s="14">
-        <f t="shared" ref="X21:AY21" si="116">AVERAGE(X22:X30)</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="Y21" s="14">
-        <f t="shared" si="116"/>
-        <v>0.74444444444444446</v>
-      </c>
-      <c r="Z21" s="14">
-        <f t="shared" si="116"/>
-        <v>0.82222222222222219</v>
-      </c>
-      <c r="AA21" s="14">
-        <f t="shared" si="116"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="AB21" s="14">
-        <f t="shared" si="116"/>
-        <v>0.51666666666666672</v>
+      <c r="W21" s="39">
+        <f>AVERAGE(W22:W31)</f>
+        <v>0.9</v>
+      </c>
+      <c r="X21" s="39">
+        <f t="shared" ref="X21" si="116">AVERAGE(X22:X31)</f>
+        <v>0.85</v>
+      </c>
+      <c r="Y21" s="39">
+        <f t="shared" ref="Y21" si="117">AVERAGE(Y22:Y31)</f>
+        <v>0.77</v>
+      </c>
+      <c r="Z21" s="40">
+        <f t="shared" ref="Z21" si="118">AVERAGE(Z22:Z31)</f>
+        <v>0.83999999999999986</v>
+      </c>
+      <c r="AA21" s="40">
+        <f t="shared" ref="AA21" si="119">AVERAGE(AA22:AA31)</f>
+        <v>0.7</v>
+      </c>
+      <c r="AB21" s="40">
+        <f t="shared" ref="AB21" si="120">AVERAGE(AB22:AB31)</f>
+        <v>0.56500000000000006</v>
       </c>
       <c r="AC21" s="14">
-        <f t="shared" si="116"/>
-        <v>2.4444444444444446</v>
+        <f t="shared" ref="AC21" si="121">AVERAGE(AC22:AC31)</f>
+        <v>2.5</v>
       </c>
       <c r="AD21" s="14">
-        <f t="shared" si="116"/>
-        <v>1.6824793428572196</v>
+        <f t="shared" ref="AD21" si="122">AVERAGE(AD22:AD31)</f>
+        <v>1.7035103346429348</v>
       </c>
       <c r="AE21" s="14">
-        <f t="shared" si="116"/>
-        <v>1.3333333333333333</v>
+        <f t="shared" ref="AE21" si="123">AVERAGE(AE22:AE31)</f>
+        <v>1.35</v>
       </c>
       <c r="AF21" s="14">
-        <f t="shared" si="116"/>
-        <v>1.196323772426092</v>
+        <f t="shared" ref="AF21" si="124">AVERAGE(AF22:AF31)</f>
+        <v>1.2058943626055008</v>
       </c>
       <c r="AG21" s="14">
-        <f t="shared" si="116"/>
-        <v>0.81668925971736561</v>
+        <f t="shared" ref="AG21" si="125">AVERAGE(AG22:AG31)</f>
+        <v>0.85107617591599161</v>
       </c>
       <c r="AH21" s="14">
-        <f t="shared" si="116"/>
-        <v>0.67283579787070857</v>
+        <f t="shared" ref="AH21" si="126">AVERAGE(AH22:AH31)</f>
+        <v>0.71241437421604437</v>
       </c>
       <c r="AI21" s="14">
-        <f t="shared" si="116"/>
-        <v>0.77777777777777768</v>
+        <f t="shared" ref="AI21" si="127">AVERAGE(AI22:AI31)</f>
+        <v>0.79999999999999993</v>
       </c>
       <c r="AJ21" s="14">
-        <f t="shared" si="116"/>
-        <v>0.7360847125000336</v>
+        <f t="shared" ref="AJ21" si="128">AVERAGE(AJ22:AJ31)</f>
+        <v>0.75711570428574881</v>
       </c>
       <c r="AK21" s="14">
-        <f t="shared" si="116"/>
-        <v>0.43482110484797282</v>
+        <f t="shared" ref="AK21" si="129">AVERAGE(AK22:AK31)</f>
+        <v>0.48164799306236994</v>
       </c>
       <c r="AL21" s="14">
-        <f t="shared" si="116"/>
-        <v>0.28906482631788782</v>
+        <f t="shared" ref="AL21" si="130">AVERAGE(AL22:AL31)</f>
+        <v>0.34687779158146537</v>
       </c>
       <c r="AM21" s="14">
-        <f t="shared" si="116"/>
-        <v>0.43391124879064635</v>
+        <f t="shared" ref="AM21" si="131">AVERAGE(AM22:AM31)</f>
+        <v>0.47420300760692069</v>
       </c>
       <c r="AN21" s="14">
-        <f t="shared" si="116"/>
-        <v>0.48042338564856846</v>
+        <f t="shared" ref="AN21" si="132">AVERAGE(AN22:AN31)</f>
+        <v>0.51345249341190757</v>
       </c>
       <c r="AO21" s="14">
-        <f t="shared" si="116"/>
-        <v>0.32101609837879214</v>
+        <f t="shared" ref="AO21" si="133">AVERAGE(AO22:AO31)</f>
+        <v>0.36770934905207098</v>
       </c>
       <c r="AP21" s="14">
-        <f t="shared" si="116"/>
-        <v>0.42659670801635918</v>
+        <f t="shared" ref="AP21" si="134">AVERAGE(AP22:AP31)</f>
+        <v>0.46072444465766793</v>
       </c>
       <c r="AQ21" s="14">
-        <f t="shared" si="116"/>
-        <v>0.30555555555555558</v>
+        <f t="shared" ref="AQ21" si="135">AVERAGE(AQ22:AQ31)</f>
+        <v>0.35</v>
       </c>
       <c r="AR21" s="14">
-        <f t="shared" si="116"/>
-        <v>0.24465054211822601</v>
+        <f t="shared" ref="AR21" si="136">AVERAGE(AR22:AR31)</f>
+        <v>0.29358065054187121</v>
       </c>
       <c r="AS21" s="14">
-        <f t="shared" si="116"/>
-        <v>0.31974995542417528</v>
+        <f t="shared" ref="AS21" si="137">AVERAGE(AS22:AS31)</f>
+        <v>0.35971869985219718</v>
       </c>
       <c r="AT21" s="14">
-        <f t="shared" si="116"/>
-        <v>0.31387855115551766</v>
+        <f t="shared" ref="AT21" si="138">AVERAGE(AT22:AT31)</f>
+        <v>0.35311337004995735</v>
       </c>
       <c r="AU21" s="14">
-        <f t="shared" si="116"/>
-        <v>0.38563035526626527</v>
+        <f t="shared" ref="AU21" si="139">AVERAGE(AU22:AU31)</f>
+        <v>0.41648078368756647</v>
       </c>
       <c r="AV21" s="14">
-        <f t="shared" si="116"/>
-        <v>0.25296694299661443</v>
-      </c>
-      <c r="AW21" s="14">
-        <f t="shared" si="116"/>
-        <v>7.473270152778456</v>
-      </c>
-      <c r="AX21" s="14">
-        <f t="shared" si="116"/>
-        <v>10.383854372092836</v>
-      </c>
-      <c r="AY21" s="14">
-        <f t="shared" si="116"/>
-        <v>13.868233715443559</v>
+        <f t="shared" ref="AV21" si="140">AVERAGE(AV22:AV31)</f>
+        <v>0.29597132330603887</v>
+      </c>
+      <c r="AW21" s="41">
+        <f t="shared" ref="AW21" si="141">AVERAGE(AW22:AW31)</f>
+        <v>7.6104808731644287</v>
+      </c>
+      <c r="AX21" s="41">
+        <f t="shared" ref="AX21" si="142">AVERAGE(AX22:AX31)</f>
+        <v>10.708536736310057</v>
+      </c>
+      <c r="AY21" s="41">
+        <f t="shared" ref="AY21" si="143">AVERAGE(AY22:AY31)</f>
+        <v>14.593490858476255</v>
       </c>
       <c r="AZ21" s="2"/>
       <c r="BA21" s="2"/>
@@ -3974,15 +4612,15 @@
         <v>1</v>
       </c>
       <c r="W22" s="2">
-        <f t="shared" ref="W22:W27" si="117">COUNTIF(C22:G22,"&gt;0")/5</f>
+        <f t="shared" ref="W22:W27" si="144">COUNTIF(C22:G22,"&gt;0")/5</f>
         <v>1</v>
       </c>
       <c r="X22" s="2">
-        <f t="shared" ref="X22:X27" si="118">COUNTIF(C22:L22,"&gt;0")/10</f>
+        <f t="shared" ref="X22:X27" si="145">COUNTIF(C22:L22,"&gt;0")/10</f>
         <v>1</v>
       </c>
       <c r="Y22" s="2">
-        <f t="shared" ref="Y22:Y27" si="119">COUNTIF(C22:V22,"&gt;0")/20</f>
+        <f t="shared" ref="Y22:Y27" si="146">COUNTIF(C22:V22,"&gt;0")/20</f>
         <v>1</v>
       </c>
       <c r="Z22" s="2">
@@ -4002,87 +4640,87 @@
         <v>3</v>
       </c>
       <c r="AD22" s="2">
-        <f t="shared" ref="AD22:AD27" si="120">((2^(D22*2))-1)/LOG(D$6+1,2)</f>
+        <f t="shared" ref="AD22:AD27" si="147">((2^(D22*2))-1)/LOG(D$6+1,2)</f>
         <v>1.8927892607143721</v>
       </c>
       <c r="AE22" s="2">
-        <f t="shared" ref="AE22:AE27" si="121">((2^(E22*2))-1)/LOG(E$6+1,2)</f>
+        <f t="shared" ref="AE22:AE27" si="148">((2^(E22*2))-1)/LOG(E$6+1,2)</f>
         <v>1.5</v>
       </c>
       <c r="AF22" s="2">
-        <f t="shared" ref="AF22:AF27" si="122">((2^(F22*2))-1)/LOG(F$6+1,2)</f>
+        <f t="shared" ref="AF22:AF27" si="149">((2^(F22*2))-1)/LOG(F$6+1,2)</f>
         <v>1.2920296742201793</v>
       </c>
       <c r="AG22" s="2">
-        <f t="shared" ref="AG22:AG27" si="123">((2^(G22*2))-1)/LOG(G$6+1,2)</f>
+        <f t="shared" ref="AG22:AG27" si="150">((2^(G22*2))-1)/LOG(G$6+1,2)</f>
         <v>1.1605584217036249</v>
       </c>
       <c r="AH22" s="2">
-        <f t="shared" ref="AH22:AH27" si="124">((2^(H22*2))-1)/LOG(H$6+1,2)</f>
+        <f t="shared" ref="AH22:AH27" si="151">((2^(H22*2))-1)/LOG(H$6+1,2)</f>
         <v>1.0686215613240666</v>
       </c>
       <c r="AI22" s="2">
-        <f t="shared" ref="AI22:AI27" si="125">((2^(I22*2))-1)/LOG(I$6+1,2)</f>
+        <f t="shared" ref="AI22:AI27" si="152">((2^(I22*2))-1)/LOG(I$6+1,2)</f>
         <v>1</v>
       </c>
       <c r="AJ22" s="2">
-        <f t="shared" ref="AJ22:AJ27" si="126">((2^(J22*2))-1)/LOG(J$6+1,2)</f>
+        <f t="shared" ref="AJ22:AJ27" si="153">((2^(J22*2))-1)/LOG(J$6+1,2)</f>
         <v>0.94639463035718607</v>
       </c>
       <c r="AK22" s="2">
-        <f t="shared" ref="AK22:AK27" si="127">((2^(K22*2))-1)/LOG(K$6+1,2)</f>
+        <f t="shared" ref="AK22:AK27" si="154">((2^(K22*2))-1)/LOG(K$6+1,2)</f>
         <v>0.90308998699194354</v>
       </c>
       <c r="AL22" s="2">
-        <f t="shared" ref="AL22:AL27" si="128">((2^(L22*2))-1)/LOG(L$6+1,2)</f>
+        <f t="shared" ref="AL22:AL27" si="155">((2^(L22*2))-1)/LOG(L$6+1,2)</f>
         <v>0.86719447895366342</v>
       </c>
       <c r="AM22" s="2">
-        <f t="shared" ref="AM22:AM27" si="129">((2^(M22*2))-1)/LOG(M$6+1,2)</f>
+        <f t="shared" ref="AM22:AM27" si="156">((2^(M22*2))-1)/LOG(M$6+1,2)</f>
         <v>0.8368288369533895</v>
       </c>
       <c r="AN22" s="2">
-        <f t="shared" ref="AN22:AN27" si="130">((2^(N22*2))-1)/LOG(N$6+1,2)</f>
+        <f t="shared" ref="AN22:AN27" si="157">((2^(N22*2))-1)/LOG(N$6+1,2)</f>
         <v>0.81071446328195917</v>
       </c>
       <c r="AO22" s="2">
-        <f t="shared" ref="AO22:AO27" si="131">((2^(O22*2))-1)/LOG(O$6+1,2)</f>
+        <f t="shared" ref="AO22:AO27" si="158">((2^(O22*2))-1)/LOG(O$6+1,2)</f>
         <v>0.78794860511158071</v>
       </c>
       <c r="AP22" s="2">
-        <f t="shared" ref="AP22:AP27" si="132">((2^(P22*2))-1)/LOG(P$6+1,2)</f>
+        <f t="shared" ref="AP22:AP27" si="159">((2^(P22*2))-1)/LOG(P$6+1,2)</f>
         <v>0.76787407442944644</v>
       </c>
       <c r="AQ22" s="2">
-        <f t="shared" ref="AQ22:AQ27" si="133">((2^(Q22*2))-1)/LOG(Q$6+1,2)</f>
+        <f t="shared" ref="AQ22:AQ27" si="160">((2^(Q22*2))-1)/LOG(Q$6+1,2)</f>
         <v>0.75</v>
       </c>
       <c r="AR22" s="2">
-        <f t="shared" ref="AR22:AR27" si="134">((2^(R22*2))-1)/LOG(R$6+1,2)</f>
+        <f t="shared" ref="AR22:AR27" si="161">((2^(R22*2))-1)/LOG(R$6+1,2)</f>
         <v>0.73395162635467803</v>
       </c>
       <c r="AS22" s="2">
-        <f t="shared" ref="AS22:AS27" si="135">((2^(S22*2))-1)/LOG(S$6+1,2)</f>
+        <f t="shared" ref="AS22:AS27" si="162">((2^(S22*2))-1)/LOG(S$6+1,2)</f>
         <v>0.71943739970439435</v>
       </c>
       <c r="AT22" s="2">
-        <f t="shared" ref="AT22:AT27" si="136">((2^(T22*2))-1)/LOG(T$6+1,2)</f>
+        <f t="shared" ref="AT22:AT27" si="163">((2^(T22*2))-1)/LOG(T$6+1,2)</f>
         <v>0.70622674009991471</v>
       </c>
       <c r="AU22" s="2">
-        <f t="shared" ref="AU22:AU27" si="137">((2^(U22*2))-1)/LOG(U$6+1,2)</f>
+        <f t="shared" ref="AU22:AU27" si="164">((2^(U22*2))-1)/LOG(U$6+1,2)</f>
         <v>0.69413463947927745</v>
       </c>
       <c r="AV22" s="2">
-        <f t="shared" ref="AV22:AV27" si="138">((2^(V22*2))-1)/LOG(V$6+1,2)</f>
+        <f t="shared" ref="AV22:AV27" si="165">((2^(V22*2))-1)/LOG(V$6+1,2)</f>
         <v>0.68301074609085888</v>
       </c>
       <c r="AW22" s="2">
-        <f t="shared" ref="AW22:AW27" si="139">SUM(AC22:AG22)</f>
+        <f t="shared" ref="AW22:AW27" si="166">SUM(AC22:AG22)</f>
         <v>8.8453773566381777</v>
       </c>
       <c r="AX22" s="2">
-        <f t="shared" ref="AX22:AX27" si="140">SUM(AC22:AL22)</f>
+        <f t="shared" ref="AX22:AX27" si="167">SUM(AC22:AL22)</f>
         <v>13.630678014265039</v>
       </c>
       <c r="AY22" s="2">
@@ -4182,119 +4820,119 @@
         <v>0</v>
       </c>
       <c r="W23" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="144"/>
         <v>0.8</v>
       </c>
       <c r="X23" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="145"/>
         <v>0.5</v>
       </c>
       <c r="Y23" s="2">
-        <f t="shared" si="119"/>
+        <f t="shared" si="146"/>
         <v>0.6</v>
       </c>
       <c r="Z23" s="2">
-        <f t="shared" ref="Z23:Z27" si="141">COUNTIF(C23:G23,"=1")/5</f>
+        <f t="shared" ref="Z23:Z27" si="168">COUNTIF(C23:G23,"=1")/5</f>
         <v>0.8</v>
       </c>
       <c r="AA23" s="2">
-        <f t="shared" ref="AA23:AA27" si="142">COUNTIF(C23:L23,"=1")/10</f>
+        <f t="shared" ref="AA23:AA27" si="169">COUNTIF(C23:L23,"=1")/10</f>
         <v>0.4</v>
       </c>
       <c r="AB23" s="2">
-        <f t="shared" ref="AB23:AB27" si="143">COUNTIF(C23:V23,"=1")/20</f>
+        <f t="shared" ref="AB23:AB27" si="170">COUNTIF(C23:V23,"=1")/20</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="AC23" s="2">
-        <f t="shared" ref="AC23:AC27" si="144">((2^(C23*2))-1)/LOG(C$6+1,2)</f>
+        <f t="shared" ref="AC23:AC27" si="171">((2^(C23*2))-1)/LOG(C$6+1,2)</f>
         <v>3</v>
       </c>
       <c r="AD23" s="2">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>1.8927892607143721</v>
       </c>
       <c r="AE23" s="2">
-        <f t="shared" si="121"/>
+        <f t="shared" si="148"/>
         <v>1.5</v>
       </c>
       <c r="AF23" s="2">
-        <f t="shared" si="122"/>
+        <f t="shared" si="149"/>
         <v>1.2920296742201793</v>
       </c>
       <c r="AG23" s="2">
-        <f t="shared" si="123"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="AH23" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="151"/>
         <v>0</v>
       </c>
       <c r="AI23" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="152"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="AJ23" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
       <c r="AK23" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="154"/>
         <v>0</v>
       </c>
       <c r="AL23" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="155"/>
         <v>0</v>
       </c>
       <c r="AM23" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="156"/>
         <v>0</v>
       </c>
       <c r="AN23" s="2">
-        <f t="shared" si="130"/>
+        <f t="shared" si="157"/>
         <v>0</v>
       </c>
       <c r="AO23" s="2">
-        <f t="shared" si="131"/>
+        <f t="shared" si="158"/>
         <v>0.78794860511158071</v>
       </c>
       <c r="AP23" s="2">
-        <f t="shared" si="132"/>
+        <f t="shared" si="159"/>
         <v>0.76787407442944644</v>
       </c>
       <c r="AQ23" s="2">
-        <f t="shared" si="133"/>
+        <f t="shared" si="160"/>
         <v>0.75</v>
       </c>
       <c r="AR23" s="2">
-        <f t="shared" si="134"/>
+        <f t="shared" si="161"/>
         <v>0.73395162635467803</v>
       </c>
       <c r="AS23" s="2">
-        <f t="shared" si="135"/>
+        <f t="shared" si="162"/>
         <v>0.71943739970439435</v>
       </c>
       <c r="AT23" s="2">
-        <f t="shared" si="136"/>
+        <f t="shared" si="163"/>
         <v>0.70622674009991471</v>
       </c>
       <c r="AU23" s="2">
-        <f t="shared" si="137"/>
+        <f t="shared" si="164"/>
         <v>0.69413463947927745</v>
       </c>
       <c r="AV23" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="AW23" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="166"/>
         <v>7.6848189349345519</v>
       </c>
       <c r="AX23" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="167"/>
         <v>8.018152268267885</v>
       </c>
       <c r="AY23" s="2">
-        <f t="shared" ref="AY23:AY27" si="145">SUM(AC23:AV23)</f>
+        <f t="shared" ref="AY23:AY27" si="172">SUM(AC23:AV23)</f>
         <v>13.177725353447176</v>
       </c>
       <c r="AZ23" s="2"/>
@@ -4390,119 +5028,119 @@
         <v>0</v>
       </c>
       <c r="W24" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="144"/>
         <v>1</v>
       </c>
       <c r="X24" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="145"/>
         <v>0.7</v>
       </c>
       <c r="Y24" s="2">
-        <f t="shared" si="119"/>
+        <f t="shared" si="146"/>
         <v>0.4</v>
       </c>
       <c r="Z24" s="2">
-        <f t="shared" si="141"/>
+        <f t="shared" si="168"/>
         <v>1</v>
       </c>
       <c r="AA24" s="2">
-        <f t="shared" si="142"/>
+        <f t="shared" si="169"/>
         <v>0.5</v>
       </c>
       <c r="AB24" s="2">
-        <f t="shared" si="143"/>
+        <f t="shared" si="170"/>
         <v>0.25</v>
       </c>
       <c r="AC24" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="171"/>
         <v>3</v>
       </c>
       <c r="AD24" s="2">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>1.8927892607143721</v>
       </c>
       <c r="AE24" s="2">
-        <f t="shared" si="121"/>
+        <f t="shared" si="148"/>
         <v>1.5</v>
       </c>
       <c r="AF24" s="2">
-        <f t="shared" si="122"/>
+        <f t="shared" si="149"/>
         <v>1.2920296742201793</v>
       </c>
       <c r="AG24" s="2">
-        <f t="shared" si="123"/>
+        <f t="shared" si="150"/>
         <v>1.1605584217036249</v>
       </c>
       <c r="AH24" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="151"/>
         <v>0.35620718710802218</v>
       </c>
       <c r="AI24" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="152"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="AJ24" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
       <c r="AK24" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="154"/>
         <v>0</v>
       </c>
       <c r="AL24" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="155"/>
         <v>0</v>
       </c>
       <c r="AM24" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="156"/>
         <v>0</v>
       </c>
       <c r="AN24" s="2">
-        <f t="shared" si="130"/>
+        <f t="shared" si="157"/>
         <v>0</v>
       </c>
       <c r="AO24" s="2">
-        <f t="shared" si="131"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="AP24" s="2">
-        <f t="shared" si="132"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="AQ24" s="2">
-        <f t="shared" si="133"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="AR24" s="2">
-        <f t="shared" si="134"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="AS24" s="2">
-        <f t="shared" si="135"/>
+        <f t="shared" si="162"/>
         <v>0.23981246656813146</v>
       </c>
       <c r="AT24" s="2">
-        <f t="shared" si="136"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="AU24" s="2">
-        <f t="shared" si="137"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="AV24" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="AW24" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="166"/>
         <v>8.8453773566381777</v>
       </c>
       <c r="AX24" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="167"/>
         <v>9.5349178770795344</v>
       </c>
       <c r="AY24" s="2">
-        <f t="shared" si="145"/>
+        <f t="shared" si="172"/>
         <v>9.7747303436476667</v>
       </c>
       <c r="AZ24" s="2"/>
@@ -4598,119 +5236,119 @@
         <v>0.5</v>
       </c>
       <c r="W25" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="144"/>
         <v>1</v>
       </c>
       <c r="X25" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="145"/>
         <v>1</v>
       </c>
       <c r="Y25" s="2">
-        <f t="shared" si="119"/>
+        <f t="shared" si="146"/>
         <v>1</v>
       </c>
       <c r="Z25" s="2">
-        <f t="shared" si="141"/>
+        <f t="shared" si="168"/>
         <v>1</v>
       </c>
       <c r="AA25" s="2">
-        <f t="shared" si="142"/>
+        <f t="shared" si="169"/>
         <v>0.8</v>
       </c>
       <c r="AB25" s="2">
-        <f t="shared" si="143"/>
+        <f t="shared" si="170"/>
         <v>0.4</v>
       </c>
       <c r="AC25" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="171"/>
         <v>3</v>
       </c>
       <c r="AD25" s="2">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>1.8927892607143721</v>
       </c>
       <c r="AE25" s="2">
-        <f t="shared" si="121"/>
+        <f t="shared" si="148"/>
         <v>1.5</v>
       </c>
       <c r="AF25" s="2">
-        <f t="shared" si="122"/>
+        <f t="shared" si="149"/>
         <v>1.2920296742201793</v>
       </c>
       <c r="AG25" s="2">
-        <f t="shared" si="123"/>
+        <f t="shared" si="150"/>
         <v>1.1605584217036249</v>
       </c>
       <c r="AH25" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="151"/>
         <v>1.0686215613240666</v>
       </c>
       <c r="AI25" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="152"/>
         <v>1</v>
       </c>
       <c r="AJ25" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="153"/>
         <v>0.94639463035718607</v>
       </c>
       <c r="AK25" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="154"/>
         <v>0.30102999566398114</v>
       </c>
       <c r="AL25" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="155"/>
         <v>0.28906482631788782</v>
       </c>
       <c r="AM25" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="156"/>
         <v>0.27894294565112981</v>
       </c>
       <c r="AN25" s="2">
-        <f t="shared" si="130"/>
+        <f t="shared" si="157"/>
         <v>0.27023815442731974</v>
       </c>
       <c r="AO25" s="2">
-        <f t="shared" si="131"/>
+        <f t="shared" si="158"/>
         <v>0.26264953503719357</v>
       </c>
       <c r="AP25" s="2">
-        <f t="shared" si="132"/>
+        <f t="shared" si="159"/>
         <v>0.2559580248098155</v>
       </c>
       <c r="AQ25" s="2">
-        <f t="shared" si="133"/>
+        <f t="shared" si="160"/>
         <v>0.25</v>
       </c>
       <c r="AR25" s="2">
-        <f t="shared" si="134"/>
+        <f t="shared" si="161"/>
         <v>0.24465054211822598</v>
       </c>
       <c r="AS25" s="2">
-        <f t="shared" si="135"/>
+        <f t="shared" si="162"/>
         <v>0.23981246656813146</v>
       </c>
       <c r="AT25" s="2">
-        <f t="shared" si="136"/>
+        <f t="shared" si="163"/>
         <v>0.23540891336663824</v>
       </c>
       <c r="AU25" s="2">
-        <f t="shared" si="137"/>
+        <f t="shared" si="164"/>
         <v>0.23137821315975915</v>
       </c>
       <c r="AV25" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="165"/>
         <v>0.22767024869695299</v>
       </c>
       <c r="AW25" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="166"/>
         <v>8.8453773566381777</v>
       </c>
       <c r="AX25" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="167"/>
         <v>12.450488370301301</v>
       </c>
       <c r="AY25" s="2">
-        <f t="shared" si="145"/>
+        <f t="shared" si="172"/>
         <v>14.947197414136468</v>
       </c>
       <c r="AZ25" s="2"/>
@@ -4806,119 +5444,119 @@
         <v>0.5</v>
       </c>
       <c r="W26" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="144"/>
         <v>1</v>
       </c>
       <c r="X26" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="145"/>
         <v>1</v>
       </c>
       <c r="Y26" s="2">
-        <f t="shared" si="119"/>
+        <f t="shared" si="146"/>
         <v>1</v>
       </c>
       <c r="Z26" s="2">
-        <f t="shared" si="141"/>
+        <f t="shared" si="168"/>
         <v>1</v>
       </c>
       <c r="AA26" s="2">
-        <f t="shared" si="142"/>
+        <f t="shared" si="169"/>
         <v>0.8</v>
       </c>
       <c r="AB26" s="2">
-        <f t="shared" si="143"/>
+        <f t="shared" si="170"/>
         <v>0.75</v>
       </c>
       <c r="AC26" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="171"/>
         <v>3</v>
       </c>
       <c r="AD26" s="2">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>1.8927892607143721</v>
       </c>
       <c r="AE26" s="2">
-        <f t="shared" si="121"/>
+        <f t="shared" si="148"/>
         <v>1.5</v>
       </c>
       <c r="AF26" s="2">
-        <f t="shared" si="122"/>
+        <f t="shared" si="149"/>
         <v>1.2920296742201793</v>
       </c>
       <c r="AG26" s="2">
-        <f t="shared" si="123"/>
+        <f t="shared" si="150"/>
         <v>1.1605584217036249</v>
       </c>
       <c r="AH26" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="151"/>
         <v>1.0686215613240666</v>
       </c>
       <c r="AI26" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="152"/>
         <v>1</v>
       </c>
       <c r="AJ26" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="153"/>
         <v>0.94639463035718607</v>
       </c>
       <c r="AK26" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="154"/>
         <v>0.30102999566398114</v>
       </c>
       <c r="AL26" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="155"/>
         <v>0.28906482631788782</v>
       </c>
       <c r="AM26" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="156"/>
         <v>0.8368288369533895</v>
       </c>
       <c r="AN26" s="2">
-        <f t="shared" si="130"/>
+        <f t="shared" si="157"/>
         <v>0.81071446328195917</v>
       </c>
       <c r="AO26" s="2">
-        <f t="shared" si="131"/>
+        <f t="shared" si="158"/>
         <v>0.78794860511158071</v>
       </c>
       <c r="AP26" s="2">
-        <f t="shared" si="132"/>
+        <f t="shared" si="159"/>
         <v>0.76787407442944644</v>
       </c>
       <c r="AQ26" s="2">
-        <f t="shared" si="133"/>
+        <f t="shared" si="160"/>
         <v>0.75</v>
       </c>
       <c r="AR26" s="2">
-        <f t="shared" si="134"/>
+        <f t="shared" si="161"/>
         <v>0.24465054211822598</v>
       </c>
       <c r="AS26" s="2">
-        <f t="shared" si="135"/>
+        <f t="shared" si="162"/>
         <v>0.71943739970439435</v>
       </c>
       <c r="AT26" s="2">
-        <f t="shared" si="136"/>
+        <f t="shared" si="163"/>
         <v>0.70622674009991471</v>
       </c>
       <c r="AU26" s="2">
-        <f t="shared" si="137"/>
+        <f t="shared" si="164"/>
         <v>0.23137821315975915</v>
       </c>
       <c r="AV26" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="165"/>
         <v>0.22767024869695299</v>
       </c>
       <c r="AW26" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="166"/>
         <v>8.8453773566381777</v>
       </c>
       <c r="AX26" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="167"/>
         <v>12.450488370301301</v>
       </c>
       <c r="AY26" s="2">
-        <f t="shared" si="145"/>
+        <f t="shared" si="172"/>
         <v>18.53321749385692</v>
       </c>
       <c r="BB26" s="2"/>
@@ -5012,119 +5650,119 @@
         <v>0</v>
       </c>
       <c r="W27" s="6">
-        <f t="shared" si="117"/>
+        <f t="shared" si="144"/>
         <v>0.8</v>
       </c>
       <c r="X27" s="6">
-        <f t="shared" si="118"/>
+        <f t="shared" si="145"/>
         <v>0.8</v>
       </c>
       <c r="Y27" s="6">
-        <f t="shared" si="119"/>
+        <f t="shared" si="146"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="Z27" s="6">
-        <f t="shared" si="141"/>
+        <f t="shared" si="168"/>
         <v>0.8</v>
       </c>
       <c r="AA27" s="6">
-        <f t="shared" si="142"/>
+        <f t="shared" si="169"/>
         <v>0.8</v>
       </c>
       <c r="AB27" s="6">
-        <f t="shared" si="143"/>
+        <f t="shared" si="170"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="AC27" s="6">
-        <f t="shared" si="144"/>
+        <f t="shared" si="171"/>
         <v>3</v>
       </c>
       <c r="AD27" s="6">
-        <f t="shared" si="120"/>
+        <f t="shared" si="147"/>
         <v>1.8927892607143721</v>
       </c>
       <c r="AE27" s="6">
-        <f t="shared" si="121"/>
+        <f t="shared" si="148"/>
         <v>1.5</v>
       </c>
       <c r="AF27" s="6">
-        <f t="shared" si="122"/>
+        <f t="shared" si="149"/>
         <v>1.2920296742201793</v>
       </c>
       <c r="AG27" s="6">
-        <f t="shared" si="123"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="AH27" s="6">
-        <f t="shared" si="124"/>
+        <f t="shared" si="151"/>
         <v>0</v>
       </c>
       <c r="AI27" s="6">
-        <f t="shared" si="125"/>
+        <f t="shared" si="152"/>
         <v>1</v>
       </c>
       <c r="AJ27" s="6">
-        <f t="shared" si="126"/>
+        <f t="shared" si="153"/>
         <v>0.94639463035718607</v>
       </c>
       <c r="AK27" s="6">
-        <f t="shared" si="127"/>
+        <f t="shared" si="154"/>
         <v>0.90308998699194354</v>
       </c>
       <c r="AL27" s="6">
-        <f t="shared" si="128"/>
+        <f t="shared" si="155"/>
         <v>0.86719447895366342</v>
       </c>
       <c r="AM27" s="6">
-        <f t="shared" si="129"/>
+        <f t="shared" si="156"/>
         <v>0.8368288369533895</v>
       </c>
       <c r="AN27" s="6">
-        <f t="shared" si="130"/>
+        <f t="shared" si="157"/>
         <v>0.81071446328195917</v>
       </c>
       <c r="AO27" s="6">
-        <f t="shared" si="131"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="AP27" s="6">
-        <f t="shared" si="132"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="AQ27" s="6">
-        <f t="shared" si="133"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="AR27" s="6">
-        <f t="shared" si="134"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="AS27" s="6">
-        <f t="shared" si="135"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="AT27" s="6">
-        <f t="shared" si="136"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="AU27" s="6">
-        <f t="shared" si="137"/>
+        <f t="shared" si="164"/>
         <v>0.69413463947927745</v>
       </c>
       <c r="AV27" s="6">
-        <f t="shared" si="138"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="AW27" s="6">
-        <f t="shared" si="139"/>
+        <f t="shared" si="166"/>
         <v>7.6848189349345519</v>
       </c>
       <c r="AX27" s="6">
-        <f t="shared" si="140"/>
+        <f t="shared" si="167"/>
         <v>11.401498031237345</v>
       </c>
       <c r="AY27" s="6">
-        <f t="shared" si="145"/>
+        <f t="shared" si="172"/>
         <v>13.74317597095197</v>
       </c>
     </row>
@@ -5193,119 +5831,119 @@
         <v>1</v>
       </c>
       <c r="W28" s="18">
-        <f t="shared" ref="W28" si="146">COUNTIF(C28:G28,"&gt;0")/5</f>
+        <f t="shared" ref="W28" si="173">COUNTIF(C28:G28,"&gt;0")/5</f>
         <v>0.4</v>
       </c>
       <c r="X28" s="18">
-        <f t="shared" ref="X28" si="147">COUNTIF(C28:L28,"&gt;0")/10</f>
+        <f t="shared" ref="X28" si="174">COUNTIF(C28:L28,"&gt;0")/10</f>
         <v>0.6</v>
       </c>
       <c r="Y28" s="18">
-        <f t="shared" ref="Y28" si="148">COUNTIF(C28:V28,"&gt;0")/20</f>
+        <f t="shared" ref="Y28" si="175">COUNTIF(C28:V28,"&gt;0")/20</f>
         <v>0.5</v>
       </c>
       <c r="Z28" s="18">
-        <f t="shared" ref="Z28" si="149">COUNTIF(C28:G28,"=1")/5</f>
+        <f t="shared" ref="Z28" si="176">COUNTIF(C28:G28,"=1")/5</f>
         <v>0.4</v>
       </c>
       <c r="AA28" s="18">
-        <f t="shared" ref="AA28" si="150">COUNTIF(C28:L28,"=1")/10</f>
+        <f t="shared" ref="AA28" si="177">COUNTIF(C28:L28,"=1")/10</f>
         <v>0.5</v>
       </c>
       <c r="AB28" s="18">
-        <f t="shared" ref="AB28" si="151">COUNTIF(C28:V28,"=1")/20</f>
+        <f t="shared" ref="AB28" si="178">COUNTIF(C28:V28,"=1")/20</f>
         <v>0.45</v>
       </c>
       <c r="AC28" s="18">
-        <f t="shared" ref="AC28" si="152">((2^(C28*2))-1)/LOG(C$6+1,2)</f>
+        <f t="shared" ref="AC28" si="179">((2^(C28*2))-1)/LOG(C$6+1,2)</f>
         <v>0</v>
       </c>
       <c r="AD28" s="18">
-        <f t="shared" ref="AD28" si="153">((2^(D28*2))-1)/LOG(D$6+1,2)</f>
+        <f t="shared" ref="AD28" si="180">((2^(D28*2))-1)/LOG(D$6+1,2)</f>
         <v>0</v>
       </c>
       <c r="AE28" s="18">
-        <f t="shared" ref="AE28" si="154">((2^(E28*2))-1)/LOG(E$6+1,2)</f>
+        <f t="shared" ref="AE28" si="181">((2^(E28*2))-1)/LOG(E$6+1,2)</f>
         <v>0</v>
       </c>
       <c r="AF28" s="18">
-        <f t="shared" ref="AF28" si="155">((2^(F28*2))-1)/LOG(F$6+1,2)</f>
+        <f t="shared" ref="AF28" si="182">((2^(F28*2))-1)/LOG(F$6+1,2)</f>
         <v>1.2920296742201793</v>
       </c>
       <c r="AG28" s="18">
-        <f t="shared" ref="AG28" si="156">((2^(G28*2))-1)/LOG(G$6+1,2)</f>
+        <f t="shared" ref="AG28" si="183">((2^(G28*2))-1)/LOG(G$6+1,2)</f>
         <v>1.1605584217036249</v>
       </c>
       <c r="AH28" s="18">
-        <f t="shared" ref="AH28" si="157">((2^(H28*2))-1)/LOG(H$6+1,2)</f>
+        <f t="shared" ref="AH28" si="184">((2^(H28*2))-1)/LOG(H$6+1,2)</f>
         <v>1.0686215613240666</v>
       </c>
       <c r="AI28" s="18">
-        <f t="shared" ref="AI28" si="158">((2^(I28*2))-1)/LOG(I$6+1,2)</f>
+        <f t="shared" ref="AI28" si="185">((2^(I28*2))-1)/LOG(I$6+1,2)</f>
         <v>1</v>
       </c>
       <c r="AJ28" s="18">
-        <f t="shared" ref="AJ28" si="159">((2^(J28*2))-1)/LOG(J$6+1,2)</f>
+        <f t="shared" ref="AJ28" si="186">((2^(J28*2))-1)/LOG(J$6+1,2)</f>
         <v>0.94639463035718607</v>
       </c>
       <c r="AK28" s="18">
-        <f t="shared" ref="AK28" si="160">((2^(K28*2))-1)/LOG(K$6+1,2)</f>
+        <f t="shared" ref="AK28" si="187">((2^(K28*2))-1)/LOG(K$6+1,2)</f>
         <v>0.30102999566398114</v>
       </c>
       <c r="AL28" s="18">
-        <f t="shared" ref="AL28" si="161">((2^(L28*2))-1)/LOG(L$6+1,2)</f>
+        <f t="shared" ref="AL28" si="188">((2^(L28*2))-1)/LOG(L$6+1,2)</f>
         <v>0</v>
       </c>
       <c r="AM28" s="18">
-        <f t="shared" ref="AM28" si="162">((2^(M28*2))-1)/LOG(M$6+1,2)</f>
+        <f t="shared" ref="AM28" si="189">((2^(M28*2))-1)/LOG(M$6+1,2)</f>
         <v>0.8368288369533895</v>
       </c>
       <c r="AN28" s="18">
-        <f t="shared" ref="AN28" si="163">((2^(N28*2))-1)/LOG(N$6+1,2)</f>
+        <f t="shared" ref="AN28" si="190">((2^(N28*2))-1)/LOG(N$6+1,2)</f>
         <v>0.81071446328195917</v>
       </c>
       <c r="AO28" s="18">
-        <f t="shared" ref="AO28" si="164">((2^(O28*2))-1)/LOG(O$6+1,2)</f>
+        <f t="shared" ref="AO28" si="191">((2^(O28*2))-1)/LOG(O$6+1,2)</f>
         <v>0</v>
       </c>
       <c r="AP28" s="18">
-        <f t="shared" ref="AP28" si="165">((2^(P28*2))-1)/LOG(P$6+1,2)</f>
+        <f t="shared" ref="AP28" si="192">((2^(P28*2))-1)/LOG(P$6+1,2)</f>
         <v>0.76787407442944644</v>
       </c>
       <c r="AQ28" s="18">
-        <f t="shared" ref="AQ28" si="166">((2^(Q28*2))-1)/LOG(Q$6+1,2)</f>
+        <f t="shared" ref="AQ28" si="193">((2^(Q28*2))-1)/LOG(Q$6+1,2)</f>
         <v>0</v>
       </c>
       <c r="AR28" s="18">
-        <f t="shared" ref="AR28" si="167">((2^(R28*2))-1)/LOG(R$6+1,2)</f>
+        <f t="shared" ref="AR28" si="194">((2^(R28*2))-1)/LOG(R$6+1,2)</f>
         <v>0</v>
       </c>
       <c r="AS28" s="18">
-        <f t="shared" ref="AS28" si="168">((2^(S28*2))-1)/LOG(S$6+1,2)</f>
+        <f t="shared" ref="AS28" si="195">((2^(S28*2))-1)/LOG(S$6+1,2)</f>
         <v>0</v>
       </c>
       <c r="AT28" s="18">
-        <f t="shared" ref="AT28" si="169">((2^(T28*2))-1)/LOG(T$6+1,2)</f>
+        <f t="shared" ref="AT28" si="196">((2^(T28*2))-1)/LOG(T$6+1,2)</f>
         <v>0</v>
       </c>
       <c r="AU28" s="18">
-        <f t="shared" ref="AU28" si="170">((2^(U28*2))-1)/LOG(U$6+1,2)</f>
+        <f t="shared" ref="AU28" si="197">((2^(U28*2))-1)/LOG(U$6+1,2)</f>
         <v>0</v>
       </c>
       <c r="AV28" s="18">
-        <f t="shared" ref="AV28" si="171">((2^(V28*2))-1)/LOG(V$6+1,2)</f>
+        <f t="shared" ref="AV28" si="198">((2^(V28*2))-1)/LOG(V$6+1,2)</f>
         <v>0.68301074609085888</v>
       </c>
       <c r="AW28" s="18">
-        <f t="shared" ref="AW28" si="172">SUM(AC28:AG28)</f>
+        <f t="shared" ref="AW28" si="199">SUM(AC28:AG28)</f>
         <v>2.4525880959238044</v>
       </c>
       <c r="AX28" s="18">
-        <f t="shared" ref="AX28" si="173">SUM(AC28:AL28)</f>
+        <f t="shared" ref="AX28" si="200">SUM(AC28:AL28)</f>
         <v>5.768634283269038</v>
       </c>
       <c r="AY28" s="18">
-        <f t="shared" ref="AY28" si="174">SUM(AC28:AV28)</f>
+        <f t="shared" ref="AY28" si="201">SUM(AC28:AV28)</f>
         <v>8.8670624040246935</v>
       </c>
     </row>
@@ -5374,119 +6012,119 @@
         <v>0.5</v>
       </c>
       <c r="W29" s="18">
-        <f t="shared" ref="W29:W30" si="175">COUNTIF(C29:G29,"&gt;0")/5</f>
+        <f t="shared" ref="W29:W30" si="202">COUNTIF(C29:G29,"&gt;0")/5</f>
         <v>1</v>
       </c>
       <c r="X29" s="18">
-        <f t="shared" ref="X29:X30" si="176">COUNTIF(C29:L29,"&gt;0")/10</f>
+        <f t="shared" ref="X29:X30" si="203">COUNTIF(C29:L29,"&gt;0")/10</f>
         <v>1</v>
       </c>
       <c r="Y29" s="18">
-        <f t="shared" ref="Y29:Y30" si="177">COUNTIF(C29:V29,"&gt;0")/20</f>
+        <f t="shared" ref="Y29:Y30" si="204">COUNTIF(C29:V29,"&gt;0")/20</f>
         <v>0.9</v>
       </c>
       <c r="Z29" s="18">
-        <f t="shared" ref="Z29:Z30" si="178">COUNTIF(C29:G29,"=1")/5</f>
+        <f t="shared" ref="Z29:Z30" si="205">COUNTIF(C29:G29,"=1")/5</f>
         <v>0.6</v>
       </c>
       <c r="AA29" s="18">
-        <f t="shared" ref="AA29:AA30" si="179">COUNTIF(C29:L29,"=1")/10</f>
+        <f t="shared" ref="AA29:AA30" si="206">COUNTIF(C29:L29,"=1")/10</f>
         <v>0.5</v>
       </c>
       <c r="AB29" s="18">
-        <f t="shared" ref="AB29:AB30" si="180">COUNTIF(C29:V29,"=1")/20</f>
+        <f t="shared" ref="AB29:AB30" si="207">COUNTIF(C29:V29,"=1")/20</f>
         <v>0.25</v>
       </c>
       <c r="AC29" s="18">
-        <f t="shared" ref="AC29:AC30" si="181">((2^(C29*2))-1)/LOG(C$6+1,2)</f>
+        <f t="shared" ref="AC29:AC30" si="208">((2^(C29*2))-1)/LOG(C$6+1,2)</f>
         <v>3</v>
       </c>
       <c r="AD29" s="18">
-        <f t="shared" ref="AD29:AD30" si="182">((2^(D29*2))-1)/LOG(D$6+1,2)</f>
+        <f t="shared" ref="AD29:AD30" si="209">((2^(D29*2))-1)/LOG(D$6+1,2)</f>
         <v>1.8927892607143721</v>
       </c>
       <c r="AE29" s="18">
-        <f t="shared" ref="AE29:AE30" si="183">((2^(E29*2))-1)/LOG(E$6+1,2)</f>
+        <f t="shared" ref="AE29:AE30" si="210">((2^(E29*2))-1)/LOG(E$6+1,2)</f>
         <v>1.5</v>
       </c>
       <c r="AF29" s="18">
-        <f t="shared" ref="AF29:AF30" si="184">((2^(F29*2))-1)/LOG(F$6+1,2)</f>
+        <f t="shared" ref="AF29:AF30" si="211">((2^(F29*2))-1)/LOG(F$6+1,2)</f>
         <v>0.43067655807339306</v>
       </c>
       <c r="AG29" s="18">
-        <f t="shared" ref="AG29:AG30" si="185">((2^(G29*2))-1)/LOG(G$6+1,2)</f>
+        <f t="shared" ref="AG29:AG30" si="212">((2^(G29*2))-1)/LOG(G$6+1,2)</f>
         <v>0.38685280723454163</v>
       </c>
       <c r="AH29" s="18">
-        <f t="shared" ref="AH29:AH30" si="186">((2^(H29*2))-1)/LOG(H$6+1,2)</f>
+        <f t="shared" ref="AH29:AH30" si="213">((2^(H29*2))-1)/LOG(H$6+1,2)</f>
         <v>0.35620718710802218</v>
       </c>
       <c r="AI29" s="18">
-        <f t="shared" ref="AI29:AI30" si="187">((2^(I29*2))-1)/LOG(I$6+1,2)</f>
+        <f t="shared" ref="AI29:AI30" si="214">((2^(I29*2))-1)/LOG(I$6+1,2)</f>
         <v>1</v>
       </c>
       <c r="AJ29" s="18">
-        <f t="shared" ref="AJ29:AJ30" si="188">((2^(J29*2))-1)/LOG(J$6+1,2)</f>
+        <f t="shared" ref="AJ29:AJ30" si="215">((2^(J29*2))-1)/LOG(J$6+1,2)</f>
         <v>0.94639463035718607</v>
       </c>
       <c r="AK29" s="18">
-        <f t="shared" ref="AK29:AK30" si="189">((2^(K29*2))-1)/LOG(K$6+1,2)</f>
+        <f t="shared" ref="AK29:AK30" si="216">((2^(K29*2))-1)/LOG(K$6+1,2)</f>
         <v>0.30102999566398114</v>
       </c>
       <c r="AL29" s="18">
-        <f t="shared" ref="AL29:AL30" si="190">((2^(L29*2))-1)/LOG(L$6+1,2)</f>
+        <f t="shared" ref="AL29:AL30" si="217">((2^(L29*2))-1)/LOG(L$6+1,2)</f>
         <v>0.28906482631788782</v>
       </c>
       <c r="AM29" s="18">
-        <f t="shared" ref="AM29:AM30" si="191">((2^(M29*2))-1)/LOG(M$6+1,2)</f>
+        <f t="shared" ref="AM29:AM30" si="218">((2^(M29*2))-1)/LOG(M$6+1,2)</f>
         <v>0.27894294565112981</v>
       </c>
       <c r="AN29" s="18">
-        <f t="shared" ref="AN29:AN30" si="192">((2^(N29*2))-1)/LOG(N$6+1,2)</f>
+        <f t="shared" ref="AN29:AN30" si="219">((2^(N29*2))-1)/LOG(N$6+1,2)</f>
         <v>0</v>
       </c>
       <c r="AO29" s="18">
-        <f t="shared" ref="AO29:AO30" si="193">((2^(O29*2))-1)/LOG(O$6+1,2)</f>
+        <f t="shared" ref="AO29:AO30" si="220">((2^(O29*2))-1)/LOG(O$6+1,2)</f>
         <v>0</v>
       </c>
       <c r="AP29" s="18">
-        <f t="shared" ref="AP29:AP30" si="194">((2^(P29*2))-1)/LOG(P$6+1,2)</f>
+        <f t="shared" ref="AP29:AP30" si="221">((2^(P29*2))-1)/LOG(P$6+1,2)</f>
         <v>0.2559580248098155</v>
       </c>
       <c r="AQ29" s="18">
-        <f t="shared" ref="AQ29:AQ30" si="195">((2^(Q29*2))-1)/LOG(Q$6+1,2)</f>
+        <f t="shared" ref="AQ29:AQ30" si="222">((2^(Q29*2))-1)/LOG(Q$6+1,2)</f>
         <v>0.25</v>
       </c>
       <c r="AR29" s="18">
-        <f t="shared" ref="AR29:AR30" si="196">((2^(R29*2))-1)/LOG(R$6+1,2)</f>
+        <f t="shared" ref="AR29:AR30" si="223">((2^(R29*2))-1)/LOG(R$6+1,2)</f>
         <v>0.24465054211822598</v>
       </c>
       <c r="AS29" s="18">
-        <f t="shared" ref="AS29:AS30" si="197">((2^(S29*2))-1)/LOG(S$6+1,2)</f>
+        <f t="shared" ref="AS29:AS30" si="224">((2^(S29*2))-1)/LOG(S$6+1,2)</f>
         <v>0.23981246656813146</v>
       </c>
       <c r="AT29" s="18">
-        <f t="shared" ref="AT29:AT30" si="198">((2^(T29*2))-1)/LOG(T$6+1,2)</f>
+        <f t="shared" ref="AT29:AT30" si="225">((2^(T29*2))-1)/LOG(T$6+1,2)</f>
         <v>0.23540891336663824</v>
       </c>
       <c r="AU29" s="18">
-        <f t="shared" ref="AU29:AU30" si="199">((2^(U29*2))-1)/LOG(U$6+1,2)</f>
+        <f t="shared" ref="AU29:AU30" si="226">((2^(U29*2))-1)/LOG(U$6+1,2)</f>
         <v>0.23137821315975915</v>
       </c>
       <c r="AV29" s="18">
-        <f t="shared" ref="AV29:AV30" si="200">((2^(V29*2))-1)/LOG(V$6+1,2)</f>
+        <f t="shared" ref="AV29:AV30" si="227">((2^(V29*2))-1)/LOG(V$6+1,2)</f>
         <v>0.22767024869695299</v>
       </c>
       <c r="AW29" s="18">
-        <f t="shared" ref="AW29:AW30" si="201">SUM(AC29:AG29)</f>
+        <f t="shared" ref="AW29:AW30" si="228">SUM(AC29:AG29)</f>
         <v>7.2103186260223069</v>
       </c>
       <c r="AX29" s="18">
-        <f t="shared" ref="AX29:AX30" si="202">SUM(AC29:AL29)</f>
+        <f t="shared" ref="AX29:AX30" si="229">SUM(AC29:AL29)</f>
         <v>10.103015265469386</v>
       </c>
       <c r="AY29" s="18">
-        <f t="shared" ref="AY29:AY30" si="203">SUM(AC29:AV29)</f>
+        <f t="shared" ref="AY29:AY30" si="230">SUM(AC29:AV29)</f>
         <v>12.066836619840041</v>
       </c>
     </row>
@@ -5555,119 +6193,119 @@
         <v>0.5</v>
       </c>
       <c r="W30" s="18">
-        <f t="shared" si="175"/>
+        <f t="shared" si="202"/>
         <v>1</v>
       </c>
       <c r="X30" s="18">
-        <f t="shared" si="176"/>
+        <f t="shared" si="203"/>
         <v>0.9</v>
       </c>
       <c r="Y30" s="18">
-        <f t="shared" si="177"/>
+        <f t="shared" si="204"/>
         <v>0.75</v>
       </c>
       <c r="Z30" s="18">
-        <f t="shared" si="178"/>
+        <f t="shared" si="205"/>
         <v>0.8</v>
       </c>
       <c r="AA30" s="18">
-        <f t="shared" si="179"/>
+        <f t="shared" si="206"/>
         <v>0.7</v>
       </c>
       <c r="AB30" s="18">
-        <f t="shared" si="180"/>
+        <f t="shared" si="207"/>
         <v>0.45</v>
       </c>
       <c r="AC30" s="18">
-        <f t="shared" si="181"/>
+        <f t="shared" si="208"/>
         <v>1</v>
       </c>
       <c r="AD30" s="18">
-        <f t="shared" si="182"/>
+        <f t="shared" si="209"/>
         <v>1.8927892607143721</v>
       </c>
       <c r="AE30" s="18">
-        <f t="shared" si="183"/>
+        <f t="shared" si="210"/>
         <v>1.5</v>
       </c>
       <c r="AF30" s="18">
-        <f t="shared" si="184"/>
+        <f t="shared" si="211"/>
         <v>1.2920296742201793</v>
       </c>
       <c r="AG30" s="18">
-        <f t="shared" si="185"/>
+        <f t="shared" si="212"/>
         <v>1.1605584217036249</v>
       </c>
       <c r="AH30" s="18">
-        <f t="shared" si="186"/>
+        <f t="shared" si="213"/>
         <v>1.0686215613240666</v>
       </c>
       <c r="AI30" s="18">
-        <f t="shared" si="187"/>
+        <f t="shared" si="214"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="AJ30" s="18">
-        <f t="shared" si="188"/>
+        <f t="shared" si="215"/>
         <v>0.94639463035718607</v>
       </c>
       <c r="AK30" s="18">
-        <f t="shared" si="189"/>
+        <f t="shared" si="216"/>
         <v>0.90308998699194354</v>
       </c>
       <c r="AL30" s="18">
-        <f t="shared" si="190"/>
+        <f t="shared" si="217"/>
         <v>0</v>
       </c>
       <c r="AM30" s="18">
-        <f t="shared" si="191"/>
+        <f t="shared" si="218"/>
         <v>0</v>
       </c>
       <c r="AN30" s="18">
-        <f t="shared" si="192"/>
+        <f t="shared" si="219"/>
         <v>0.81071446328195917</v>
       </c>
       <c r="AO30" s="18">
-        <f t="shared" si="193"/>
+        <f t="shared" si="220"/>
         <v>0.26264953503719357</v>
       </c>
       <c r="AP30" s="18">
-        <f t="shared" si="194"/>
+        <f t="shared" si="221"/>
         <v>0.2559580248098155</v>
       </c>
       <c r="AQ30" s="18">
-        <f t="shared" si="195"/>
+        <f t="shared" si="222"/>
         <v>0</v>
       </c>
       <c r="AR30" s="18">
-        <f t="shared" si="196"/>
+        <f t="shared" si="223"/>
         <v>0</v>
       </c>
       <c r="AS30" s="18">
-        <f t="shared" si="197"/>
+        <f t="shared" si="224"/>
         <v>0</v>
       </c>
       <c r="AT30" s="18">
-        <f t="shared" si="198"/>
+        <f t="shared" si="225"/>
         <v>0.23540891336663824</v>
       </c>
       <c r="AU30" s="18">
-        <f t="shared" si="199"/>
+        <f t="shared" si="226"/>
         <v>0.69413463947927745</v>
       </c>
       <c r="AV30" s="18">
-        <f t="shared" si="200"/>
+        <f t="shared" si="227"/>
         <v>0.22767024869695299</v>
       </c>
       <c r="AW30" s="18">
-        <f t="shared" si="201"/>
+        <f t="shared" si="228"/>
         <v>6.8453773566381768</v>
       </c>
       <c r="AX30" s="18">
-        <f t="shared" si="202"/>
+        <f t="shared" si="229"/>
         <v>10.096816868644707</v>
       </c>
       <c r="AY30" s="18">
-        <f t="shared" si="203"/>
+        <f t="shared" si="230"/>
         <v>12.583352693316543</v>
       </c>
     </row>
@@ -5736,119 +6374,119 @@
         <v>1</v>
       </c>
       <c r="W31" s="18">
-        <f t="shared" ref="W31" si="204">COUNTIF(C31:G31,"&gt;0")/5</f>
+        <f t="shared" ref="W31" si="231">COUNTIF(C31:G31,"&gt;0")/5</f>
         <v>1</v>
       </c>
       <c r="X31" s="18">
-        <f t="shared" ref="X31" si="205">COUNTIF(C31:L31,"&gt;0")/10</f>
+        <f t="shared" ref="X31" si="232">COUNTIF(C31:L31,"&gt;0")/10</f>
         <v>1</v>
       </c>
       <c r="Y31" s="18">
-        <f t="shared" ref="Y31" si="206">COUNTIF(C31:V31,"&gt;0")/20</f>
+        <f t="shared" ref="Y31" si="233">COUNTIF(C31:V31,"&gt;0")/20</f>
         <v>1</v>
       </c>
       <c r="Z31" s="18">
-        <f t="shared" ref="Z31" si="207">COUNTIF(C31:G31,"=1")/5</f>
+        <f t="shared" ref="Z31" si="234">COUNTIF(C31:G31,"=1")/5</f>
         <v>1</v>
       </c>
       <c r="AA31" s="18">
-        <f t="shared" ref="AA31" si="208">COUNTIF(C31:L31,"=1")/10</f>
+        <f t="shared" ref="AA31" si="235">COUNTIF(C31:L31,"=1")/10</f>
         <v>1</v>
       </c>
       <c r="AB31" s="18">
-        <f t="shared" ref="AB31" si="209">COUNTIF(C31:V31,"=1")/20</f>
+        <f t="shared" ref="AB31" si="236">COUNTIF(C31:V31,"=1")/20</f>
         <v>1</v>
       </c>
       <c r="AC31" s="18">
-        <f t="shared" ref="AC31" si="210">((2^(C31*2))-1)/LOG(C$6+1,2)</f>
+        <f t="shared" ref="AC31" si="237">((2^(C31*2))-1)/LOG(C$6+1,2)</f>
         <v>3</v>
       </c>
       <c r="AD31" s="18">
-        <f t="shared" ref="AD31" si="211">((2^(D31*2))-1)/LOG(D$6+1,2)</f>
+        <f t="shared" ref="AD31" si="238">((2^(D31*2))-1)/LOG(D$6+1,2)</f>
         <v>1.8927892607143721</v>
       </c>
       <c r="AE31" s="18">
-        <f t="shared" ref="AE31" si="212">((2^(E31*2))-1)/LOG(E$6+1,2)</f>
+        <f t="shared" ref="AE31" si="239">((2^(E31*2))-1)/LOG(E$6+1,2)</f>
         <v>1.5</v>
       </c>
       <c r="AF31" s="18">
-        <f t="shared" ref="AF31" si="213">((2^(F31*2))-1)/LOG(F$6+1,2)</f>
+        <f t="shared" ref="AF31" si="240">((2^(F31*2))-1)/LOG(F$6+1,2)</f>
         <v>1.2920296742201793</v>
       </c>
       <c r="AG31" s="18">
-        <f t="shared" ref="AG31" si="214">((2^(G31*2))-1)/LOG(G$6+1,2)</f>
+        <f t="shared" ref="AG31" si="241">((2^(G31*2))-1)/LOG(G$6+1,2)</f>
         <v>1.1605584217036249</v>
       </c>
       <c r="AH31" s="18">
-        <f t="shared" ref="AH31" si="215">((2^(H31*2))-1)/LOG(H$6+1,2)</f>
+        <f t="shared" ref="AH31" si="242">((2^(H31*2))-1)/LOG(H$6+1,2)</f>
         <v>1.0686215613240666</v>
       </c>
       <c r="AI31" s="18">
-        <f t="shared" ref="AI31" si="216">((2^(I31*2))-1)/LOG(I$6+1,2)</f>
+        <f t="shared" ref="AI31" si="243">((2^(I31*2))-1)/LOG(I$6+1,2)</f>
         <v>1</v>
       </c>
       <c r="AJ31" s="18">
-        <f t="shared" ref="AJ31" si="217">((2^(J31*2))-1)/LOG(J$6+1,2)</f>
+        <f t="shared" ref="AJ31" si="244">((2^(J31*2))-1)/LOG(J$6+1,2)</f>
         <v>0.94639463035718607</v>
       </c>
       <c r="AK31" s="18">
-        <f t="shared" ref="AK31" si="218">((2^(K31*2))-1)/LOG(K$6+1,2)</f>
+        <f t="shared" ref="AK31" si="245">((2^(K31*2))-1)/LOG(K$6+1,2)</f>
         <v>0.90308998699194354</v>
       </c>
       <c r="AL31" s="18">
-        <f t="shared" ref="AL31" si="219">((2^(L31*2))-1)/LOG(L$6+1,2)</f>
+        <f t="shared" ref="AL31" si="246">((2^(L31*2))-1)/LOG(L$6+1,2)</f>
         <v>0.86719447895366342</v>
       </c>
       <c r="AM31" s="18">
-        <f t="shared" ref="AM31" si="220">((2^(M31*2))-1)/LOG(M$6+1,2)</f>
+        <f t="shared" ref="AM31" si="247">((2^(M31*2))-1)/LOG(M$6+1,2)</f>
         <v>0.8368288369533895</v>
       </c>
       <c r="AN31" s="18">
-        <f t="shared" ref="AN31" si="221">((2^(N31*2))-1)/LOG(N$6+1,2)</f>
+        <f t="shared" ref="AN31" si="248">((2^(N31*2))-1)/LOG(N$6+1,2)</f>
         <v>0.81071446328195917</v>
       </c>
       <c r="AO31" s="18">
-        <f t="shared" ref="AO31" si="222">((2^(O31*2))-1)/LOG(O$6+1,2)</f>
+        <f t="shared" ref="AO31" si="249">((2^(O31*2))-1)/LOG(O$6+1,2)</f>
         <v>0.78794860511158071</v>
       </c>
       <c r="AP31" s="18">
-        <f t="shared" ref="AP31" si="223">((2^(P31*2))-1)/LOG(P$6+1,2)</f>
+        <f t="shared" ref="AP31" si="250">((2^(P31*2))-1)/LOG(P$6+1,2)</f>
         <v>0.76787407442944644</v>
       </c>
       <c r="AQ31" s="18">
-        <f t="shared" ref="AQ31" si="224">((2^(Q31*2))-1)/LOG(Q$6+1,2)</f>
+        <f t="shared" ref="AQ31" si="251">((2^(Q31*2))-1)/LOG(Q$6+1,2)</f>
         <v>0.75</v>
       </c>
       <c r="AR31" s="18">
-        <f t="shared" ref="AR31" si="225">((2^(R31*2))-1)/LOG(R$6+1,2)</f>
+        <f t="shared" ref="AR31" si="252">((2^(R31*2))-1)/LOG(R$6+1,2)</f>
         <v>0.73395162635467803</v>
       </c>
       <c r="AS31" s="18">
-        <f t="shared" ref="AS31" si="226">((2^(S31*2))-1)/LOG(S$6+1,2)</f>
+        <f t="shared" ref="AS31" si="253">((2^(S31*2))-1)/LOG(S$6+1,2)</f>
         <v>0.71943739970439435</v>
       </c>
       <c r="AT31" s="18">
-        <f t="shared" ref="AT31" si="227">((2^(T31*2))-1)/LOG(T$6+1,2)</f>
+        <f t="shared" ref="AT31" si="254">((2^(T31*2))-1)/LOG(T$6+1,2)</f>
         <v>0.70622674009991471</v>
       </c>
       <c r="AU31" s="18">
-        <f t="shared" ref="AU31" si="228">((2^(U31*2))-1)/LOG(U$6+1,2)</f>
+        <f t="shared" ref="AU31" si="255">((2^(U31*2))-1)/LOG(U$6+1,2)</f>
         <v>0.69413463947927745</v>
       </c>
       <c r="AV31" s="18">
-        <f t="shared" ref="AV31" si="229">((2^(V31*2))-1)/LOG(V$6+1,2)</f>
+        <f t="shared" ref="AV31" si="256">((2^(V31*2))-1)/LOG(V$6+1,2)</f>
         <v>0.68301074609085888</v>
       </c>
       <c r="AW31" s="18">
-        <f t="shared" ref="AW31" si="230">SUM(AC31:AG31)</f>
+        <f t="shared" ref="AW31" si="257">SUM(AC31:AG31)</f>
         <v>8.8453773566381777</v>
       </c>
       <c r="AX31" s="18">
-        <f t="shared" ref="AX31" si="231">SUM(AC31:AL31)</f>
+        <f t="shared" ref="AX31" si="258">SUM(AC31:AL31)</f>
         <v>13.630678014265039</v>
       </c>
       <c r="AY31" s="18">
-        <f t="shared" ref="AY31" si="232">SUM(AC31:AV31)</f>
+        <f t="shared" ref="AY31" si="259">SUM(AC31:AV31)</f>
         <v>21.120805145770536</v>
       </c>
     </row>
@@ -5860,38 +6498,38 @@
       <c r="B33" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="29"/>
-      <c r="S33" s="29"/>
-      <c r="T33" s="29"/>
-      <c r="U33" s="29"/>
-      <c r="V33" s="30"/>
-      <c r="W33" s="28" t="s">
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="32"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="32"/>
+      <c r="U33" s="32"/>
+      <c r="V33" s="33"/>
+      <c r="W33" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="X33" s="29"/>
-      <c r="Y33" s="30"/>
-      <c r="Z33" s="28" t="s">
+      <c r="X33" s="32"/>
+      <c r="Y33" s="33"/>
+      <c r="Z33" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="AA33" s="29"/>
-      <c r="AB33" s="30"/>
+      <c r="AA33" s="32"/>
+      <c r="AB33" s="33"/>
       <c r="AC33" s="2"/>
       <c r="AD33" s="2"/>
       <c r="AE33" s="2"/>
@@ -5912,11 +6550,11 @@
       <c r="AT33" s="2"/>
       <c r="AU33" s="2"/>
       <c r="AV33" s="2"/>
-      <c r="AW33" s="28" t="s">
+      <c r="AW33" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="AX33" s="29"/>
-      <c r="AY33" s="30"/>
+      <c r="AX33" s="32"/>
+      <c r="AY33" s="33"/>
     </row>
     <row r="34" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
@@ -6050,121 +6688,121 @@
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
-      <c r="W35" s="14">
-        <f>AVERAGE(W36:W44)</f>
-        <v>0.91111111111111098</v>
-      </c>
-      <c r="X35" s="14">
-        <f t="shared" ref="X35:AY35" si="233">AVERAGE(X36:X44)</f>
-        <v>0.93333333333333335</v>
-      </c>
-      <c r="Y35" s="14">
-        <f t="shared" si="233"/>
-        <v>0.87222222222222223</v>
-      </c>
-      <c r="Z35" s="14">
-        <f t="shared" si="233"/>
-        <v>0.82222222222222219</v>
-      </c>
-      <c r="AA35" s="14">
-        <f t="shared" si="233"/>
-        <v>0.81111111111111112</v>
-      </c>
-      <c r="AB35" s="14">
-        <f t="shared" si="233"/>
-        <v>0.6166666666666667</v>
+      <c r="W35" s="39">
+        <f>AVERAGE(W36:W45)</f>
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="X35" s="39">
+        <f t="shared" ref="X35" si="260">AVERAGE(X36:X45)</f>
+        <v>0.94000000000000006</v>
+      </c>
+      <c r="Y35" s="39">
+        <f t="shared" ref="Y35" si="261">AVERAGE(Y36:Y45)</f>
+        <v>0.88500000000000012</v>
+      </c>
+      <c r="Z35" s="40">
+        <f t="shared" ref="Z35" si="262">AVERAGE(Z36:Z45)</f>
+        <v>0.83999999999999986</v>
+      </c>
+      <c r="AA35" s="40">
+        <f t="shared" ref="AA35" si="263">AVERAGE(AA36:AA45)</f>
+        <v>0.83000000000000007</v>
+      </c>
+      <c r="AB35" s="40">
+        <f t="shared" ref="AB35" si="264">AVERAGE(AB36:AB45)</f>
+        <v>0.65500000000000003</v>
       </c>
       <c r="AC35" s="14">
-        <f t="shared" si="233"/>
-        <v>2.4444444444444446</v>
+        <f t="shared" ref="AC35" si="265">AVERAGE(AC36:AC45)</f>
+        <v>2.5</v>
       </c>
       <c r="AD35" s="14">
-        <f t="shared" si="233"/>
-        <v>1.6824793428572196</v>
+        <f t="shared" ref="AD35" si="266">AVERAGE(AD36:AD45)</f>
+        <v>1.7035103346429348</v>
       </c>
       <c r="AE35" s="14">
-        <f t="shared" si="233"/>
+        <f t="shared" ref="AE35" si="267">AVERAGE(AE36:AE45)</f>
         <v>1.5</v>
       </c>
       <c r="AF35" s="14">
-        <f t="shared" si="233"/>
-        <v>0.95705901794087367</v>
+        <f t="shared" ref="AF35" si="268">AVERAGE(AF36:AF45)</f>
+        <v>0.99055608356880431</v>
       </c>
       <c r="AG35" s="14">
-        <f t="shared" si="233"/>
-        <v>0.9456401954622129</v>
+        <f t="shared" ref="AG35" si="269">AVERAGE(AG36:AG45)</f>
+        <v>0.96713201808635407</v>
       </c>
       <c r="AH35" s="14">
-        <f t="shared" si="233"/>
-        <v>0.98946440863339502</v>
+        <f t="shared" ref="AH35" si="270">AVERAGE(AH36:AH45)</f>
+        <v>0.99738012390246222</v>
       </c>
       <c r="AI35" s="14">
-        <f t="shared" si="233"/>
-        <v>0.85185185185185186</v>
+        <f t="shared" ref="AI35" si="271">AVERAGE(AI36:AI45)</f>
+        <v>0.86666666666666681</v>
       </c>
       <c r="AJ35" s="14">
-        <f t="shared" si="233"/>
-        <v>0.70103305952384143</v>
+        <f t="shared" ref="AJ35" si="272">AVERAGE(AJ36:AJ45)</f>
+        <v>0.72556921660717588</v>
       </c>
       <c r="AK35" s="14">
-        <f t="shared" si="233"/>
-        <v>0.83619443239994784</v>
+        <f t="shared" ref="AK35" si="273">AVERAGE(AK36:AK45)</f>
+        <v>0.84288398785914731</v>
       </c>
       <c r="AL35" s="14">
-        <f t="shared" si="233"/>
-        <v>0.70660290877705922</v>
+        <f t="shared" ref="AL35" si="274">AVERAGE(AL36:AL45)</f>
+        <v>0.72266206579471959</v>
       </c>
       <c r="AM35" s="14">
-        <f t="shared" si="233"/>
-        <v>0.71285419444177622</v>
+        <f t="shared" ref="AM35" si="275">AVERAGE(AM36:AM45)</f>
+        <v>0.72525165869293762</v>
       </c>
       <c r="AN35" s="14">
-        <f t="shared" si="233"/>
-        <v>0.54047630885463949</v>
+        <f t="shared" ref="AN35" si="276">AVERAGE(AN36:AN45)</f>
+        <v>0.56750012429737151</v>
       </c>
       <c r="AO35" s="14">
-        <f t="shared" si="233"/>
-        <v>0.43774922506198927</v>
+        <f t="shared" ref="AO35" si="277">AVERAGE(AO36:AO45)</f>
+        <v>0.47276916306694838</v>
       </c>
       <c r="AP35" s="14">
-        <f t="shared" si="233"/>
-        <v>0.42659670801635918</v>
+        <f t="shared" ref="AP35" si="278">AVERAGE(AP36:AP45)</f>
+        <v>0.46072444465766793</v>
       </c>
       <c r="AQ35" s="14">
-        <f t="shared" si="233"/>
-        <v>0.44444444444444442</v>
+        <f t="shared" ref="AQ35" si="279">AVERAGE(AQ36:AQ45)</f>
+        <v>0.47499999999999998</v>
       </c>
       <c r="AR35" s="14">
-        <f t="shared" si="233"/>
-        <v>0.32620072282430135</v>
+        <f t="shared" ref="AR35" si="280">AVERAGE(AR36:AR45)</f>
+        <v>0.36697581317733902</v>
       </c>
       <c r="AS35" s="14">
-        <f t="shared" si="233"/>
-        <v>0.26645829618681272</v>
+        <f t="shared" ref="AS35" si="281">AVERAGE(AS36:AS45)</f>
+        <v>0.31175620653857089</v>
       </c>
       <c r="AT35" s="14">
-        <f t="shared" si="233"/>
-        <v>0.2877220052258912</v>
+        <f t="shared" ref="AT35" si="282">AVERAGE(AT36:AT45)</f>
+        <v>0.32957247871329354</v>
       </c>
       <c r="AU35" s="14">
-        <f t="shared" si="233"/>
-        <v>0.41133904561734957</v>
+        <f t="shared" ref="AU35" si="283">AVERAGE(AU36:AU45)</f>
+        <v>0.43961860500354238</v>
       </c>
       <c r="AV35" s="14">
-        <f t="shared" si="233"/>
-        <v>0.32885702589559873</v>
-      </c>
-      <c r="AW35" s="14">
-        <f t="shared" si="233"/>
-        <v>7.5296230007047518</v>
-      </c>
-      <c r="AX35" s="14">
-        <f t="shared" si="233"/>
-        <v>11.614769661890849</v>
-      </c>
-      <c r="AY35" s="14">
-        <f t="shared" si="233"/>
-        <v>15.797467638460009</v>
+        <f t="shared" ref="AV35" si="284">AVERAGE(AV36:AV45)</f>
+        <v>0.36427239791512472</v>
+      </c>
+      <c r="AW35" s="41">
+        <f t="shared" ref="AW35" si="285">AVERAGE(AW36:AW45)</f>
+        <v>7.6611984362980952</v>
+      </c>
+      <c r="AX35" s="41">
+        <f t="shared" ref="AX35" si="286">AVERAGE(AX36:AX45)</f>
+        <v>11.816360497128269</v>
+      </c>
+      <c r="AY35" s="41">
+        <f t="shared" ref="AY35" si="287">AVERAGE(AY36:AY45)</f>
+        <v>16.329801389191061</v>
       </c>
     </row>
     <row r="36" spans="2:51" x14ac:dyDescent="0.25">
@@ -6232,15 +6870,15 @@
         <v>0.5</v>
       </c>
       <c r="W36" s="2">
-        <f t="shared" ref="W36:W41" si="234">COUNTIF(C36:G36,"&gt;0")/5</f>
+        <f t="shared" ref="W36:W41" si="288">COUNTIF(C36:G36,"&gt;0")/5</f>
         <v>1</v>
       </c>
       <c r="X36" s="2">
-        <f t="shared" ref="X36:X41" si="235">COUNTIF(C36:L36,"&gt;0")/10</f>
+        <f t="shared" ref="X36:X41" si="289">COUNTIF(C36:L36,"&gt;0")/10</f>
         <v>1</v>
       </c>
       <c r="Y36" s="2">
-        <f t="shared" ref="Y36:Y41" si="236">COUNTIF(C36:V36,"&gt;0")/20</f>
+        <f t="shared" ref="Y36:Y41" si="290">COUNTIF(C36:V36,"&gt;0")/20</f>
         <v>1</v>
       </c>
       <c r="Z36" s="2">
@@ -6260,87 +6898,87 @@
         <v>3</v>
       </c>
       <c r="AD36" s="2">
-        <f t="shared" ref="AD36:AD41" si="237">((2^(D36*2))-1)/LOG(D$6+1,2)</f>
+        <f t="shared" ref="AD36:AD41" si="291">((2^(D36*2))-1)/LOG(D$6+1,2)</f>
         <v>1.8927892607143721</v>
       </c>
       <c r="AE36" s="2">
-        <f t="shared" ref="AE36:AE41" si="238">((2^(E36*2))-1)/LOG(E$6+1,2)</f>
+        <f t="shared" ref="AE36:AE41" si="292">((2^(E36*2))-1)/LOG(E$6+1,2)</f>
         <v>1.5</v>
       </c>
       <c r="AF36" s="2">
-        <f t="shared" ref="AF36:AF41" si="239">((2^(F36*2))-1)/LOG(F$6+1,2)</f>
+        <f t="shared" ref="AF36:AF41" si="293">((2^(F36*2))-1)/LOG(F$6+1,2)</f>
         <v>1.2920296742201793</v>
       </c>
       <c r="AG36" s="2">
-        <f t="shared" ref="AG36:AG41" si="240">((2^(G36*2))-1)/LOG(G$6+1,2)</f>
+        <f t="shared" ref="AG36:AG41" si="294">((2^(G36*2))-1)/LOG(G$6+1,2)</f>
         <v>1.1605584217036249</v>
       </c>
       <c r="AH36" s="2">
-        <f t="shared" ref="AH36:AH41" si="241">((2^(H36*2))-1)/LOG(H$6+1,2)</f>
+        <f t="shared" ref="AH36:AH41" si="295">((2^(H36*2))-1)/LOG(H$6+1,2)</f>
         <v>1.0686215613240666</v>
       </c>
       <c r="AI36" s="2">
-        <f t="shared" ref="AI36:AI41" si="242">((2^(I36*2))-1)/LOG(I$6+1,2)</f>
+        <f t="shared" ref="AI36:AI41" si="296">((2^(I36*2))-1)/LOG(I$6+1,2)</f>
         <v>1</v>
       </c>
       <c r="AJ36" s="2">
-        <f t="shared" ref="AJ36:AJ41" si="243">((2^(J36*2))-1)/LOG(J$6+1,2)</f>
+        <f t="shared" ref="AJ36:AJ41" si="297">((2^(J36*2))-1)/LOG(J$6+1,2)</f>
         <v>0.94639463035718607</v>
       </c>
       <c r="AK36" s="2">
-        <f t="shared" ref="AK36:AK41" si="244">((2^(K36*2))-1)/LOG(K$6+1,2)</f>
+        <f t="shared" ref="AK36:AK41" si="298">((2^(K36*2))-1)/LOG(K$6+1,2)</f>
         <v>0.90308998699194354</v>
       </c>
       <c r="AL36" s="2">
-        <f t="shared" ref="AL36:AL41" si="245">((2^(L36*2))-1)/LOG(L$6+1,2)</f>
+        <f t="shared" ref="AL36:AL41" si="299">((2^(L36*2))-1)/LOG(L$6+1,2)</f>
         <v>0.86719447895366342</v>
       </c>
       <c r="AM36" s="2">
-        <f t="shared" ref="AM36:AM41" si="246">((2^(M36*2))-1)/LOG(M$6+1,2)</f>
+        <f t="shared" ref="AM36:AM41" si="300">((2^(M36*2))-1)/LOG(M$6+1,2)</f>
         <v>0.8368288369533895</v>
       </c>
       <c r="AN36" s="2">
-        <f t="shared" ref="AN36:AN41" si="247">((2^(N36*2))-1)/LOG(N$6+1,2)</f>
+        <f t="shared" ref="AN36:AN41" si="301">((2^(N36*2))-1)/LOG(N$6+1,2)</f>
         <v>0.81071446328195917</v>
       </c>
       <c r="AO36" s="2">
-        <f t="shared" ref="AO36:AO41" si="248">((2^(O36*2))-1)/LOG(O$6+1,2)</f>
+        <f t="shared" ref="AO36:AO41" si="302">((2^(O36*2))-1)/LOG(O$6+1,2)</f>
         <v>0.78794860511158071</v>
       </c>
       <c r="AP36" s="2">
-        <f t="shared" ref="AP36:AP41" si="249">((2^(P36*2))-1)/LOG(P$6+1,2)</f>
+        <f t="shared" ref="AP36:AP41" si="303">((2^(P36*2))-1)/LOG(P$6+1,2)</f>
         <v>0.76787407442944644</v>
       </c>
       <c r="AQ36" s="2">
-        <f t="shared" ref="AQ36:AQ41" si="250">((2^(Q36*2))-1)/LOG(Q$6+1,2)</f>
+        <f t="shared" ref="AQ36:AQ41" si="304">((2^(Q36*2))-1)/LOG(Q$6+1,2)</f>
         <v>0.75</v>
       </c>
       <c r="AR36" s="2">
-        <f t="shared" ref="AR36:AR41" si="251">((2^(R36*2))-1)/LOG(R$6+1,2)</f>
+        <f t="shared" ref="AR36:AR41" si="305">((2^(R36*2))-1)/LOG(R$6+1,2)</f>
         <v>0.73395162635467803</v>
       </c>
       <c r="AS36" s="2">
-        <f t="shared" ref="AS36:AS41" si="252">((2^(S36*2))-1)/LOG(S$6+1,2)</f>
+        <f t="shared" ref="AS36:AS41" si="306">((2^(S36*2))-1)/LOG(S$6+1,2)</f>
         <v>0.71943739970439435</v>
       </c>
       <c r="AT36" s="2">
-        <f t="shared" ref="AT36:AT41" si="253">((2^(T36*2))-1)/LOG(T$6+1,2)</f>
+        <f t="shared" ref="AT36:AT41" si="307">((2^(T36*2))-1)/LOG(T$6+1,2)</f>
         <v>0.70622674009991471</v>
       </c>
       <c r="AU36" s="2">
-        <f t="shared" ref="AU36:AU41" si="254">((2^(U36*2))-1)/LOG(U$6+1,2)</f>
+        <f t="shared" ref="AU36:AU41" si="308">((2^(U36*2))-1)/LOG(U$6+1,2)</f>
         <v>0.69413463947927745</v>
       </c>
       <c r="AV36" s="2">
-        <f t="shared" ref="AV36:AV41" si="255">((2^(V36*2))-1)/LOG(V$6+1,2)</f>
+        <f t="shared" ref="AV36:AV41" si="309">((2^(V36*2))-1)/LOG(V$6+1,2)</f>
         <v>0.22767024869695299</v>
       </c>
       <c r="AW36" s="2">
-        <f t="shared" ref="AW36:AW41" si="256">SUM(AC36:AG36)</f>
+        <f t="shared" ref="AW36:AW41" si="310">SUM(AC36:AG36)</f>
         <v>8.8453773566381777</v>
       </c>
       <c r="AX36" s="2">
-        <f t="shared" ref="AX36:AX41" si="257">SUM(AC36:AL36)</f>
+        <f t="shared" ref="AX36:AX41" si="311">SUM(AC36:AL36)</f>
         <v>13.630678014265039</v>
       </c>
       <c r="AY36" s="2">
@@ -6413,119 +7051,119 @@
         <v>0.5</v>
       </c>
       <c r="W37" s="2">
-        <f t="shared" si="234"/>
+        <f t="shared" si="288"/>
         <v>1</v>
       </c>
       <c r="X37" s="2">
-        <f t="shared" si="235"/>
+        <f t="shared" si="289"/>
         <v>1</v>
       </c>
       <c r="Y37" s="2">
-        <f t="shared" si="236"/>
+        <f t="shared" si="290"/>
         <v>1</v>
       </c>
       <c r="Z37" s="2">
-        <f t="shared" ref="Z37:Z41" si="258">COUNTIF(C37:G37,"=1")/5</f>
+        <f t="shared" ref="Z37:Z41" si="312">COUNTIF(C37:G37,"=1")/5</f>
         <v>1</v>
       </c>
       <c r="AA37" s="2">
-        <f t="shared" ref="AA37:AA41" si="259">COUNTIF(C37:L37,"=1")/10</f>
+        <f t="shared" ref="AA37:AA41" si="313">COUNTIF(C37:L37,"=1")/10</f>
         <v>1</v>
       </c>
       <c r="AB37" s="2">
-        <f t="shared" ref="AB37:AB41" si="260">COUNTIF(C37:V37,"=1")/20</f>
+        <f t="shared" ref="AB37:AB41" si="314">COUNTIF(C37:V37,"=1")/20</f>
         <v>0.75</v>
       </c>
       <c r="AC37" s="2">
-        <f t="shared" ref="AC37:AC41" si="261">((2^(C37*2))-1)/LOG(C$6+1,2)</f>
+        <f t="shared" ref="AC37:AC41" si="315">((2^(C37*2))-1)/LOG(C$6+1,2)</f>
         <v>3</v>
       </c>
       <c r="AD37" s="2">
-        <f t="shared" si="237"/>
+        <f t="shared" si="291"/>
         <v>1.8927892607143721</v>
       </c>
       <c r="AE37" s="2">
-        <f t="shared" si="238"/>
+        <f t="shared" si="292"/>
         <v>1.5</v>
       </c>
       <c r="AF37" s="2">
-        <f t="shared" si="239"/>
+        <f t="shared" si="293"/>
         <v>1.2920296742201793</v>
       </c>
       <c r="AG37" s="2">
-        <f t="shared" si="240"/>
+        <f t="shared" si="294"/>
         <v>1.1605584217036249</v>
       </c>
       <c r="AH37" s="2">
-        <f t="shared" si="241"/>
+        <f t="shared" si="295"/>
         <v>1.0686215613240666</v>
       </c>
       <c r="AI37" s="2">
-        <f t="shared" si="242"/>
+        <f t="shared" si="296"/>
         <v>1</v>
       </c>
       <c r="AJ37" s="2">
-        <f t="shared" si="243"/>
+        <f t="shared" si="297"/>
         <v>0.94639463035718607</v>
       </c>
       <c r="AK37" s="2">
-        <f t="shared" si="244"/>
+        <f t="shared" si="298"/>
         <v>0.90308998699194354</v>
       </c>
       <c r="AL37" s="2">
-        <f t="shared" si="245"/>
+        <f t="shared" si="299"/>
         <v>0.86719447895366342</v>
       </c>
       <c r="AM37" s="2">
-        <f t="shared" si="246"/>
+        <f t="shared" si="300"/>
         <v>0.8368288369533895</v>
       </c>
       <c r="AN37" s="2">
-        <f t="shared" si="247"/>
+        <f t="shared" si="301"/>
         <v>0.81071446328195917</v>
       </c>
       <c r="AO37" s="2">
-        <f t="shared" si="248"/>
+        <f t="shared" si="302"/>
         <v>0.78794860511158071</v>
       </c>
       <c r="AP37" s="2">
-        <f t="shared" si="249"/>
+        <f t="shared" si="303"/>
         <v>0.76787407442944644</v>
       </c>
       <c r="AQ37" s="2">
-        <f t="shared" si="250"/>
+        <f t="shared" si="304"/>
         <v>0.75</v>
       </c>
       <c r="AR37" s="2">
-        <f t="shared" si="251"/>
+        <f t="shared" si="305"/>
         <v>0.24465054211822598</v>
       </c>
       <c r="AS37" s="2">
-        <f t="shared" si="252"/>
+        <f t="shared" si="306"/>
         <v>0.23981246656813146</v>
       </c>
       <c r="AT37" s="2">
-        <f t="shared" si="253"/>
+        <f t="shared" si="307"/>
         <v>0.23540891336663824</v>
       </c>
       <c r="AU37" s="2">
-        <f t="shared" si="254"/>
+        <f t="shared" si="308"/>
         <v>0.23137821315975915</v>
       </c>
       <c r="AV37" s="2">
-        <f t="shared" si="255"/>
+        <f t="shared" si="309"/>
         <v>0.22767024869695299</v>
       </c>
       <c r="AW37" s="2">
-        <f t="shared" si="256"/>
+        <f t="shared" si="310"/>
         <v>8.8453773566381777</v>
       </c>
       <c r="AX37" s="2">
-        <f t="shared" si="257"/>
+        <f t="shared" si="311"/>
         <v>13.630678014265039</v>
       </c>
       <c r="AY37" s="2">
-        <f t="shared" ref="AY37:AY41" si="262">SUM(AC37:AV37)</f>
+        <f t="shared" ref="AY37:AY41" si="316">SUM(AC37:AV37)</f>
         <v>18.762964377951121</v>
       </c>
     </row>
@@ -6594,119 +7232,119 @@
         <v>0</v>
       </c>
       <c r="W38" s="2">
-        <f t="shared" si="234"/>
+        <f t="shared" si="288"/>
         <v>1</v>
       </c>
       <c r="X38" s="2">
-        <f t="shared" si="235"/>
+        <f t="shared" si="289"/>
         <v>1</v>
       </c>
       <c r="Y38" s="2">
-        <f t="shared" si="236"/>
+        <f t="shared" si="290"/>
         <v>0.75</v>
       </c>
       <c r="Z38" s="2">
-        <f t="shared" si="258"/>
+        <f t="shared" si="312"/>
         <v>1</v>
       </c>
       <c r="AA38" s="2">
-        <f t="shared" si="259"/>
+        <f t="shared" si="313"/>
         <v>0.8</v>
       </c>
       <c r="AB38" s="2">
-        <f t="shared" si="260"/>
+        <f t="shared" si="314"/>
         <v>0.5</v>
       </c>
       <c r="AC38" s="2">
-        <f t="shared" si="261"/>
+        <f t="shared" si="315"/>
         <v>3</v>
       </c>
       <c r="AD38" s="2">
-        <f t="shared" si="237"/>
+        <f t="shared" si="291"/>
         <v>1.8927892607143721</v>
       </c>
       <c r="AE38" s="2">
-        <f t="shared" si="238"/>
+        <f t="shared" si="292"/>
         <v>1.5</v>
       </c>
       <c r="AF38" s="2">
-        <f t="shared" si="239"/>
+        <f t="shared" si="293"/>
         <v>1.2920296742201793</v>
       </c>
       <c r="AG38" s="2">
-        <f t="shared" si="240"/>
+        <f t="shared" si="294"/>
         <v>1.1605584217036249</v>
       </c>
       <c r="AH38" s="2">
-        <f t="shared" si="241"/>
+        <f t="shared" si="295"/>
         <v>1.0686215613240666</v>
       </c>
       <c r="AI38" s="2">
-        <f t="shared" si="242"/>
+        <f t="shared" si="296"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="AJ38" s="2">
-        <f t="shared" si="243"/>
+        <f t="shared" si="297"/>
         <v>0.31546487678572871</v>
       </c>
       <c r="AK38" s="2">
-        <f t="shared" si="244"/>
+        <f t="shared" si="298"/>
         <v>0.90308998699194354</v>
       </c>
       <c r="AL38" s="2">
-        <f t="shared" si="245"/>
+        <f t="shared" si="299"/>
         <v>0.86719447895366342</v>
       </c>
       <c r="AM38" s="2">
-        <f t="shared" si="246"/>
+        <f t="shared" si="300"/>
         <v>0.8368288369533895</v>
       </c>
       <c r="AN38" s="2">
-        <f t="shared" si="247"/>
+        <f t="shared" si="301"/>
         <v>0</v>
       </c>
       <c r="AO38" s="2">
-        <f t="shared" si="248"/>
+        <f t="shared" si="302"/>
         <v>0</v>
       </c>
       <c r="AP38" s="2">
-        <f t="shared" si="249"/>
+        <f t="shared" si="303"/>
         <v>0</v>
       </c>
       <c r="AQ38" s="2">
-        <f t="shared" si="250"/>
+        <f t="shared" si="304"/>
         <v>0.25</v>
       </c>
       <c r="AR38" s="2">
-        <f t="shared" si="251"/>
+        <f t="shared" si="305"/>
         <v>0</v>
       </c>
       <c r="AS38" s="2">
-        <f t="shared" si="252"/>
+        <f t="shared" si="306"/>
         <v>0.23981246656813146</v>
       </c>
       <c r="AT38" s="2">
-        <f t="shared" si="253"/>
+        <f t="shared" si="307"/>
         <v>0.23540891336663824</v>
       </c>
       <c r="AU38" s="2">
-        <f t="shared" si="254"/>
+        <f t="shared" si="308"/>
         <v>0.69413463947927745</v>
       </c>
       <c r="AV38" s="2">
-        <f t="shared" si="255"/>
+        <f t="shared" si="309"/>
         <v>0</v>
       </c>
       <c r="AW38" s="2">
-        <f t="shared" si="256"/>
+        <f t="shared" si="310"/>
         <v>8.8453773566381777</v>
       </c>
       <c r="AX38" s="2">
-        <f t="shared" si="257"/>
+        <f t="shared" si="311"/>
         <v>12.333081594026915</v>
       </c>
       <c r="AY38" s="2">
-        <f t="shared" si="262"/>
+        <f t="shared" si="316"/>
         <v>14.589266450394351</v>
       </c>
     </row>
@@ -6775,119 +7413,119 @@
         <v>0.5</v>
       </c>
       <c r="W39" s="2">
-        <f t="shared" si="234"/>
+        <f t="shared" si="288"/>
         <v>1</v>
       </c>
       <c r="X39" s="2">
-        <f t="shared" si="235"/>
+        <f t="shared" si="289"/>
         <v>1</v>
       </c>
       <c r="Y39" s="2">
-        <f t="shared" si="236"/>
+        <f t="shared" si="290"/>
         <v>1</v>
       </c>
       <c r="Z39" s="2">
-        <f t="shared" si="258"/>
+        <f t="shared" si="312"/>
         <v>1</v>
       </c>
       <c r="AA39" s="2">
-        <f t="shared" si="259"/>
+        <f t="shared" si="313"/>
         <v>0.8</v>
       </c>
       <c r="AB39" s="2">
-        <f t="shared" si="260"/>
+        <f t="shared" si="314"/>
         <v>0.5</v>
       </c>
       <c r="AC39" s="2">
-        <f t="shared" si="261"/>
+        <f t="shared" si="315"/>
         <v>3</v>
       </c>
       <c r="AD39" s="2">
-        <f t="shared" si="237"/>
+        <f t="shared" si="291"/>
         <v>1.8927892607143721</v>
       </c>
       <c r="AE39" s="2">
-        <f t="shared" si="238"/>
+        <f t="shared" si="292"/>
         <v>1.5</v>
       </c>
       <c r="AF39" s="2">
-        <f t="shared" si="239"/>
+        <f t="shared" si="293"/>
         <v>1.2920296742201793</v>
       </c>
       <c r="AG39" s="2">
-        <f t="shared" si="240"/>
+        <f t="shared" si="294"/>
         <v>1.1605584217036249</v>
       </c>
       <c r="AH39" s="2">
-        <f t="shared" si="241"/>
+        <f t="shared" si="295"/>
         <v>1.0686215613240666</v>
       </c>
       <c r="AI39" s="2">
-        <f t="shared" si="242"/>
+        <f t="shared" si="296"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="AJ39" s="2">
-        <f t="shared" si="243"/>
+        <f t="shared" si="297"/>
         <v>0.31546487678572871</v>
       </c>
       <c r="AK39" s="2">
-        <f t="shared" si="244"/>
+        <f t="shared" si="298"/>
         <v>0.90308998699194354</v>
       </c>
       <c r="AL39" s="2">
-        <f t="shared" si="245"/>
+        <f t="shared" si="299"/>
         <v>0.86719447895366342</v>
       </c>
       <c r="AM39" s="2">
-        <f t="shared" si="246"/>
+        <f t="shared" si="300"/>
         <v>0.8368288369533895</v>
       </c>
       <c r="AN39" s="2">
-        <f t="shared" si="247"/>
+        <f t="shared" si="301"/>
         <v>0.81071446328195917</v>
       </c>
       <c r="AO39" s="2">
-        <f t="shared" si="248"/>
+        <f t="shared" si="302"/>
         <v>0.26264953503719357</v>
       </c>
       <c r="AP39" s="2">
-        <f t="shared" si="249"/>
+        <f t="shared" si="303"/>
         <v>0.2559580248098155</v>
       </c>
       <c r="AQ39" s="2">
-        <f t="shared" si="250"/>
+        <f t="shared" si="304"/>
         <v>0.25</v>
       </c>
       <c r="AR39" s="2">
-        <f t="shared" si="251"/>
+        <f t="shared" si="305"/>
         <v>0.24465054211822598</v>
       </c>
       <c r="AS39" s="2">
-        <f t="shared" si="252"/>
+        <f t="shared" si="306"/>
         <v>0.23981246656813146</v>
       </c>
       <c r="AT39" s="2">
-        <f t="shared" si="253"/>
+        <f t="shared" si="307"/>
         <v>0.23540891336663824</v>
       </c>
       <c r="AU39" s="2">
-        <f t="shared" si="254"/>
+        <f t="shared" si="308"/>
         <v>0.23137821315975915</v>
       </c>
       <c r="AV39" s="2">
-        <f t="shared" si="255"/>
+        <f t="shared" si="309"/>
         <v>0.22767024869695299</v>
       </c>
       <c r="AW39" s="2">
-        <f t="shared" si="256"/>
+        <f t="shared" si="310"/>
         <v>8.8453773566381777</v>
       </c>
       <c r="AX39" s="2">
-        <f t="shared" si="257"/>
+        <f t="shared" si="311"/>
         <v>12.333081594026915</v>
       </c>
       <c r="AY39" s="2">
-        <f t="shared" si="262"/>
+        <f t="shared" si="316"/>
         <v>15.928152838018981</v>
       </c>
     </row>
@@ -6956,119 +7594,119 @@
         <v>1</v>
       </c>
       <c r="W40" s="2">
-        <f t="shared" si="234"/>
+        <f t="shared" si="288"/>
         <v>1</v>
       </c>
       <c r="X40" s="2">
-        <f t="shared" si="235"/>
+        <f t="shared" si="289"/>
         <v>1</v>
       </c>
       <c r="Y40" s="2">
-        <f t="shared" si="236"/>
+        <f t="shared" si="290"/>
         <v>1</v>
       </c>
       <c r="Z40" s="2">
-        <f t="shared" si="258"/>
+        <f t="shared" si="312"/>
         <v>1</v>
       </c>
       <c r="AA40" s="2">
-        <f t="shared" si="259"/>
+        <f t="shared" si="313"/>
         <v>1</v>
       </c>
       <c r="AB40" s="2">
-        <f t="shared" si="260"/>
+        <f t="shared" si="314"/>
         <v>0.95</v>
       </c>
       <c r="AC40" s="2">
-        <f t="shared" si="261"/>
+        <f t="shared" si="315"/>
         <v>3</v>
       </c>
       <c r="AD40" s="2">
-        <f t="shared" si="237"/>
+        <f t="shared" si="291"/>
         <v>1.8927892607143721</v>
       </c>
       <c r="AE40" s="2">
-        <f t="shared" si="238"/>
+        <f t="shared" si="292"/>
         <v>1.5</v>
       </c>
       <c r="AF40" s="2">
-        <f t="shared" si="239"/>
+        <f t="shared" si="293"/>
         <v>1.2920296742201793</v>
       </c>
       <c r="AG40" s="2">
-        <f t="shared" si="240"/>
+        <f t="shared" si="294"/>
         <v>1.1605584217036249</v>
       </c>
       <c r="AH40" s="2">
-        <f t="shared" si="241"/>
+        <f t="shared" si="295"/>
         <v>1.0686215613240666</v>
       </c>
       <c r="AI40" s="2">
-        <f t="shared" si="242"/>
+        <f t="shared" si="296"/>
         <v>1</v>
       </c>
       <c r="AJ40" s="2">
-        <f t="shared" si="243"/>
+        <f t="shared" si="297"/>
         <v>0.94639463035718607</v>
       </c>
       <c r="AK40" s="2">
-        <f t="shared" si="244"/>
+        <f t="shared" si="298"/>
         <v>0.90308998699194354</v>
       </c>
       <c r="AL40" s="2">
-        <f t="shared" si="245"/>
+        <f t="shared" si="299"/>
         <v>0.86719447895366342</v>
       </c>
       <c r="AM40" s="2">
-        <f t="shared" si="246"/>
+        <f t="shared" si="300"/>
         <v>0.8368288369533895</v>
       </c>
       <c r="AN40" s="2">
-        <f t="shared" si="247"/>
+        <f t="shared" si="301"/>
         <v>0.81071446328195917</v>
       </c>
       <c r="AO40" s="2">
-        <f t="shared" si="248"/>
+        <f t="shared" si="302"/>
         <v>0.78794860511158071</v>
       </c>
       <c r="AP40" s="2">
-        <f t="shared" si="249"/>
+        <f t="shared" si="303"/>
         <v>0.76787407442944644</v>
       </c>
       <c r="AQ40" s="2">
-        <f t="shared" si="250"/>
+        <f t="shared" si="304"/>
         <v>0.75</v>
       </c>
       <c r="AR40" s="2">
-        <f t="shared" si="251"/>
+        <f t="shared" si="305"/>
         <v>0.73395162635467803</v>
       </c>
       <c r="AS40" s="2">
-        <f t="shared" si="252"/>
+        <f t="shared" si="306"/>
         <v>0.23981246656813146</v>
       </c>
       <c r="AT40" s="2">
-        <f t="shared" si="253"/>
+        <f t="shared" si="307"/>
         <v>0.70622674009991471</v>
       </c>
       <c r="AU40" s="2">
-        <f t="shared" si="254"/>
+        <f t="shared" si="308"/>
         <v>0.69413463947927745</v>
       </c>
       <c r="AV40" s="2">
-        <f t="shared" si="255"/>
+        <f t="shared" si="309"/>
         <v>0.68301074609085888</v>
       </c>
       <c r="AW40" s="2">
-        <f t="shared" si="256"/>
+        <f t="shared" si="310"/>
         <v>8.8453773566381777</v>
       </c>
       <c r="AX40" s="2">
-        <f t="shared" si="257"/>
+        <f t="shared" si="311"/>
         <v>13.630678014265039</v>
       </c>
       <c r="AY40" s="2">
-        <f t="shared" si="262"/>
+        <f t="shared" si="316"/>
         <v>20.641180212634275</v>
       </c>
     </row>
@@ -7076,180 +7714,180 @@
       <c r="B41" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="6">
-        <v>1</v>
-      </c>
-      <c r="D41" s="6">
-        <v>1</v>
-      </c>
-      <c r="E41" s="6">
-        <v>1</v>
-      </c>
-      <c r="F41" s="6">
-        <v>1</v>
-      </c>
-      <c r="G41" s="6">
-        <v>1</v>
-      </c>
-      <c r="H41" s="6">
-        <v>1</v>
-      </c>
-      <c r="I41" s="6">
-        <v>1</v>
-      </c>
-      <c r="J41" s="6">
-        <v>1</v>
-      </c>
-      <c r="K41" s="6">
-        <v>1</v>
-      </c>
-      <c r="L41" s="6">
-        <v>1</v>
-      </c>
-      <c r="M41" s="6">
-        <v>1</v>
-      </c>
-      <c r="N41" s="6">
-        <v>1</v>
-      </c>
-      <c r="O41" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="P41" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="Q41" s="6">
-        <v>1</v>
-      </c>
-      <c r="R41" s="6">
-        <v>0</v>
-      </c>
-      <c r="S41" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="T41" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="U41" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="V41" s="6">
+      <c r="C41" s="18">
+        <v>1</v>
+      </c>
+      <c r="D41" s="18">
+        <v>1</v>
+      </c>
+      <c r="E41" s="18">
+        <v>1</v>
+      </c>
+      <c r="F41" s="18">
+        <v>1</v>
+      </c>
+      <c r="G41" s="18">
+        <v>1</v>
+      </c>
+      <c r="H41" s="18">
+        <v>1</v>
+      </c>
+      <c r="I41" s="18">
+        <v>1</v>
+      </c>
+      <c r="J41" s="18">
+        <v>1</v>
+      </c>
+      <c r="K41" s="18">
+        <v>1</v>
+      </c>
+      <c r="L41" s="18">
+        <v>1</v>
+      </c>
+      <c r="M41" s="18">
+        <v>1</v>
+      </c>
+      <c r="N41" s="18">
+        <v>1</v>
+      </c>
+      <c r="O41" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="P41" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="Q41" s="18">
+        <v>1</v>
+      </c>
+      <c r="R41" s="18">
+        <v>0</v>
+      </c>
+      <c r="S41" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="T41" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="U41" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="V41" s="18">
         <v>0</v>
       </c>
       <c r="W41" s="6">
-        <f t="shared" si="234"/>
+        <f t="shared" si="288"/>
         <v>1</v>
       </c>
       <c r="X41" s="6">
-        <f t="shared" si="235"/>
+        <f t="shared" si="289"/>
         <v>1</v>
       </c>
       <c r="Y41" s="6">
-        <f t="shared" si="236"/>
+        <f t="shared" si="290"/>
         <v>0.9</v>
       </c>
       <c r="Z41" s="6">
-        <f t="shared" si="258"/>
+        <f t="shared" si="312"/>
         <v>1</v>
       </c>
       <c r="AA41" s="6">
-        <f t="shared" si="259"/>
+        <f t="shared" si="313"/>
         <v>1</v>
       </c>
       <c r="AB41" s="6">
-        <f t="shared" si="260"/>
+        <f t="shared" si="314"/>
         <v>0.65</v>
       </c>
       <c r="AC41" s="6">
-        <f t="shared" si="261"/>
+        <f t="shared" si="315"/>
         <v>3</v>
       </c>
       <c r="AD41" s="6">
-        <f t="shared" si="237"/>
+        <f t="shared" si="291"/>
         <v>1.8927892607143721</v>
       </c>
       <c r="AE41" s="6">
-        <f t="shared" si="238"/>
+        <f t="shared" si="292"/>
         <v>1.5</v>
       </c>
       <c r="AF41" s="6">
-        <f t="shared" si="239"/>
+        <f t="shared" si="293"/>
         <v>1.2920296742201793</v>
       </c>
       <c r="AG41" s="6">
-        <f t="shared" si="240"/>
+        <f t="shared" si="294"/>
         <v>1.1605584217036249</v>
       </c>
       <c r="AH41" s="6">
-        <f t="shared" si="241"/>
+        <f t="shared" si="295"/>
         <v>1.0686215613240666</v>
       </c>
       <c r="AI41" s="6">
-        <f t="shared" si="242"/>
+        <f t="shared" si="296"/>
         <v>1</v>
       </c>
       <c r="AJ41" s="6">
-        <f t="shared" si="243"/>
+        <f t="shared" si="297"/>
         <v>0.94639463035718607</v>
       </c>
       <c r="AK41" s="6">
-        <f t="shared" si="244"/>
+        <f t="shared" si="298"/>
         <v>0.90308998699194354</v>
       </c>
       <c r="AL41" s="6">
-        <f t="shared" si="245"/>
+        <f t="shared" si="299"/>
         <v>0.86719447895366342</v>
       </c>
       <c r="AM41" s="6">
-        <f t="shared" si="246"/>
+        <f t="shared" si="300"/>
         <v>0.8368288369533895</v>
       </c>
       <c r="AN41" s="6">
-        <f t="shared" si="247"/>
+        <f t="shared" si="301"/>
         <v>0.81071446328195917</v>
       </c>
       <c r="AO41" s="6">
-        <f t="shared" si="248"/>
+        <f t="shared" si="302"/>
         <v>0.26264953503719357</v>
       </c>
       <c r="AP41" s="6">
-        <f t="shared" si="249"/>
+        <f t="shared" si="303"/>
         <v>0.2559580248098155</v>
       </c>
       <c r="AQ41" s="6">
-        <f t="shared" si="250"/>
+        <f t="shared" si="304"/>
         <v>0.75</v>
       </c>
       <c r="AR41" s="6">
-        <f t="shared" si="251"/>
+        <f t="shared" si="305"/>
         <v>0</v>
       </c>
       <c r="AS41" s="6">
-        <f t="shared" si="252"/>
+        <f t="shared" si="306"/>
         <v>0.23981246656813146</v>
       </c>
       <c r="AT41" s="6">
-        <f t="shared" si="253"/>
+        <f t="shared" si="307"/>
         <v>0.23540891336663824</v>
       </c>
       <c r="AU41" s="6">
-        <f t="shared" si="254"/>
+        <f t="shared" si="308"/>
         <v>0.23137821315975915</v>
       </c>
       <c r="AV41" s="6">
-        <f t="shared" si="255"/>
+        <f t="shared" si="309"/>
         <v>0</v>
       </c>
       <c r="AW41" s="6">
-        <f t="shared" si="256"/>
+        <f t="shared" si="310"/>
         <v>8.8453773566381777</v>
       </c>
       <c r="AX41" s="6">
-        <f t="shared" si="257"/>
+        <f t="shared" si="311"/>
         <v>13.630678014265039</v>
       </c>
       <c r="AY41" s="6">
-        <f t="shared" si="262"/>
+        <f t="shared" si="316"/>
         <v>17.253428467441925</v>
       </c>
     </row>
@@ -7257,180 +7895,180 @@
       <c r="B42" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="18">
-        <v>0</v>
-      </c>
-      <c r="D42" s="18">
-        <v>0</v>
-      </c>
-      <c r="E42" s="18">
-        <v>1</v>
-      </c>
-      <c r="F42" s="18">
-        <v>0</v>
-      </c>
-      <c r="G42" s="18">
-        <v>0</v>
-      </c>
-      <c r="H42" s="18">
-        <v>1</v>
-      </c>
-      <c r="I42" s="18">
-        <v>1</v>
-      </c>
-      <c r="J42" s="18">
-        <v>0</v>
-      </c>
-      <c r="K42" s="18">
-        <v>1</v>
-      </c>
-      <c r="L42" s="18">
-        <v>1</v>
-      </c>
-      <c r="M42" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="N42" s="18">
-        <v>1</v>
-      </c>
-      <c r="O42" s="18">
-        <v>1</v>
-      </c>
-      <c r="P42" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="18">
-        <v>0</v>
-      </c>
-      <c r="R42" s="18">
-        <v>1</v>
-      </c>
-      <c r="S42" s="18">
-        <v>0</v>
-      </c>
-      <c r="T42" s="18">
-        <v>0</v>
-      </c>
-      <c r="U42" s="18">
-        <v>0</v>
-      </c>
-      <c r="V42" s="18">
+      <c r="C42" s="42">
+        <v>0</v>
+      </c>
+      <c r="D42" s="42">
+        <v>0</v>
+      </c>
+      <c r="E42" s="42">
+        <v>1</v>
+      </c>
+      <c r="F42" s="42">
+        <v>0</v>
+      </c>
+      <c r="G42" s="42">
+        <v>0</v>
+      </c>
+      <c r="H42" s="42">
+        <v>1</v>
+      </c>
+      <c r="I42" s="42">
+        <v>1</v>
+      </c>
+      <c r="J42" s="42">
+        <v>0</v>
+      </c>
+      <c r="K42" s="42">
+        <v>1</v>
+      </c>
+      <c r="L42" s="42">
+        <v>1</v>
+      </c>
+      <c r="M42" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="N42" s="42">
+        <v>1</v>
+      </c>
+      <c r="O42" s="42">
+        <v>1</v>
+      </c>
+      <c r="P42" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="42">
+        <v>0</v>
+      </c>
+      <c r="R42" s="42">
+        <v>1</v>
+      </c>
+      <c r="S42" s="42">
+        <v>0</v>
+      </c>
+      <c r="T42" s="42">
+        <v>0</v>
+      </c>
+      <c r="U42" s="42">
+        <v>0</v>
+      </c>
+      <c r="V42" s="42">
         <v>1</v>
       </c>
       <c r="W42" s="18">
-        <f t="shared" ref="W42" si="263">COUNTIF(C42:G42,"&gt;0")/5</f>
+        <f t="shared" ref="W42" si="317">COUNTIF(C42:G42,"&gt;0")/5</f>
         <v>0.2</v>
       </c>
       <c r="X42" s="18">
-        <f t="shared" ref="X42" si="264">COUNTIF(C42:L42,"&gt;0")/10</f>
+        <f t="shared" ref="X42" si="318">COUNTIF(C42:L42,"&gt;0")/10</f>
         <v>0.5</v>
       </c>
       <c r="Y42" s="18">
-        <f t="shared" ref="Y42" si="265">COUNTIF(C42:V42,"&gt;0")/20</f>
+        <f t="shared" ref="Y42" si="319">COUNTIF(C42:V42,"&gt;0")/20</f>
         <v>0.5</v>
       </c>
       <c r="Z42" s="18">
-        <f t="shared" ref="Z42" si="266">COUNTIF(C42:G42,"=1")/5</f>
+        <f t="shared" ref="Z42" si="320">COUNTIF(C42:G42,"=1")/5</f>
         <v>0.2</v>
       </c>
       <c r="AA42" s="18">
-        <f t="shared" ref="AA42" si="267">COUNTIF(C42:L42,"=1")/10</f>
+        <f t="shared" ref="AA42" si="321">COUNTIF(C42:L42,"=1")/10</f>
         <v>0.5</v>
       </c>
       <c r="AB42" s="18">
-        <f t="shared" ref="AB42" si="268">COUNTIF(C42:V42,"=1")/20</f>
+        <f t="shared" ref="AB42" si="322">COUNTIF(C42:V42,"=1")/20</f>
         <v>0.45</v>
       </c>
       <c r="AC42" s="18">
-        <f t="shared" ref="AC42" si="269">((2^(C42*2))-1)/LOG(C$6+1,2)</f>
+        <f t="shared" ref="AC42" si="323">((2^(C42*2))-1)/LOG(C$6+1,2)</f>
         <v>0</v>
       </c>
       <c r="AD42" s="18">
-        <f t="shared" ref="AD42" si="270">((2^(D42*2))-1)/LOG(D$6+1,2)</f>
+        <f t="shared" ref="AD42" si="324">((2^(D42*2))-1)/LOG(D$6+1,2)</f>
         <v>0</v>
       </c>
       <c r="AE42" s="18">
-        <f t="shared" ref="AE42" si="271">((2^(E42*2))-1)/LOG(E$6+1,2)</f>
+        <f t="shared" ref="AE42" si="325">((2^(E42*2))-1)/LOG(E$6+1,2)</f>
         <v>1.5</v>
       </c>
       <c r="AF42" s="18">
-        <f t="shared" ref="AF42" si="272">((2^(F42*2))-1)/LOG(F$6+1,2)</f>
+        <f t="shared" ref="AF42" si="326">((2^(F42*2))-1)/LOG(F$6+1,2)</f>
         <v>0</v>
       </c>
       <c r="AG42" s="18">
-        <f t="shared" ref="AG42" si="273">((2^(G42*2))-1)/LOG(G$6+1,2)</f>
+        <f t="shared" ref="AG42" si="327">((2^(G42*2))-1)/LOG(G$6+1,2)</f>
         <v>0</v>
       </c>
       <c r="AH42" s="18">
-        <f t="shared" ref="AH42" si="274">((2^(H42*2))-1)/LOG(H$6+1,2)</f>
+        <f t="shared" ref="AH42" si="328">((2^(H42*2))-1)/LOG(H$6+1,2)</f>
         <v>1.0686215613240666</v>
       </c>
       <c r="AI42" s="18">
-        <f t="shared" ref="AI42" si="275">((2^(I42*2))-1)/LOG(I$6+1,2)</f>
+        <f t="shared" ref="AI42" si="329">((2^(I42*2))-1)/LOG(I$6+1,2)</f>
         <v>1</v>
       </c>
       <c r="AJ42" s="18">
-        <f t="shared" ref="AJ42" si="276">((2^(J42*2))-1)/LOG(J$6+1,2)</f>
+        <f t="shared" ref="AJ42" si="330">((2^(J42*2))-1)/LOG(J$6+1,2)</f>
         <v>0</v>
       </c>
       <c r="AK42" s="18">
-        <f t="shared" ref="AK42" si="277">((2^(K42*2))-1)/LOG(K$6+1,2)</f>
+        <f t="shared" ref="AK42" si="331">((2^(K42*2))-1)/LOG(K$6+1,2)</f>
         <v>0.90308998699194354</v>
       </c>
       <c r="AL42" s="18">
-        <f t="shared" ref="AL42" si="278">((2^(L42*2))-1)/LOG(L$6+1,2)</f>
+        <f t="shared" ref="AL42" si="332">((2^(L42*2))-1)/LOG(L$6+1,2)</f>
         <v>0.86719447895366342</v>
       </c>
       <c r="AM42" s="18">
-        <f t="shared" ref="AM42" si="279">((2^(M42*2))-1)/LOG(M$6+1,2)</f>
+        <f t="shared" ref="AM42" si="333">((2^(M42*2))-1)/LOG(M$6+1,2)</f>
         <v>0.27894294565112981</v>
       </c>
       <c r="AN42" s="18">
-        <f t="shared" ref="AN42" si="280">((2^(N42*2))-1)/LOG(N$6+1,2)</f>
+        <f t="shared" ref="AN42" si="334">((2^(N42*2))-1)/LOG(N$6+1,2)</f>
         <v>0.81071446328195917</v>
       </c>
       <c r="AO42" s="18">
-        <f t="shared" ref="AO42" si="281">((2^(O42*2))-1)/LOG(O$6+1,2)</f>
+        <f t="shared" ref="AO42" si="335">((2^(O42*2))-1)/LOG(O$6+1,2)</f>
         <v>0.78794860511158071</v>
       </c>
       <c r="AP42" s="18">
-        <f t="shared" ref="AP42" si="282">((2^(P42*2))-1)/LOG(P$6+1,2)</f>
+        <f t="shared" ref="AP42" si="336">((2^(P42*2))-1)/LOG(P$6+1,2)</f>
         <v>0</v>
       </c>
       <c r="AQ42" s="18">
-        <f t="shared" ref="AQ42" si="283">((2^(Q42*2))-1)/LOG(Q$6+1,2)</f>
+        <f t="shared" ref="AQ42" si="337">((2^(Q42*2))-1)/LOG(Q$6+1,2)</f>
         <v>0</v>
       </c>
       <c r="AR42" s="18">
-        <f t="shared" ref="AR42" si="284">((2^(R42*2))-1)/LOG(R$6+1,2)</f>
+        <f t="shared" ref="AR42" si="338">((2^(R42*2))-1)/LOG(R$6+1,2)</f>
         <v>0.73395162635467803</v>
       </c>
       <c r="AS42" s="18">
-        <f t="shared" ref="AS42" si="285">((2^(S42*2))-1)/LOG(S$6+1,2)</f>
+        <f t="shared" ref="AS42" si="339">((2^(S42*2))-1)/LOG(S$6+1,2)</f>
         <v>0</v>
       </c>
       <c r="AT42" s="18">
-        <f t="shared" ref="AT42" si="286">((2^(T42*2))-1)/LOG(T$6+1,2)</f>
+        <f t="shared" ref="AT42" si="340">((2^(T42*2))-1)/LOG(T$6+1,2)</f>
         <v>0</v>
       </c>
       <c r="AU42" s="18">
-        <f t="shared" ref="AU42" si="287">((2^(U42*2))-1)/LOG(U$6+1,2)</f>
+        <f t="shared" ref="AU42" si="341">((2^(U42*2))-1)/LOG(U$6+1,2)</f>
         <v>0</v>
       </c>
       <c r="AV42" s="18">
-        <f t="shared" ref="AV42" si="288">((2^(V42*2))-1)/LOG(V$6+1,2)</f>
+        <f t="shared" ref="AV42" si="342">((2^(V42*2))-1)/LOG(V$6+1,2)</f>
         <v>0.68301074609085888</v>
       </c>
       <c r="AW42" s="18">
-        <f t="shared" ref="AW42" si="289">SUM(AC42:AG42)</f>
+        <f t="shared" ref="AW42" si="343">SUM(AC42:AG42)</f>
         <v>1.5</v>
       </c>
       <c r="AX42" s="18">
-        <f t="shared" ref="AX42" si="290">SUM(AC42:AL42)</f>
+        <f t="shared" ref="AX42" si="344">SUM(AC42:AL42)</f>
         <v>5.3389060272696742</v>
       </c>
       <c r="AY42" s="18">
-        <f t="shared" ref="AY42" si="291">SUM(AC42:AV42)</f>
+        <f t="shared" ref="AY42" si="345">SUM(AC42:AV42)</f>
         <v>8.6334744137598811</v>
       </c>
     </row>
@@ -7499,119 +8137,119 @@
         <v>0.5</v>
       </c>
       <c r="W43" s="18">
-        <f t="shared" ref="W43" si="292">COUNTIF(C43:G43,"&gt;0")/5</f>
+        <f t="shared" ref="W43" si="346">COUNTIF(C43:G43,"&gt;0")/5</f>
         <v>1</v>
       </c>
       <c r="X43" s="18">
-        <f t="shared" ref="X43" si="293">COUNTIF(C43:L43,"&gt;0")/10</f>
+        <f t="shared" ref="X43" si="347">COUNTIF(C43:L43,"&gt;0")/10</f>
         <v>1</v>
       </c>
       <c r="Y43" s="18">
-        <f t="shared" ref="Y43" si="294">COUNTIF(C43:V43,"&gt;0")/20</f>
+        <f t="shared" ref="Y43" si="348">COUNTIF(C43:V43,"&gt;0")/20</f>
         <v>0.9</v>
       </c>
       <c r="Z43" s="18">
-        <f t="shared" ref="Z43" si="295">COUNTIF(C43:G43,"=1")/5</f>
+        <f t="shared" ref="Z43" si="349">COUNTIF(C43:G43,"=1")/5</f>
         <v>0.6</v>
       </c>
       <c r="AA43" s="18">
-        <f t="shared" ref="AA43" si="296">COUNTIF(C43:L43,"=1")/10</f>
+        <f t="shared" ref="AA43" si="350">COUNTIF(C43:L43,"=1")/10</f>
         <v>0.5</v>
       </c>
       <c r="AB43" s="18">
-        <f t="shared" ref="AB43" si="297">COUNTIF(C43:V43,"=1")/20</f>
+        <f t="shared" ref="AB43" si="351">COUNTIF(C43:V43,"=1")/20</f>
         <v>0.25</v>
       </c>
       <c r="AC43" s="18">
-        <f t="shared" ref="AC43" si="298">((2^(C43*2))-1)/LOG(C$6+1,2)</f>
+        <f t="shared" ref="AC43" si="352">((2^(C43*2))-1)/LOG(C$6+1,2)</f>
         <v>3</v>
       </c>
       <c r="AD43" s="18">
-        <f t="shared" ref="AD43" si="299">((2^(D43*2))-1)/LOG(D$6+1,2)</f>
+        <f t="shared" ref="AD43" si="353">((2^(D43*2))-1)/LOG(D$6+1,2)</f>
         <v>1.8927892607143721</v>
       </c>
       <c r="AE43" s="18">
-        <f t="shared" ref="AE43" si="300">((2^(E43*2))-1)/LOG(E$6+1,2)</f>
+        <f t="shared" ref="AE43" si="354">((2^(E43*2))-1)/LOG(E$6+1,2)</f>
         <v>1.5</v>
       </c>
       <c r="AF43" s="18">
-        <f t="shared" ref="AF43" si="301">((2^(F43*2))-1)/LOG(F$6+1,2)</f>
+        <f t="shared" ref="AF43" si="355">((2^(F43*2))-1)/LOG(F$6+1,2)</f>
         <v>0.43067655807339306</v>
       </c>
       <c r="AG43" s="18">
-        <f t="shared" ref="AG43" si="302">((2^(G43*2))-1)/LOG(G$6+1,2)</f>
+        <f t="shared" ref="AG43" si="356">((2^(G43*2))-1)/LOG(G$6+1,2)</f>
         <v>0.38685280723454163</v>
       </c>
       <c r="AH43" s="18">
-        <f t="shared" ref="AH43" si="303">((2^(H43*2))-1)/LOG(H$6+1,2)</f>
+        <f t="shared" ref="AH43" si="357">((2^(H43*2))-1)/LOG(H$6+1,2)</f>
         <v>0.35620718710802218</v>
       </c>
       <c r="AI43" s="18">
-        <f t="shared" ref="AI43" si="304">((2^(I43*2))-1)/LOG(I$6+1,2)</f>
+        <f t="shared" ref="AI43" si="358">((2^(I43*2))-1)/LOG(I$6+1,2)</f>
         <v>1</v>
       </c>
       <c r="AJ43" s="18">
-        <f t="shared" ref="AJ43" si="305">((2^(J43*2))-1)/LOG(J$6+1,2)</f>
+        <f t="shared" ref="AJ43" si="359">((2^(J43*2))-1)/LOG(J$6+1,2)</f>
         <v>0.94639463035718607</v>
       </c>
       <c r="AK43" s="18">
-        <f t="shared" ref="AK43" si="306">((2^(K43*2))-1)/LOG(K$6+1,2)</f>
+        <f t="shared" ref="AK43" si="360">((2^(K43*2))-1)/LOG(K$6+1,2)</f>
         <v>0.30102999566398114</v>
       </c>
       <c r="AL43" s="18">
-        <f t="shared" ref="AL43" si="307">((2^(L43*2))-1)/LOG(L$6+1,2)</f>
+        <f t="shared" ref="AL43" si="361">((2^(L43*2))-1)/LOG(L$6+1,2)</f>
         <v>0.28906482631788782</v>
       </c>
       <c r="AM43" s="18">
-        <f t="shared" ref="AM43" si="308">((2^(M43*2))-1)/LOG(M$6+1,2)</f>
+        <f t="shared" ref="AM43" si="362">((2^(M43*2))-1)/LOG(M$6+1,2)</f>
         <v>0.27894294565112981</v>
       </c>
       <c r="AN43" s="18">
-        <f t="shared" ref="AN43" si="309">((2^(N43*2))-1)/LOG(N$6+1,2)</f>
+        <f t="shared" ref="AN43" si="363">((2^(N43*2))-1)/LOG(N$6+1,2)</f>
         <v>0</v>
       </c>
       <c r="AO43" s="18">
-        <f t="shared" ref="AO43" si="310">((2^(O43*2))-1)/LOG(O$6+1,2)</f>
+        <f t="shared" ref="AO43" si="364">((2^(O43*2))-1)/LOG(O$6+1,2)</f>
         <v>0</v>
       </c>
       <c r="AP43" s="18">
-        <f t="shared" ref="AP43" si="311">((2^(P43*2))-1)/LOG(P$6+1,2)</f>
+        <f t="shared" ref="AP43" si="365">((2^(P43*2))-1)/LOG(P$6+1,2)</f>
         <v>0.2559580248098155</v>
       </c>
       <c r="AQ43" s="18">
-        <f t="shared" ref="AQ43" si="312">((2^(Q43*2))-1)/LOG(Q$6+1,2)</f>
+        <f t="shared" ref="AQ43" si="366">((2^(Q43*2))-1)/LOG(Q$6+1,2)</f>
         <v>0.25</v>
       </c>
       <c r="AR43" s="18">
-        <f t="shared" ref="AR43" si="313">((2^(R43*2))-1)/LOG(R$6+1,2)</f>
+        <f t="shared" ref="AR43" si="367">((2^(R43*2))-1)/LOG(R$6+1,2)</f>
         <v>0.24465054211822598</v>
       </c>
       <c r="AS43" s="18">
-        <f t="shared" ref="AS43" si="314">((2^(S43*2))-1)/LOG(S$6+1,2)</f>
+        <f t="shared" ref="AS43" si="368">((2^(S43*2))-1)/LOG(S$6+1,2)</f>
         <v>0.23981246656813146</v>
       </c>
       <c r="AT43" s="18">
-        <f t="shared" ref="AT43" si="315">((2^(T43*2))-1)/LOG(T$6+1,2)</f>
+        <f t="shared" ref="AT43" si="369">((2^(T43*2))-1)/LOG(T$6+1,2)</f>
         <v>0.23540891336663824</v>
       </c>
       <c r="AU43" s="18">
-        <f t="shared" ref="AU43" si="316">((2^(U43*2))-1)/LOG(U$6+1,2)</f>
+        <f t="shared" ref="AU43" si="370">((2^(U43*2))-1)/LOG(U$6+1,2)</f>
         <v>0.23137821315975915</v>
       </c>
       <c r="AV43" s="18">
-        <f t="shared" ref="AV43" si="317">((2^(V43*2))-1)/LOG(V$6+1,2)</f>
+        <f t="shared" ref="AV43" si="371">((2^(V43*2))-1)/LOG(V$6+1,2)</f>
         <v>0.22767024869695299</v>
       </c>
       <c r="AW43" s="18">
-        <f t="shared" ref="AW43" si="318">SUM(AC43:AG43)</f>
+        <f t="shared" ref="AW43" si="372">SUM(AC43:AG43)</f>
         <v>7.2103186260223069</v>
       </c>
       <c r="AX43" s="18">
-        <f t="shared" ref="AX43" si="319">SUM(AC43:AL43)</f>
+        <f t="shared" ref="AX43" si="373">SUM(AC43:AL43)</f>
         <v>10.103015265469386</v>
       </c>
       <c r="AY43" s="18">
-        <f t="shared" ref="AY43" si="320">SUM(AC43:AV43)</f>
+        <f t="shared" ref="AY43" si="374">SUM(AC43:AV43)</f>
         <v>12.066836619840041</v>
       </c>
     </row>
@@ -7680,119 +8318,119 @@
         <v>1</v>
       </c>
       <c r="W44" s="18">
-        <f t="shared" ref="W44" si="321">COUNTIF(C44:G44,"&gt;0")/5</f>
+        <f t="shared" ref="W44" si="375">COUNTIF(C44:G44,"&gt;0")/5</f>
         <v>1</v>
       </c>
       <c r="X44" s="18">
-        <f t="shared" ref="X44" si="322">COUNTIF(C44:L44,"&gt;0")/10</f>
+        <f t="shared" ref="X44" si="376">COUNTIF(C44:L44,"&gt;0")/10</f>
         <v>0.9</v>
       </c>
       <c r="Y44" s="18">
-        <f t="shared" ref="Y44" si="323">COUNTIF(C44:V44,"&gt;0")/20</f>
+        <f t="shared" ref="Y44" si="377">COUNTIF(C44:V44,"&gt;0")/20</f>
         <v>0.8</v>
       </c>
       <c r="Z44" s="18">
-        <f t="shared" ref="Z44" si="324">COUNTIF(C44:G44,"=1")/5</f>
+        <f t="shared" ref="Z44" si="378">COUNTIF(C44:G44,"=1")/5</f>
         <v>0.6</v>
       </c>
       <c r="AA44" s="18">
-        <f t="shared" ref="AA44" si="325">COUNTIF(C44:L44,"=1")/10</f>
+        <f t="shared" ref="AA44" si="379">COUNTIF(C44:L44,"=1")/10</f>
         <v>0.7</v>
       </c>
       <c r="AB44" s="18">
-        <f t="shared" ref="AB44" si="326">COUNTIF(C44:V44,"=1")/20</f>
+        <f t="shared" ref="AB44" si="380">COUNTIF(C44:V44,"=1")/20</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="AC44" s="18">
-        <f t="shared" ref="AC44" si="327">((2^(C44*2))-1)/LOG(C$6+1,2)</f>
+        <f t="shared" ref="AC44" si="381">((2^(C44*2))-1)/LOG(C$6+1,2)</f>
         <v>1</v>
       </c>
       <c r="AD44" s="18">
-        <f t="shared" ref="AD44" si="328">((2^(D44*2))-1)/LOG(D$6+1,2)</f>
+        <f t="shared" ref="AD44" si="382">((2^(D44*2))-1)/LOG(D$6+1,2)</f>
         <v>1.8927892607143721</v>
       </c>
       <c r="AE44" s="18">
-        <f t="shared" ref="AE44" si="329">((2^(E44*2))-1)/LOG(E$6+1,2)</f>
+        <f t="shared" ref="AE44" si="383">((2^(E44*2))-1)/LOG(E$6+1,2)</f>
         <v>1.5</v>
       </c>
       <c r="AF44" s="18">
-        <f t="shared" ref="AF44" si="330">((2^(F44*2))-1)/LOG(F$6+1,2)</f>
+        <f t="shared" ref="AF44" si="384">((2^(F44*2))-1)/LOG(F$6+1,2)</f>
         <v>0.43067655807339306</v>
       </c>
       <c r="AG44" s="18">
-        <f t="shared" ref="AG44" si="331">((2^(G44*2))-1)/LOG(G$6+1,2)</f>
+        <f t="shared" ref="AG44" si="385">((2^(G44*2))-1)/LOG(G$6+1,2)</f>
         <v>1.1605584217036249</v>
       </c>
       <c r="AH44" s="18">
-        <f t="shared" ref="AH44" si="332">((2^(H44*2))-1)/LOG(H$6+1,2)</f>
+        <f t="shared" ref="AH44" si="386">((2^(H44*2))-1)/LOG(H$6+1,2)</f>
         <v>1.0686215613240666</v>
       </c>
       <c r="AI44" s="18">
-        <f t="shared" ref="AI44" si="333">((2^(I44*2))-1)/LOG(I$6+1,2)</f>
+        <f t="shared" ref="AI44" si="387">((2^(I44*2))-1)/LOG(I$6+1,2)</f>
         <v>1</v>
       </c>
       <c r="AJ44" s="18">
-        <f t="shared" ref="AJ44" si="334">((2^(J44*2))-1)/LOG(J$6+1,2)</f>
+        <f t="shared" ref="AJ44" si="388">((2^(J44*2))-1)/LOG(J$6+1,2)</f>
         <v>0.94639463035718607</v>
       </c>
       <c r="AK44" s="18">
-        <f t="shared" ref="AK44" si="335">((2^(K44*2))-1)/LOG(K$6+1,2)</f>
+        <f t="shared" ref="AK44" si="389">((2^(K44*2))-1)/LOG(K$6+1,2)</f>
         <v>0.90308998699194354</v>
       </c>
       <c r="AL44" s="18">
-        <f t="shared" ref="AL44" si="336">((2^(L44*2))-1)/LOG(L$6+1,2)</f>
+        <f t="shared" ref="AL44" si="390">((2^(L44*2))-1)/LOG(L$6+1,2)</f>
         <v>0</v>
       </c>
       <c r="AM44" s="18">
-        <f t="shared" ref="AM44" si="337">((2^(M44*2))-1)/LOG(M$6+1,2)</f>
+        <f t="shared" ref="AM44" si="391">((2^(M44*2))-1)/LOG(M$6+1,2)</f>
         <v>0.8368288369533895</v>
       </c>
       <c r="AN44" s="18">
-        <f t="shared" ref="AN44" si="338">((2^(N44*2))-1)/LOG(N$6+1,2)</f>
+        <f t="shared" ref="AN44" si="392">((2^(N44*2))-1)/LOG(N$6+1,2)</f>
         <v>0</v>
       </c>
       <c r="AO44" s="18">
-        <f t="shared" ref="AO44" si="339">((2^(O44*2))-1)/LOG(O$6+1,2)</f>
+        <f t="shared" ref="AO44" si="393">((2^(O44*2))-1)/LOG(O$6+1,2)</f>
         <v>0.26264953503719357</v>
       </c>
       <c r="AP44" s="18">
-        <f t="shared" ref="AP44" si="340">((2^(P44*2))-1)/LOG(P$6+1,2)</f>
+        <f t="shared" ref="AP44" si="394">((2^(P44*2))-1)/LOG(P$6+1,2)</f>
         <v>0.76787407442944644</v>
       </c>
       <c r="AQ44" s="18">
-        <f t="shared" ref="AQ44" si="341">((2^(Q44*2))-1)/LOG(Q$6+1,2)</f>
+        <f t="shared" ref="AQ44" si="395">((2^(Q44*2))-1)/LOG(Q$6+1,2)</f>
         <v>0.25</v>
       </c>
       <c r="AR44" s="18">
-        <f t="shared" ref="AR44" si="342">((2^(R44*2))-1)/LOG(R$6+1,2)</f>
+        <f t="shared" ref="AR44" si="396">((2^(R44*2))-1)/LOG(R$6+1,2)</f>
         <v>0</v>
       </c>
       <c r="AS44" s="18">
-        <f t="shared" ref="AS44" si="343">((2^(S44*2))-1)/LOG(S$6+1,2)</f>
+        <f t="shared" ref="AS44" si="397">((2^(S44*2))-1)/LOG(S$6+1,2)</f>
         <v>0.23981246656813146</v>
       </c>
       <c r="AT44" s="18">
-        <f t="shared" ref="AT44" si="344">((2^(T44*2))-1)/LOG(T$6+1,2)</f>
+        <f t="shared" ref="AT44" si="398">((2^(T44*2))-1)/LOG(T$6+1,2)</f>
         <v>0</v>
       </c>
       <c r="AU44" s="18">
-        <f t="shared" ref="AU44" si="345">((2^(U44*2))-1)/LOG(U$6+1,2)</f>
+        <f t="shared" ref="AU44" si="399">((2^(U44*2))-1)/LOG(U$6+1,2)</f>
         <v>0.69413463947927745</v>
       </c>
       <c r="AV44" s="18">
-        <f t="shared" ref="AV44" si="346">((2^(V44*2))-1)/LOG(V$6+1,2)</f>
+        <f t="shared" ref="AV44" si="400">((2^(V44*2))-1)/LOG(V$6+1,2)</f>
         <v>0.68301074609085888</v>
       </c>
       <c r="AW44" s="18">
-        <f t="shared" ref="AW44" si="347">SUM(AC44:AG44)</f>
+        <f t="shared" ref="AW44" si="401">SUM(AC44:AG44)</f>
         <v>5.9840242404913901</v>
       </c>
       <c r="AX44" s="18">
-        <f t="shared" ref="AX44" si="348">SUM(AC44:AL44)</f>
+        <f t="shared" ref="AX44" si="402">SUM(AC44:AL44)</f>
         <v>9.9021304191645871</v>
       </c>
       <c r="AY44" s="18">
-        <f t="shared" ref="AY44" si="349">SUM(AC44:AV44)</f>
+        <f t="shared" ref="AY44" si="403">SUM(AC44:AV44)</f>
         <v>13.636440717722884</v>
       </c>
     </row>
@@ -7861,119 +8499,119 @@
         <v>1</v>
       </c>
       <c r="W45" s="18">
-        <f t="shared" ref="W45" si="350">COUNTIF(C45:G45,"&gt;0")/5</f>
+        <f t="shared" ref="W45" si="404">COUNTIF(C45:G45,"&gt;0")/5</f>
         <v>1</v>
       </c>
       <c r="X45" s="18">
-        <f t="shared" ref="X45" si="351">COUNTIF(C45:L45,"&gt;0")/10</f>
+        <f t="shared" ref="X45" si="405">COUNTIF(C45:L45,"&gt;0")/10</f>
         <v>1</v>
       </c>
       <c r="Y45" s="18">
-        <f t="shared" ref="Y45" si="352">COUNTIF(C45:V45,"&gt;0")/20</f>
+        <f t="shared" ref="Y45" si="406">COUNTIF(C45:V45,"&gt;0")/20</f>
         <v>1</v>
       </c>
       <c r="Z45" s="18">
-        <f t="shared" ref="Z45" si="353">COUNTIF(C45:G45,"=1")/5</f>
+        <f t="shared" ref="Z45" si="407">COUNTIF(C45:G45,"=1")/5</f>
         <v>1</v>
       </c>
       <c r="AA45" s="18">
-        <f t="shared" ref="AA45" si="354">COUNTIF(C45:L45,"=1")/10</f>
+        <f t="shared" ref="AA45" si="408">COUNTIF(C45:L45,"=1")/10</f>
         <v>1</v>
       </c>
       <c r="AB45" s="18">
-        <f t="shared" ref="AB45" si="355">COUNTIF(C45:V45,"=1")/20</f>
+        <f t="shared" ref="AB45" si="409">COUNTIF(C45:V45,"=1")/20</f>
         <v>1</v>
       </c>
       <c r="AC45" s="18">
-        <f t="shared" ref="AC45" si="356">((2^(C45*2))-1)/LOG(C$6+1,2)</f>
+        <f t="shared" ref="AC45" si="410">((2^(C45*2))-1)/LOG(C$6+1,2)</f>
         <v>3</v>
       </c>
       <c r="AD45" s="18">
-        <f t="shared" ref="AD45" si="357">((2^(D45*2))-1)/LOG(D$6+1,2)</f>
+        <f t="shared" ref="AD45" si="411">((2^(D45*2))-1)/LOG(D$6+1,2)</f>
         <v>1.8927892607143721</v>
       </c>
       <c r="AE45" s="18">
-        <f t="shared" ref="AE45" si="358">((2^(E45*2))-1)/LOG(E$6+1,2)</f>
+        <f t="shared" ref="AE45" si="412">((2^(E45*2))-1)/LOG(E$6+1,2)</f>
         <v>1.5</v>
       </c>
       <c r="AF45" s="18">
-        <f t="shared" ref="AF45" si="359">((2^(F45*2))-1)/LOG(F$6+1,2)</f>
+        <f t="shared" ref="AF45" si="413">((2^(F45*2))-1)/LOG(F$6+1,2)</f>
         <v>1.2920296742201793</v>
       </c>
       <c r="AG45" s="18">
-        <f t="shared" ref="AG45" si="360">((2^(G45*2))-1)/LOG(G$6+1,2)</f>
+        <f t="shared" ref="AG45" si="414">((2^(G45*2))-1)/LOG(G$6+1,2)</f>
         <v>1.1605584217036249</v>
       </c>
       <c r="AH45" s="18">
-        <f t="shared" ref="AH45" si="361">((2^(H45*2))-1)/LOG(H$6+1,2)</f>
+        <f t="shared" ref="AH45" si="415">((2^(H45*2))-1)/LOG(H$6+1,2)</f>
         <v>1.0686215613240666</v>
       </c>
       <c r="AI45" s="18">
-        <f t="shared" ref="AI45" si="362">((2^(I45*2))-1)/LOG(I$6+1,2)</f>
+        <f t="shared" ref="AI45" si="416">((2^(I45*2))-1)/LOG(I$6+1,2)</f>
         <v>1</v>
       </c>
       <c r="AJ45" s="18">
-        <f t="shared" ref="AJ45" si="363">((2^(J45*2))-1)/LOG(J$6+1,2)</f>
+        <f t="shared" ref="AJ45" si="417">((2^(J45*2))-1)/LOG(J$6+1,2)</f>
         <v>0.94639463035718607</v>
       </c>
       <c r="AK45" s="18">
-        <f t="shared" ref="AK45" si="364">((2^(K45*2))-1)/LOG(K$6+1,2)</f>
+        <f t="shared" ref="AK45" si="418">((2^(K45*2))-1)/LOG(K$6+1,2)</f>
         <v>0.90308998699194354</v>
       </c>
       <c r="AL45" s="18">
-        <f t="shared" ref="AL45" si="365">((2^(L45*2))-1)/LOG(L$6+1,2)</f>
+        <f t="shared" ref="AL45" si="419">((2^(L45*2))-1)/LOG(L$6+1,2)</f>
         <v>0.86719447895366342</v>
       </c>
       <c r="AM45" s="18">
-        <f t="shared" ref="AM45" si="366">((2^(M45*2))-1)/LOG(M$6+1,2)</f>
+        <f t="shared" ref="AM45" si="420">((2^(M45*2))-1)/LOG(M$6+1,2)</f>
         <v>0.8368288369533895</v>
       </c>
       <c r="AN45" s="18">
-        <f t="shared" ref="AN45" si="367">((2^(N45*2))-1)/LOG(N$6+1,2)</f>
+        <f t="shared" ref="AN45" si="421">((2^(N45*2))-1)/LOG(N$6+1,2)</f>
         <v>0.81071446328195917</v>
       </c>
       <c r="AO45" s="18">
-        <f t="shared" ref="AO45" si="368">((2^(O45*2))-1)/LOG(O$6+1,2)</f>
+        <f t="shared" ref="AO45" si="422">((2^(O45*2))-1)/LOG(O$6+1,2)</f>
         <v>0.78794860511158071</v>
       </c>
       <c r="AP45" s="18">
-        <f t="shared" ref="AP45" si="369">((2^(P45*2))-1)/LOG(P$6+1,2)</f>
+        <f t="shared" ref="AP45" si="423">((2^(P45*2))-1)/LOG(P$6+1,2)</f>
         <v>0.76787407442944644</v>
       </c>
       <c r="AQ45" s="18">
-        <f t="shared" ref="AQ45" si="370">((2^(Q45*2))-1)/LOG(Q$6+1,2)</f>
+        <f t="shared" ref="AQ45" si="424">((2^(Q45*2))-1)/LOG(Q$6+1,2)</f>
         <v>0.75</v>
       </c>
       <c r="AR45" s="18">
-        <f t="shared" ref="AR45" si="371">((2^(R45*2))-1)/LOG(R$6+1,2)</f>
+        <f t="shared" ref="AR45" si="425">((2^(R45*2))-1)/LOG(R$6+1,2)</f>
         <v>0.73395162635467803</v>
       </c>
       <c r="AS45" s="18">
-        <f t="shared" ref="AS45" si="372">((2^(S45*2))-1)/LOG(S$6+1,2)</f>
+        <f t="shared" ref="AS45" si="426">((2^(S45*2))-1)/LOG(S$6+1,2)</f>
         <v>0.71943739970439435</v>
       </c>
       <c r="AT45" s="18">
-        <f t="shared" ref="AT45" si="373">((2^(T45*2))-1)/LOG(T$6+1,2)</f>
+        <f t="shared" ref="AT45" si="427">((2^(T45*2))-1)/LOG(T$6+1,2)</f>
         <v>0.70622674009991471</v>
       </c>
       <c r="AU45" s="18">
-        <f t="shared" ref="AU45" si="374">((2^(U45*2))-1)/LOG(U$6+1,2)</f>
+        <f t="shared" ref="AU45" si="428">((2^(U45*2))-1)/LOG(U$6+1,2)</f>
         <v>0.69413463947927745</v>
       </c>
       <c r="AV45" s="18">
-        <f t="shared" ref="AV45" si="375">((2^(V45*2))-1)/LOG(V$6+1,2)</f>
+        <f t="shared" ref="AV45" si="429">((2^(V45*2))-1)/LOG(V$6+1,2)</f>
         <v>0.68301074609085888</v>
       </c>
       <c r="AW45" s="18">
-        <f t="shared" ref="AW45" si="376">SUM(AC45:AG45)</f>
+        <f t="shared" ref="AW45" si="430">SUM(AC45:AG45)</f>
         <v>8.8453773566381777</v>
       </c>
       <c r="AX45" s="18">
-        <f t="shared" ref="AX45" si="377">SUM(AC45:AL45)</f>
+        <f t="shared" ref="AX45" si="431">SUM(AC45:AL45)</f>
         <v>13.630678014265039</v>
       </c>
       <c r="AY45" s="18">
-        <f t="shared" ref="AY45" si="378">SUM(AC45:AV45)</f>
+        <f t="shared" ref="AY45" si="432">SUM(AC45:AV45)</f>
         <v>21.120805145770536</v>
       </c>
     </row>
@@ -8029,7 +8667,7 @@
       <c r="AX46" s="2"/>
       <c r="AY46" s="2"/>
     </row>
-    <row r="47" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -8081,268 +8719,2135 @@
       <c r="AX47" s="2"/>
       <c r="AY47" s="2"/>
     </row>
-    <row r="48" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
-      <c r="U48" s="2"/>
-      <c r="V48" s="2"/>
-      <c r="W48" s="2"/>
-      <c r="X48" s="2"/>
-      <c r="Y48" s="2"/>
-      <c r="Z48" s="2"/>
-      <c r="AA48" s="2"/>
-      <c r="AB48" s="2"/>
-      <c r="AC48" s="2"/>
-      <c r="AD48" s="2"/>
-      <c r="AE48" s="2"/>
-      <c r="AF48" s="2"/>
-      <c r="AG48" s="2"/>
-      <c r="AH48" s="2"/>
-      <c r="AI48" s="2"/>
-      <c r="AJ48" s="2"/>
-      <c r="AK48" s="2"/>
-      <c r="AL48" s="2"/>
-      <c r="AM48" s="2"/>
-      <c r="AN48" s="2"/>
-      <c r="AO48" s="2"/>
-      <c r="AP48" s="2"/>
-      <c r="AQ48" s="2"/>
-      <c r="AR48" s="2"/>
-      <c r="AS48" s="2"/>
-      <c r="AT48" s="2"/>
-      <c r="AU48" s="2"/>
-      <c r="AV48" s="2"/>
-      <c r="AW48" s="2"/>
-      <c r="AX48" s="2"/>
-      <c r="AY48" s="2"/>
+    <row r="48" spans="2:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="32"/>
+      <c r="M48" s="32"/>
+      <c r="N48" s="32"/>
+      <c r="O48" s="32"/>
+      <c r="P48" s="32"/>
+      <c r="Q48" s="32"/>
+      <c r="R48" s="32"/>
+      <c r="S48" s="32"/>
+      <c r="T48" s="32"/>
+      <c r="U48" s="32"/>
+      <c r="V48" s="33"/>
+      <c r="W48" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="X48" s="32"/>
+      <c r="Y48" s="33"/>
+      <c r="Z48" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA48" s="32"/>
+      <c r="AB48" s="33"/>
+      <c r="AC48" s="18"/>
+      <c r="AD48" s="18"/>
+      <c r="AE48" s="18"/>
+      <c r="AF48" s="18"/>
+      <c r="AG48" s="18"/>
+      <c r="AH48" s="18"/>
+      <c r="AI48" s="18"/>
+      <c r="AJ48" s="18"/>
+      <c r="AK48" s="18"/>
+      <c r="AL48" s="18"/>
+      <c r="AM48" s="18"/>
+      <c r="AN48" s="18"/>
+      <c r="AO48" s="18"/>
+      <c r="AP48" s="18"/>
+      <c r="AQ48" s="18"/>
+      <c r="AR48" s="18"/>
+      <c r="AS48" s="18"/>
+      <c r="AT48" s="18"/>
+      <c r="AU48" s="18"/>
+      <c r="AV48" s="18"/>
+      <c r="AW48" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX48" s="32"/>
+      <c r="AY48" s="33"/>
     </row>
-    <row r="49" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
-      <c r="U49" s="2"/>
-      <c r="V49" s="2"/>
-      <c r="W49" s="2"/>
-      <c r="X49" s="2"/>
-      <c r="Y49" s="2"/>
-      <c r="Z49" s="2"/>
-      <c r="AA49" s="2"/>
-      <c r="AB49" s="2"/>
-      <c r="AC49" s="2"/>
-      <c r="AD49" s="2"/>
-      <c r="AE49" s="2"/>
-      <c r="AF49" s="2"/>
-      <c r="AG49" s="2"/>
-      <c r="AH49" s="2"/>
-      <c r="AI49" s="2"/>
-      <c r="AJ49" s="2"/>
-      <c r="AK49" s="2"/>
-      <c r="AL49" s="2"/>
-      <c r="AM49" s="2"/>
-      <c r="AN49" s="2"/>
-      <c r="AO49" s="2"/>
-      <c r="AP49" s="2"/>
-      <c r="AQ49" s="2"/>
-      <c r="AR49" s="2"/>
-      <c r="AS49" s="2"/>
-      <c r="AT49" s="2"/>
-      <c r="AU49" s="2"/>
-      <c r="AV49" s="2"/>
-      <c r="AW49" s="2"/>
-      <c r="AX49" s="2"/>
-      <c r="AY49" s="2"/>
+    <row r="49" spans="2:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="18">
+        <v>1</v>
+      </c>
+      <c r="D49" s="18">
+        <v>2</v>
+      </c>
+      <c r="E49" s="18">
+        <v>3</v>
+      </c>
+      <c r="F49" s="18">
+        <v>4</v>
+      </c>
+      <c r="G49" s="18">
+        <v>5</v>
+      </c>
+      <c r="H49" s="18">
+        <v>6</v>
+      </c>
+      <c r="I49" s="18">
+        <v>7</v>
+      </c>
+      <c r="J49" s="18">
+        <v>8</v>
+      </c>
+      <c r="K49" s="18">
+        <v>9</v>
+      </c>
+      <c r="L49" s="18">
+        <v>10</v>
+      </c>
+      <c r="M49" s="18">
+        <v>11</v>
+      </c>
+      <c r="N49" s="18">
+        <v>12</v>
+      </c>
+      <c r="O49" s="18">
+        <v>13</v>
+      </c>
+      <c r="P49" s="18">
+        <v>14</v>
+      </c>
+      <c r="Q49" s="18">
+        <v>15</v>
+      </c>
+      <c r="R49" s="18">
+        <v>16</v>
+      </c>
+      <c r="S49" s="18">
+        <v>17</v>
+      </c>
+      <c r="T49" s="18">
+        <v>18</v>
+      </c>
+      <c r="U49" s="18">
+        <v>19</v>
+      </c>
+      <c r="V49" s="18">
+        <v>20</v>
+      </c>
+      <c r="W49" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="X49" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y49" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z49" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB49" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC49" s="18"/>
+      <c r="AD49" s="18"/>
+      <c r="AE49" s="18"/>
+      <c r="AF49" s="18"/>
+      <c r="AG49" s="18"/>
+      <c r="AH49" s="18"/>
+      <c r="AI49" s="18"/>
+      <c r="AJ49" s="18"/>
+      <c r="AK49" s="18"/>
+      <c r="AL49" s="18"/>
+      <c r="AM49" s="18"/>
+      <c r="AN49" s="18"/>
+      <c r="AO49" s="18"/>
+      <c r="AP49" s="18"/>
+      <c r="AQ49" s="18"/>
+      <c r="AR49" s="18"/>
+      <c r="AS49" s="18"/>
+      <c r="AT49" s="18"/>
+      <c r="AU49" s="18"/>
+      <c r="AV49" s="18"/>
+      <c r="AW49" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX49" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY49" s="18" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="50" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
-      <c r="U50" s="2"/>
-      <c r="V50" s="2"/>
-      <c r="W50" s="2"/>
-      <c r="X50" s="2"/>
-      <c r="Y50" s="2"/>
-      <c r="Z50" s="2"/>
-      <c r="AA50" s="2"/>
-      <c r="AB50" s="2"/>
-      <c r="AC50" s="2"/>
-      <c r="AD50" s="2"/>
-      <c r="AE50" s="2"/>
-      <c r="AF50" s="2"/>
-      <c r="AG50" s="2"/>
-      <c r="AH50" s="2"/>
-      <c r="AI50" s="2"/>
-      <c r="AJ50" s="2"/>
-      <c r="AK50" s="2"/>
-      <c r="AL50" s="2"/>
-      <c r="AM50" s="2"/>
-      <c r="AN50" s="2"/>
-      <c r="AO50" s="2"/>
-      <c r="AP50" s="2"/>
-      <c r="AQ50" s="2"/>
-      <c r="AR50" s="2"/>
-      <c r="AS50" s="2"/>
-      <c r="AT50" s="2"/>
-      <c r="AU50" s="2"/>
-      <c r="AV50" s="2"/>
-      <c r="AW50" s="2"/>
-      <c r="AX50" s="2"/>
-      <c r="AY50" s="2"/>
+    <row r="50" spans="2:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="18"/>
+      <c r="P50" s="18"/>
+      <c r="Q50" s="18"/>
+      <c r="R50" s="18"/>
+      <c r="S50" s="18"/>
+      <c r="T50" s="18"/>
+      <c r="U50" s="18"/>
+      <c r="V50" s="18"/>
+      <c r="W50" s="39">
+        <f>AVERAGE(W51:W60)</f>
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="X50" s="39">
+        <f t="shared" ref="X50" si="433">AVERAGE(X51:X60)</f>
+        <v>0.94000000000000006</v>
+      </c>
+      <c r="Y50" s="39">
+        <f t="shared" ref="Y50" si="434">AVERAGE(Y51:Y60)</f>
+        <v>0.86999999999999988</v>
+      </c>
+      <c r="Z50" s="40">
+        <f t="shared" ref="Z50" si="435">AVERAGE(Z51:Z60)</f>
+        <v>0.83999999999999986</v>
+      </c>
+      <c r="AA50" s="40">
+        <f t="shared" ref="AA50" si="436">AVERAGE(AA51:AA60)</f>
+        <v>0.83000000000000007</v>
+      </c>
+      <c r="AB50" s="40">
+        <f t="shared" ref="AB50" si="437">AVERAGE(AB51:AB60)</f>
+        <v>0.67</v>
+      </c>
+      <c r="AC50" s="14">
+        <f t="shared" ref="AC50" si="438">AVERAGE(AC51:AC60)</f>
+        <v>2.5</v>
+      </c>
+      <c r="AD50" s="14">
+        <f t="shared" ref="AD50" si="439">AVERAGE(AD51:AD60)</f>
+        <v>1.7035103346429348</v>
+      </c>
+      <c r="AE50" s="14">
+        <f t="shared" ref="AE50" si="440">AVERAGE(AE51:AE60)</f>
+        <v>1.5</v>
+      </c>
+      <c r="AF50" s="14">
+        <f t="shared" ref="AF50" si="441">AVERAGE(AF51:AF60)</f>
+        <v>1.0766913951834829</v>
+      </c>
+      <c r="AG50" s="14">
+        <f t="shared" ref="AG50" si="442">AVERAGE(AG51:AG60)</f>
+        <v>0.88976145663944572</v>
+      </c>
+      <c r="AH50" s="14">
+        <f t="shared" ref="AH50" si="443">AVERAGE(AH51:AH60)</f>
+        <v>0.99738012390246222</v>
+      </c>
+      <c r="AI50" s="14">
+        <f t="shared" ref="AI50" si="444">AVERAGE(AI51:AI60)</f>
+        <v>0.86666666666666681</v>
+      </c>
+      <c r="AJ50" s="14">
+        <f t="shared" ref="AJ50" si="445">AVERAGE(AJ51:AJ60)</f>
+        <v>0.82020867964289457</v>
+      </c>
+      <c r="AK50" s="14">
+        <f t="shared" ref="AK50" si="446">AVERAGE(AK51:AK60)</f>
+        <v>0.75257498915995302</v>
+      </c>
+      <c r="AL50" s="14">
+        <f t="shared" ref="AL50" si="447">AVERAGE(AL51:AL60)</f>
+        <v>0.72266206579471959</v>
+      </c>
+      <c r="AM50" s="14">
+        <f t="shared" ref="AM50" si="448">AVERAGE(AM51:AM60)</f>
+        <v>0.78104024782316361</v>
+      </c>
+      <c r="AN50" s="14">
+        <f t="shared" ref="AN50" si="449">AVERAGE(AN51:AN60)</f>
+        <v>0.56750012429737151</v>
+      </c>
+      <c r="AO50" s="14">
+        <f t="shared" ref="AO50" si="450">AVERAGE(AO51:AO60)</f>
+        <v>0.44650420956322912</v>
+      </c>
+      <c r="AP50" s="14">
+        <f t="shared" ref="AP50" si="451">AVERAGE(AP51:AP60)</f>
+        <v>0.511916049619631</v>
+      </c>
+      <c r="AQ50" s="14">
+        <f t="shared" ref="AQ50" si="452">AVERAGE(AQ51:AQ60)</f>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="AR50" s="14">
+        <f t="shared" ref="AR50" si="453">AVERAGE(AR51:AR60)</f>
+        <v>0.31804570475369381</v>
+      </c>
+      <c r="AS50" s="14">
+        <f t="shared" ref="AS50" si="454">AVERAGE(AS51:AS60)</f>
+        <v>0.35971869985219718</v>
+      </c>
+      <c r="AT50" s="14">
+        <f t="shared" ref="AT50" si="455">AVERAGE(AT51:AT60)</f>
+        <v>0.37665426138662117</v>
+      </c>
+      <c r="AU50" s="14">
+        <f t="shared" ref="AU50" si="456">AVERAGE(AU51:AU60)</f>
+        <v>0.41648078368756647</v>
+      </c>
+      <c r="AV50" s="14">
+        <f t="shared" ref="AV50" si="457">AVERAGE(AV51:AV60)</f>
+        <v>0.34150537304542944</v>
+      </c>
+      <c r="AW50" s="41">
+        <f t="shared" ref="AW50" si="458">AVERAGE(AW51:AW60)</f>
+        <v>7.6699631864658659</v>
+      </c>
+      <c r="AX50" s="41">
+        <f t="shared" ref="AX50" si="459">AVERAGE(AX51:AX60)</f>
+        <v>11.829455711632562</v>
+      </c>
+      <c r="AY50" s="41">
+        <f t="shared" ref="AY50" si="460">AVERAGE(AY51:AY60)</f>
+        <v>16.423821165661462</v>
+      </c>
     </row>
     <row r="51" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
-      <c r="T51" s="2"/>
-      <c r="U51" s="2"/>
-      <c r="V51" s="2"/>
-      <c r="W51" s="2"/>
-      <c r="X51" s="2"/>
-      <c r="Y51" s="2"/>
-      <c r="Z51" s="2"/>
-      <c r="AA51" s="2"/>
-      <c r="AB51" s="2"/>
-      <c r="AC51" s="2"/>
-      <c r="AD51" s="2"/>
-      <c r="AE51" s="2"/>
-      <c r="AF51" s="2"/>
-      <c r="AG51" s="2"/>
-      <c r="AH51" s="2"/>
-      <c r="AI51" s="2"/>
-      <c r="AJ51" s="2"/>
-      <c r="AK51" s="2"/>
-      <c r="AL51" s="2"/>
-      <c r="AM51" s="2"/>
-      <c r="AN51" s="2"/>
-      <c r="AO51" s="2"/>
-      <c r="AP51" s="2"/>
-      <c r="AQ51" s="2"/>
-      <c r="AR51" s="2"/>
-      <c r="AS51" s="2"/>
-      <c r="AT51" s="2"/>
-      <c r="AU51" s="2"/>
-      <c r="AV51" s="2"/>
-      <c r="AW51" s="2"/>
-      <c r="AX51" s="2"/>
-      <c r="AY51" s="2"/>
+      <c r="B51" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="18">
+        <v>1</v>
+      </c>
+      <c r="D51" s="18">
+        <v>1</v>
+      </c>
+      <c r="E51" s="18">
+        <v>1</v>
+      </c>
+      <c r="F51" s="18">
+        <v>1</v>
+      </c>
+      <c r="G51" s="18">
+        <v>1</v>
+      </c>
+      <c r="H51" s="18">
+        <v>1</v>
+      </c>
+      <c r="I51" s="18">
+        <v>1</v>
+      </c>
+      <c r="J51" s="18">
+        <v>1</v>
+      </c>
+      <c r="K51" s="18">
+        <v>1</v>
+      </c>
+      <c r="L51" s="18">
+        <v>1</v>
+      </c>
+      <c r="M51" s="18">
+        <v>1</v>
+      </c>
+      <c r="N51" s="18">
+        <v>1</v>
+      </c>
+      <c r="O51" s="18">
+        <v>1</v>
+      </c>
+      <c r="P51" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="18">
+        <v>1</v>
+      </c>
+      <c r="R51" s="18">
+        <v>1</v>
+      </c>
+      <c r="S51" s="18">
+        <v>1</v>
+      </c>
+      <c r="T51" s="18">
+        <v>1</v>
+      </c>
+      <c r="U51" s="18">
+        <v>1</v>
+      </c>
+      <c r="V51" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="W51" s="18">
+        <f t="shared" ref="W51:W60" si="461">COUNTIF(C51:G51,"&gt;0")/5</f>
+        <v>1</v>
+      </c>
+      <c r="X51" s="18">
+        <f t="shared" ref="X51:X60" si="462">COUNTIF(C51:L51,"&gt;0")/10</f>
+        <v>1</v>
+      </c>
+      <c r="Y51" s="18">
+        <f t="shared" ref="Y51:Y60" si="463">COUNTIF(C51:V51,"&gt;0")/20</f>
+        <v>1</v>
+      </c>
+      <c r="Z51" s="18">
+        <f>COUNTIF(C51:G51,"=1")/5</f>
+        <v>1</v>
+      </c>
+      <c r="AA51" s="18">
+        <f>COUNTIF(C51:L51,"=1")/10</f>
+        <v>1</v>
+      </c>
+      <c r="AB51" s="18">
+        <f>COUNTIF(C51:V51,"=1")/20</f>
+        <v>0.95</v>
+      </c>
+      <c r="AC51" s="18">
+        <f>((2^(C51*2))-1)/LOG(C$6+1,2)</f>
+        <v>3</v>
+      </c>
+      <c r="AD51" s="18">
+        <f t="shared" ref="AD51:AD60" si="464">((2^(D51*2))-1)/LOG(D$6+1,2)</f>
+        <v>1.8927892607143721</v>
+      </c>
+      <c r="AE51" s="18">
+        <f t="shared" ref="AE51:AE60" si="465">((2^(E51*2))-1)/LOG(E$6+1,2)</f>
+        <v>1.5</v>
+      </c>
+      <c r="AF51" s="18">
+        <f t="shared" ref="AF51:AF60" si="466">((2^(F51*2))-1)/LOG(F$6+1,2)</f>
+        <v>1.2920296742201793</v>
+      </c>
+      <c r="AG51" s="18">
+        <f t="shared" ref="AG51:AG60" si="467">((2^(G51*2))-1)/LOG(G$6+1,2)</f>
+        <v>1.1605584217036249</v>
+      </c>
+      <c r="AH51" s="18">
+        <f t="shared" ref="AH51:AH60" si="468">((2^(H51*2))-1)/LOG(H$6+1,2)</f>
+        <v>1.0686215613240666</v>
+      </c>
+      <c r="AI51" s="18">
+        <f t="shared" ref="AI51:AI60" si="469">((2^(I51*2))-1)/LOG(I$6+1,2)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ51" s="18">
+        <f t="shared" ref="AJ51:AJ60" si="470">((2^(J51*2))-1)/LOG(J$6+1,2)</f>
+        <v>0.94639463035718607</v>
+      </c>
+      <c r="AK51" s="18">
+        <f t="shared" ref="AK51:AK60" si="471">((2^(K51*2))-1)/LOG(K$6+1,2)</f>
+        <v>0.90308998699194354</v>
+      </c>
+      <c r="AL51" s="18">
+        <f t="shared" ref="AL51:AL60" si="472">((2^(L51*2))-1)/LOG(L$6+1,2)</f>
+        <v>0.86719447895366342</v>
+      </c>
+      <c r="AM51" s="18">
+        <f t="shared" ref="AM51:AM60" si="473">((2^(M51*2))-1)/LOG(M$6+1,2)</f>
+        <v>0.8368288369533895</v>
+      </c>
+      <c r="AN51" s="18">
+        <f t="shared" ref="AN51:AN60" si="474">((2^(N51*2))-1)/LOG(N$6+1,2)</f>
+        <v>0.81071446328195917</v>
+      </c>
+      <c r="AO51" s="18">
+        <f t="shared" ref="AO51:AO60" si="475">((2^(O51*2))-1)/LOG(O$6+1,2)</f>
+        <v>0.78794860511158071</v>
+      </c>
+      <c r="AP51" s="18">
+        <f t="shared" ref="AP51:AP60" si="476">((2^(P51*2))-1)/LOG(P$6+1,2)</f>
+        <v>0.76787407442944644</v>
+      </c>
+      <c r="AQ51" s="18">
+        <f t="shared" ref="AQ51:AQ60" si="477">((2^(Q51*2))-1)/LOG(Q$6+1,2)</f>
+        <v>0.75</v>
+      </c>
+      <c r="AR51" s="18">
+        <f t="shared" ref="AR51:AR60" si="478">((2^(R51*2))-1)/LOG(R$6+1,2)</f>
+        <v>0.73395162635467803</v>
+      </c>
+      <c r="AS51" s="18">
+        <f t="shared" ref="AS51:AS60" si="479">((2^(S51*2))-1)/LOG(S$6+1,2)</f>
+        <v>0.71943739970439435</v>
+      </c>
+      <c r="AT51" s="18">
+        <f t="shared" ref="AT51:AT60" si="480">((2^(T51*2))-1)/LOG(T$6+1,2)</f>
+        <v>0.70622674009991471</v>
+      </c>
+      <c r="AU51" s="18">
+        <f t="shared" ref="AU51:AU60" si="481">((2^(U51*2))-1)/LOG(U$6+1,2)</f>
+        <v>0.69413463947927745</v>
+      </c>
+      <c r="AV51" s="18">
+        <f t="shared" ref="AV51:AV60" si="482">((2^(V51*2))-1)/LOG(V$6+1,2)</f>
+        <v>0.22767024869695299</v>
+      </c>
+      <c r="AW51" s="18">
+        <f t="shared" ref="AW51:AW60" si="483">SUM(AC51:AG51)</f>
+        <v>8.8453773566381777</v>
+      </c>
+      <c r="AX51" s="18">
+        <f t="shared" ref="AX51:AX60" si="484">SUM(AC51:AL51)</f>
+        <v>13.630678014265039</v>
+      </c>
+      <c r="AY51" s="18">
+        <f>SUM(AC51:AV51)</f>
+        <v>20.665464648376631</v>
+      </c>
     </row>
     <row r="52" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="2"/>
-      <c r="S52" s="2"/>
-      <c r="T52" s="2"/>
-      <c r="U52" s="2"/>
-      <c r="V52" s="2"/>
-      <c r="W52" s="2"/>
-      <c r="X52" s="2"/>
-      <c r="Y52" s="2"/>
-      <c r="Z52" s="2"/>
-      <c r="AA52" s="2"/>
-      <c r="AB52" s="2"/>
-      <c r="AC52" s="2"/>
-      <c r="AD52" s="2"/>
-      <c r="AE52" s="2"/>
-      <c r="AF52" s="2"/>
-      <c r="AG52" s="2"/>
-      <c r="AH52" s="2"/>
-      <c r="AI52" s="2"/>
-      <c r="AJ52" s="2"/>
-      <c r="AK52" s="2"/>
-      <c r="AL52" s="2"/>
-      <c r="AM52" s="2"/>
-      <c r="AN52" s="2"/>
-      <c r="AO52" s="2"/>
-      <c r="AP52" s="2"/>
-      <c r="AQ52" s="2"/>
-      <c r="AR52" s="2"/>
-      <c r="AS52" s="2"/>
-      <c r="AT52" s="2"/>
-      <c r="AU52" s="2"/>
-      <c r="AV52" s="2"/>
-      <c r="AW52" s="2"/>
-      <c r="AX52" s="2"/>
-      <c r="AY52" s="2"/>
+      <c r="B52" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="18">
+        <v>1</v>
+      </c>
+      <c r="D52" s="18">
+        <v>1</v>
+      </c>
+      <c r="E52" s="18">
+        <v>1</v>
+      </c>
+      <c r="F52" s="18">
+        <v>1</v>
+      </c>
+      <c r="G52" s="18">
+        <v>1</v>
+      </c>
+      <c r="H52" s="18">
+        <v>1</v>
+      </c>
+      <c r="I52" s="18">
+        <v>1</v>
+      </c>
+      <c r="J52" s="18">
+        <v>1</v>
+      </c>
+      <c r="K52" s="18">
+        <v>1</v>
+      </c>
+      <c r="L52" s="18">
+        <v>1</v>
+      </c>
+      <c r="M52" s="18">
+        <v>1</v>
+      </c>
+      <c r="N52" s="18">
+        <v>1</v>
+      </c>
+      <c r="O52" s="18">
+        <v>1</v>
+      </c>
+      <c r="P52" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="18">
+        <v>1</v>
+      </c>
+      <c r="R52" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="S52" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="T52" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="U52" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="V52" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="W52" s="18">
+        <f t="shared" si="461"/>
+        <v>1</v>
+      </c>
+      <c r="X52" s="18">
+        <f t="shared" si="462"/>
+        <v>1</v>
+      </c>
+      <c r="Y52" s="18">
+        <f t="shared" si="463"/>
+        <v>1</v>
+      </c>
+      <c r="Z52" s="18">
+        <f t="shared" ref="Z52:Z60" si="485">COUNTIF(C52:G52,"=1")/5</f>
+        <v>1</v>
+      </c>
+      <c r="AA52" s="18">
+        <f t="shared" ref="AA52:AA60" si="486">COUNTIF(C52:L52,"=1")/10</f>
+        <v>1</v>
+      </c>
+      <c r="AB52" s="18">
+        <f t="shared" ref="AB52:AB60" si="487">COUNTIF(C52:V52,"=1")/20</f>
+        <v>0.75</v>
+      </c>
+      <c r="AC52" s="18">
+        <f t="shared" ref="AC52:AC60" si="488">((2^(C52*2))-1)/LOG(C$6+1,2)</f>
+        <v>3</v>
+      </c>
+      <c r="AD52" s="18">
+        <f t="shared" si="464"/>
+        <v>1.8927892607143721</v>
+      </c>
+      <c r="AE52" s="18">
+        <f t="shared" si="465"/>
+        <v>1.5</v>
+      </c>
+      <c r="AF52" s="18">
+        <f t="shared" si="466"/>
+        <v>1.2920296742201793</v>
+      </c>
+      <c r="AG52" s="18">
+        <f t="shared" si="467"/>
+        <v>1.1605584217036249</v>
+      </c>
+      <c r="AH52" s="18">
+        <f t="shared" si="468"/>
+        <v>1.0686215613240666</v>
+      </c>
+      <c r="AI52" s="18">
+        <f t="shared" si="469"/>
+        <v>1</v>
+      </c>
+      <c r="AJ52" s="18">
+        <f t="shared" si="470"/>
+        <v>0.94639463035718607</v>
+      </c>
+      <c r="AK52" s="18">
+        <f t="shared" si="471"/>
+        <v>0.90308998699194354</v>
+      </c>
+      <c r="AL52" s="18">
+        <f t="shared" si="472"/>
+        <v>0.86719447895366342</v>
+      </c>
+      <c r="AM52" s="18">
+        <f t="shared" si="473"/>
+        <v>0.8368288369533895</v>
+      </c>
+      <c r="AN52" s="18">
+        <f t="shared" si="474"/>
+        <v>0.81071446328195917</v>
+      </c>
+      <c r="AO52" s="18">
+        <f t="shared" si="475"/>
+        <v>0.78794860511158071</v>
+      </c>
+      <c r="AP52" s="18">
+        <f t="shared" si="476"/>
+        <v>0.76787407442944644</v>
+      </c>
+      <c r="AQ52" s="18">
+        <f t="shared" si="477"/>
+        <v>0.75</v>
+      </c>
+      <c r="AR52" s="18">
+        <f t="shared" si="478"/>
+        <v>0.24465054211822598</v>
+      </c>
+      <c r="AS52" s="18">
+        <f t="shared" si="479"/>
+        <v>0.23981246656813146</v>
+      </c>
+      <c r="AT52" s="18">
+        <f t="shared" si="480"/>
+        <v>0.23540891336663824</v>
+      </c>
+      <c r="AU52" s="18">
+        <f t="shared" si="481"/>
+        <v>0.23137821315975915</v>
+      </c>
+      <c r="AV52" s="18">
+        <f t="shared" si="482"/>
+        <v>0.22767024869695299</v>
+      </c>
+      <c r="AW52" s="18">
+        <f t="shared" si="483"/>
+        <v>8.8453773566381777</v>
+      </c>
+      <c r="AX52" s="18">
+        <f t="shared" si="484"/>
+        <v>13.630678014265039</v>
+      </c>
+      <c r="AY52" s="18">
+        <f t="shared" ref="AY52:AY60" si="489">SUM(AC52:AV52)</f>
+        <v>18.762964377951121</v>
+      </c>
+    </row>
+    <row r="53" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="B53" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="18">
+        <v>1</v>
+      </c>
+      <c r="D53" s="18">
+        <v>1</v>
+      </c>
+      <c r="E53" s="18">
+        <v>1</v>
+      </c>
+      <c r="F53" s="18">
+        <v>1</v>
+      </c>
+      <c r="G53" s="18">
+        <v>1</v>
+      </c>
+      <c r="H53" s="18">
+        <v>1</v>
+      </c>
+      <c r="I53" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="J53" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="K53" s="18">
+        <v>1</v>
+      </c>
+      <c r="L53" s="18">
+        <v>1</v>
+      </c>
+      <c r="M53" s="18">
+        <v>1</v>
+      </c>
+      <c r="N53" s="18">
+        <v>0</v>
+      </c>
+      <c r="O53" s="18">
+        <v>0</v>
+      </c>
+      <c r="P53" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="R53" s="18">
+        <v>0</v>
+      </c>
+      <c r="S53" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="T53" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="U53" s="18">
+        <v>1</v>
+      </c>
+      <c r="V53" s="18">
+        <v>0</v>
+      </c>
+      <c r="W53" s="18">
+        <f t="shared" si="461"/>
+        <v>1</v>
+      </c>
+      <c r="X53" s="18">
+        <f t="shared" si="462"/>
+        <v>1</v>
+      </c>
+      <c r="Y53" s="18">
+        <f t="shared" si="463"/>
+        <v>0.75</v>
+      </c>
+      <c r="Z53" s="18">
+        <f t="shared" si="485"/>
+        <v>1</v>
+      </c>
+      <c r="AA53" s="18">
+        <f t="shared" si="486"/>
+        <v>0.8</v>
+      </c>
+      <c r="AB53" s="18">
+        <f t="shared" si="487"/>
+        <v>0.5</v>
+      </c>
+      <c r="AC53" s="18">
+        <f t="shared" si="488"/>
+        <v>3</v>
+      </c>
+      <c r="AD53" s="18">
+        <f t="shared" si="464"/>
+        <v>1.8927892607143721</v>
+      </c>
+      <c r="AE53" s="18">
+        <f t="shared" si="465"/>
+        <v>1.5</v>
+      </c>
+      <c r="AF53" s="18">
+        <f t="shared" si="466"/>
+        <v>1.2920296742201793</v>
+      </c>
+      <c r="AG53" s="18">
+        <f t="shared" si="467"/>
+        <v>1.1605584217036249</v>
+      </c>
+      <c r="AH53" s="18">
+        <f t="shared" si="468"/>
+        <v>1.0686215613240666</v>
+      </c>
+      <c r="AI53" s="18">
+        <f t="shared" si="469"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AJ53" s="18">
+        <f t="shared" si="470"/>
+        <v>0.31546487678572871</v>
+      </c>
+      <c r="AK53" s="18">
+        <f t="shared" si="471"/>
+        <v>0.90308998699194354</v>
+      </c>
+      <c r="AL53" s="18">
+        <f t="shared" si="472"/>
+        <v>0.86719447895366342</v>
+      </c>
+      <c r="AM53" s="18">
+        <f t="shared" si="473"/>
+        <v>0.8368288369533895</v>
+      </c>
+      <c r="AN53" s="18">
+        <f t="shared" si="474"/>
+        <v>0</v>
+      </c>
+      <c r="AO53" s="18">
+        <f t="shared" si="475"/>
+        <v>0</v>
+      </c>
+      <c r="AP53" s="18">
+        <f t="shared" si="476"/>
+        <v>0</v>
+      </c>
+      <c r="AQ53" s="18">
+        <f t="shared" si="477"/>
+        <v>0.25</v>
+      </c>
+      <c r="AR53" s="18">
+        <f t="shared" si="478"/>
+        <v>0</v>
+      </c>
+      <c r="AS53" s="18">
+        <f t="shared" si="479"/>
+        <v>0.23981246656813146</v>
+      </c>
+      <c r="AT53" s="18">
+        <f t="shared" si="480"/>
+        <v>0.23540891336663824</v>
+      </c>
+      <c r="AU53" s="18">
+        <f t="shared" si="481"/>
+        <v>0.69413463947927745</v>
+      </c>
+      <c r="AV53" s="18">
+        <f t="shared" si="482"/>
+        <v>0</v>
+      </c>
+      <c r="AW53" s="18">
+        <f t="shared" si="483"/>
+        <v>8.8453773566381777</v>
+      </c>
+      <c r="AX53" s="18">
+        <f t="shared" si="484"/>
+        <v>12.333081594026915</v>
+      </c>
+      <c r="AY53" s="18">
+        <f t="shared" si="489"/>
+        <v>14.589266450394351</v>
+      </c>
+    </row>
+    <row r="54" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="B54" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="18">
+        <v>1</v>
+      </c>
+      <c r="D54" s="18">
+        <v>1</v>
+      </c>
+      <c r="E54" s="18">
+        <v>1</v>
+      </c>
+      <c r="F54" s="18">
+        <v>1</v>
+      </c>
+      <c r="G54" s="18">
+        <v>1</v>
+      </c>
+      <c r="H54" s="18">
+        <v>1</v>
+      </c>
+      <c r="I54" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="J54" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="K54" s="18">
+        <v>1</v>
+      </c>
+      <c r="L54" s="18">
+        <v>1</v>
+      </c>
+      <c r="M54" s="18">
+        <v>1</v>
+      </c>
+      <c r="N54" s="18">
+        <v>1</v>
+      </c>
+      <c r="O54" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="P54" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="Q54" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="R54" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="S54" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="T54" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="U54" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="V54" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="W54" s="18">
+        <f t="shared" si="461"/>
+        <v>1</v>
+      </c>
+      <c r="X54" s="18">
+        <f t="shared" si="462"/>
+        <v>1</v>
+      </c>
+      <c r="Y54" s="18">
+        <f t="shared" si="463"/>
+        <v>1</v>
+      </c>
+      <c r="Z54" s="18">
+        <f t="shared" si="485"/>
+        <v>1</v>
+      </c>
+      <c r="AA54" s="18">
+        <f t="shared" si="486"/>
+        <v>0.8</v>
+      </c>
+      <c r="AB54" s="18">
+        <f t="shared" si="487"/>
+        <v>0.5</v>
+      </c>
+      <c r="AC54" s="18">
+        <f t="shared" si="488"/>
+        <v>3</v>
+      </c>
+      <c r="AD54" s="18">
+        <f t="shared" si="464"/>
+        <v>1.8927892607143721</v>
+      </c>
+      <c r="AE54" s="18">
+        <f t="shared" si="465"/>
+        <v>1.5</v>
+      </c>
+      <c r="AF54" s="18">
+        <f t="shared" si="466"/>
+        <v>1.2920296742201793</v>
+      </c>
+      <c r="AG54" s="18">
+        <f t="shared" si="467"/>
+        <v>1.1605584217036249</v>
+      </c>
+      <c r="AH54" s="18">
+        <f t="shared" si="468"/>
+        <v>1.0686215613240666</v>
+      </c>
+      <c r="AI54" s="18">
+        <f t="shared" si="469"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AJ54" s="18">
+        <f t="shared" si="470"/>
+        <v>0.31546487678572871</v>
+      </c>
+      <c r="AK54" s="18">
+        <f t="shared" si="471"/>
+        <v>0.90308998699194354</v>
+      </c>
+      <c r="AL54" s="18">
+        <f t="shared" si="472"/>
+        <v>0.86719447895366342</v>
+      </c>
+      <c r="AM54" s="18">
+        <f t="shared" si="473"/>
+        <v>0.8368288369533895</v>
+      </c>
+      <c r="AN54" s="18">
+        <f t="shared" si="474"/>
+        <v>0.81071446328195917</v>
+      </c>
+      <c r="AO54" s="18">
+        <f t="shared" si="475"/>
+        <v>0.26264953503719357</v>
+      </c>
+      <c r="AP54" s="18">
+        <f t="shared" si="476"/>
+        <v>0.2559580248098155</v>
+      </c>
+      <c r="AQ54" s="18">
+        <f t="shared" si="477"/>
+        <v>0.25</v>
+      </c>
+      <c r="AR54" s="18">
+        <f t="shared" si="478"/>
+        <v>0.24465054211822598</v>
+      </c>
+      <c r="AS54" s="18">
+        <f t="shared" si="479"/>
+        <v>0.23981246656813146</v>
+      </c>
+      <c r="AT54" s="18">
+        <f t="shared" si="480"/>
+        <v>0.23540891336663824</v>
+      </c>
+      <c r="AU54" s="18">
+        <f t="shared" si="481"/>
+        <v>0.23137821315975915</v>
+      </c>
+      <c r="AV54" s="18">
+        <f t="shared" si="482"/>
+        <v>0.22767024869695299</v>
+      </c>
+      <c r="AW54" s="18">
+        <f t="shared" si="483"/>
+        <v>8.8453773566381777</v>
+      </c>
+      <c r="AX54" s="18">
+        <f t="shared" si="484"/>
+        <v>12.333081594026915</v>
+      </c>
+      <c r="AY54" s="18">
+        <f t="shared" si="489"/>
+        <v>15.928152838018981</v>
+      </c>
+    </row>
+    <row r="55" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="B55" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="18">
+        <v>1</v>
+      </c>
+      <c r="D55" s="18">
+        <v>1</v>
+      </c>
+      <c r="E55" s="18">
+        <v>1</v>
+      </c>
+      <c r="F55" s="18">
+        <v>1</v>
+      </c>
+      <c r="G55" s="18">
+        <v>1</v>
+      </c>
+      <c r="H55" s="18">
+        <v>1</v>
+      </c>
+      <c r="I55" s="18">
+        <v>1</v>
+      </c>
+      <c r="J55" s="18">
+        <v>1</v>
+      </c>
+      <c r="K55" s="18">
+        <v>1</v>
+      </c>
+      <c r="L55" s="18">
+        <v>1</v>
+      </c>
+      <c r="M55" s="18">
+        <v>1</v>
+      </c>
+      <c r="N55" s="18">
+        <v>1</v>
+      </c>
+      <c r="O55" s="18">
+        <v>1</v>
+      </c>
+      <c r="P55" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="18">
+        <v>1</v>
+      </c>
+      <c r="R55" s="18">
+        <v>1</v>
+      </c>
+      <c r="S55" s="18">
+        <v>1</v>
+      </c>
+      <c r="T55" s="18">
+        <v>1</v>
+      </c>
+      <c r="U55" s="18">
+        <v>1</v>
+      </c>
+      <c r="V55" s="18">
+        <v>1</v>
+      </c>
+      <c r="W55" s="18">
+        <f t="shared" si="461"/>
+        <v>1</v>
+      </c>
+      <c r="X55" s="18">
+        <f t="shared" si="462"/>
+        <v>1</v>
+      </c>
+      <c r="Y55" s="18">
+        <f t="shared" si="463"/>
+        <v>1</v>
+      </c>
+      <c r="Z55" s="18">
+        <f t="shared" si="485"/>
+        <v>1</v>
+      </c>
+      <c r="AA55" s="18">
+        <f t="shared" si="486"/>
+        <v>1</v>
+      </c>
+      <c r="AB55" s="18">
+        <f t="shared" si="487"/>
+        <v>1</v>
+      </c>
+      <c r="AC55" s="18">
+        <f t="shared" si="488"/>
+        <v>3</v>
+      </c>
+      <c r="AD55" s="18">
+        <f t="shared" si="464"/>
+        <v>1.8927892607143721</v>
+      </c>
+      <c r="AE55" s="18">
+        <f t="shared" si="465"/>
+        <v>1.5</v>
+      </c>
+      <c r="AF55" s="18">
+        <f t="shared" si="466"/>
+        <v>1.2920296742201793</v>
+      </c>
+      <c r="AG55" s="18">
+        <f t="shared" si="467"/>
+        <v>1.1605584217036249</v>
+      </c>
+      <c r="AH55" s="18">
+        <f t="shared" si="468"/>
+        <v>1.0686215613240666</v>
+      </c>
+      <c r="AI55" s="18">
+        <f t="shared" si="469"/>
+        <v>1</v>
+      </c>
+      <c r="AJ55" s="18">
+        <f t="shared" si="470"/>
+        <v>0.94639463035718607</v>
+      </c>
+      <c r="AK55" s="18">
+        <f t="shared" si="471"/>
+        <v>0.90308998699194354</v>
+      </c>
+      <c r="AL55" s="18">
+        <f t="shared" si="472"/>
+        <v>0.86719447895366342</v>
+      </c>
+      <c r="AM55" s="18">
+        <f t="shared" si="473"/>
+        <v>0.8368288369533895</v>
+      </c>
+      <c r="AN55" s="18">
+        <f t="shared" si="474"/>
+        <v>0.81071446328195917</v>
+      </c>
+      <c r="AO55" s="18">
+        <f t="shared" si="475"/>
+        <v>0.78794860511158071</v>
+      </c>
+      <c r="AP55" s="18">
+        <f t="shared" si="476"/>
+        <v>0.76787407442944644</v>
+      </c>
+      <c r="AQ55" s="18">
+        <f t="shared" si="477"/>
+        <v>0.75</v>
+      </c>
+      <c r="AR55" s="18">
+        <f t="shared" si="478"/>
+        <v>0.73395162635467803</v>
+      </c>
+      <c r="AS55" s="18">
+        <f t="shared" si="479"/>
+        <v>0.71943739970439435</v>
+      </c>
+      <c r="AT55" s="18">
+        <f t="shared" si="480"/>
+        <v>0.70622674009991471</v>
+      </c>
+      <c r="AU55" s="18">
+        <f t="shared" si="481"/>
+        <v>0.69413463947927745</v>
+      </c>
+      <c r="AV55" s="18">
+        <f t="shared" si="482"/>
+        <v>0.68301074609085888</v>
+      </c>
+      <c r="AW55" s="18">
+        <f t="shared" si="483"/>
+        <v>8.8453773566381777</v>
+      </c>
+      <c r="AX55" s="18">
+        <f t="shared" si="484"/>
+        <v>13.630678014265039</v>
+      </c>
+      <c r="AY55" s="18">
+        <f t="shared" si="489"/>
+        <v>21.120805145770536</v>
+      </c>
+    </row>
+    <row r="56" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="B56" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="18">
+        <v>1</v>
+      </c>
+      <c r="D56" s="18">
+        <v>1</v>
+      </c>
+      <c r="E56" s="18">
+        <v>1</v>
+      </c>
+      <c r="F56" s="18">
+        <v>1</v>
+      </c>
+      <c r="G56" s="18">
+        <v>1</v>
+      </c>
+      <c r="H56" s="18">
+        <v>1</v>
+      </c>
+      <c r="I56" s="18">
+        <v>1</v>
+      </c>
+      <c r="J56" s="18">
+        <v>1</v>
+      </c>
+      <c r="K56" s="18">
+        <v>1</v>
+      </c>
+      <c r="L56" s="18">
+        <v>1</v>
+      </c>
+      <c r="M56" s="18">
+        <v>1</v>
+      </c>
+      <c r="N56" s="18">
+        <v>1</v>
+      </c>
+      <c r="O56" s="18">
+        <v>1</v>
+      </c>
+      <c r="P56" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="18">
+        <v>0</v>
+      </c>
+      <c r="R56" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="S56" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="T56" s="18">
+        <v>0</v>
+      </c>
+      <c r="U56" s="18">
+        <v>0</v>
+      </c>
+      <c r="V56" s="18">
+        <v>0</v>
+      </c>
+      <c r="W56" s="18">
+        <f t="shared" si="461"/>
+        <v>1</v>
+      </c>
+      <c r="X56" s="18">
+        <f t="shared" si="462"/>
+        <v>1</v>
+      </c>
+      <c r="Y56" s="18">
+        <f t="shared" si="463"/>
+        <v>0.8</v>
+      </c>
+      <c r="Z56" s="18">
+        <f t="shared" si="485"/>
+        <v>1</v>
+      </c>
+      <c r="AA56" s="18">
+        <f t="shared" si="486"/>
+        <v>1</v>
+      </c>
+      <c r="AB56" s="18">
+        <f t="shared" si="487"/>
+        <v>0.7</v>
+      </c>
+      <c r="AC56" s="18">
+        <f t="shared" si="488"/>
+        <v>3</v>
+      </c>
+      <c r="AD56" s="18">
+        <f t="shared" si="464"/>
+        <v>1.8927892607143721</v>
+      </c>
+      <c r="AE56" s="18">
+        <f t="shared" si="465"/>
+        <v>1.5</v>
+      </c>
+      <c r="AF56" s="18">
+        <f t="shared" si="466"/>
+        <v>1.2920296742201793</v>
+      </c>
+      <c r="AG56" s="18">
+        <f t="shared" si="467"/>
+        <v>1.1605584217036249</v>
+      </c>
+      <c r="AH56" s="18">
+        <f t="shared" si="468"/>
+        <v>1.0686215613240666</v>
+      </c>
+      <c r="AI56" s="18">
+        <f t="shared" si="469"/>
+        <v>1</v>
+      </c>
+      <c r="AJ56" s="18">
+        <f t="shared" si="470"/>
+        <v>0.94639463035718607</v>
+      </c>
+      <c r="AK56" s="18">
+        <f t="shared" si="471"/>
+        <v>0.90308998699194354</v>
+      </c>
+      <c r="AL56" s="18">
+        <f t="shared" si="472"/>
+        <v>0.86719447895366342</v>
+      </c>
+      <c r="AM56" s="18">
+        <f t="shared" si="473"/>
+        <v>0.8368288369533895</v>
+      </c>
+      <c r="AN56" s="18">
+        <f t="shared" si="474"/>
+        <v>0.81071446328195917</v>
+      </c>
+      <c r="AO56" s="18">
+        <f t="shared" si="475"/>
+        <v>0.78794860511158071</v>
+      </c>
+      <c r="AP56" s="18">
+        <f t="shared" si="476"/>
+        <v>0.76787407442944644</v>
+      </c>
+      <c r="AQ56" s="18">
+        <f t="shared" si="477"/>
+        <v>0</v>
+      </c>
+      <c r="AR56" s="18">
+        <f t="shared" si="478"/>
+        <v>0.24465054211822598</v>
+      </c>
+      <c r="AS56" s="18">
+        <f t="shared" si="479"/>
+        <v>0.23981246656813146</v>
+      </c>
+      <c r="AT56" s="18">
+        <f t="shared" si="480"/>
+        <v>0</v>
+      </c>
+      <c r="AU56" s="18">
+        <f t="shared" si="481"/>
+        <v>0</v>
+      </c>
+      <c r="AV56" s="18">
+        <f t="shared" si="482"/>
+        <v>0</v>
+      </c>
+      <c r="AW56" s="18">
+        <f t="shared" si="483"/>
+        <v>8.8453773566381777</v>
+      </c>
+      <c r="AX56" s="18">
+        <f t="shared" si="484"/>
+        <v>13.630678014265039</v>
+      </c>
+      <c r="AY56" s="18">
+        <f t="shared" si="489"/>
+        <v>17.318507002727774</v>
+      </c>
+    </row>
+    <row r="57" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="B57" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" s="18">
+        <v>0</v>
+      </c>
+      <c r="D57" s="18">
+        <v>0</v>
+      </c>
+      <c r="E57" s="18">
+        <v>1</v>
+      </c>
+      <c r="F57" s="18">
+        <v>0</v>
+      </c>
+      <c r="G57" s="18">
+        <v>0</v>
+      </c>
+      <c r="H57" s="18">
+        <v>1</v>
+      </c>
+      <c r="I57" s="18">
+        <v>1</v>
+      </c>
+      <c r="J57" s="18">
+        <v>1</v>
+      </c>
+      <c r="K57" s="18">
+        <v>0</v>
+      </c>
+      <c r="L57" s="18">
+        <v>1</v>
+      </c>
+      <c r="M57" s="18">
+        <v>1</v>
+      </c>
+      <c r="N57" s="18">
+        <v>1</v>
+      </c>
+      <c r="O57" s="18">
+        <v>0</v>
+      </c>
+      <c r="P57" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="18">
+        <v>1</v>
+      </c>
+      <c r="R57" s="18">
+        <v>0</v>
+      </c>
+      <c r="S57" s="18">
+        <v>0</v>
+      </c>
+      <c r="T57" s="18">
+        <v>1</v>
+      </c>
+      <c r="U57" s="18">
+        <v>0</v>
+      </c>
+      <c r="V57" s="18">
+        <v>0</v>
+      </c>
+      <c r="W57" s="18">
+        <f t="shared" si="461"/>
+        <v>0.2</v>
+      </c>
+      <c r="X57" s="18">
+        <f t="shared" si="462"/>
+        <v>0.5</v>
+      </c>
+      <c r="Y57" s="18">
+        <f t="shared" si="463"/>
+        <v>0.45</v>
+      </c>
+      <c r="Z57" s="18">
+        <f t="shared" si="485"/>
+        <v>0.2</v>
+      </c>
+      <c r="AA57" s="18">
+        <f t="shared" si="486"/>
+        <v>0.5</v>
+      </c>
+      <c r="AB57" s="18">
+        <f t="shared" si="487"/>
+        <v>0.45</v>
+      </c>
+      <c r="AC57" s="18">
+        <f t="shared" si="488"/>
+        <v>0</v>
+      </c>
+      <c r="AD57" s="18">
+        <f t="shared" si="464"/>
+        <v>0</v>
+      </c>
+      <c r="AE57" s="18">
+        <f t="shared" si="465"/>
+        <v>1.5</v>
+      </c>
+      <c r="AF57" s="18">
+        <f t="shared" si="466"/>
+        <v>0</v>
+      </c>
+      <c r="AG57" s="18">
+        <f t="shared" si="467"/>
+        <v>0</v>
+      </c>
+      <c r="AH57" s="18">
+        <f t="shared" si="468"/>
+        <v>1.0686215613240666</v>
+      </c>
+      <c r="AI57" s="18">
+        <f t="shared" si="469"/>
+        <v>1</v>
+      </c>
+      <c r="AJ57" s="18">
+        <f t="shared" si="470"/>
+        <v>0.94639463035718607</v>
+      </c>
+      <c r="AK57" s="18">
+        <f t="shared" si="471"/>
+        <v>0</v>
+      </c>
+      <c r="AL57" s="18">
+        <f t="shared" si="472"/>
+        <v>0.86719447895366342</v>
+      </c>
+      <c r="AM57" s="18">
+        <f t="shared" si="473"/>
+        <v>0.8368288369533895</v>
+      </c>
+      <c r="AN57" s="18">
+        <f t="shared" si="474"/>
+        <v>0.81071446328195917</v>
+      </c>
+      <c r="AO57" s="18">
+        <f t="shared" si="475"/>
+        <v>0</v>
+      </c>
+      <c r="AP57" s="18">
+        <f t="shared" si="476"/>
+        <v>0</v>
+      </c>
+      <c r="AQ57" s="18">
+        <f t="shared" si="477"/>
+        <v>0.75</v>
+      </c>
+      <c r="AR57" s="18">
+        <f t="shared" si="478"/>
+        <v>0</v>
+      </c>
+      <c r="AS57" s="18">
+        <f t="shared" si="479"/>
+        <v>0</v>
+      </c>
+      <c r="AT57" s="18">
+        <f t="shared" si="480"/>
+        <v>0.70622674009991471</v>
+      </c>
+      <c r="AU57" s="18">
+        <f t="shared" si="481"/>
+        <v>0</v>
+      </c>
+      <c r="AV57" s="18">
+        <f t="shared" si="482"/>
+        <v>0</v>
+      </c>
+      <c r="AW57" s="18">
+        <f t="shared" si="483"/>
+        <v>1.5</v>
+      </c>
+      <c r="AX57" s="18">
+        <f t="shared" si="484"/>
+        <v>5.3822106706349153</v>
+      </c>
+      <c r="AY57" s="18">
+        <f t="shared" si="489"/>
+        <v>8.4859807109701784</v>
+      </c>
+    </row>
+    <row r="58" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="B58" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" s="18">
+        <v>1</v>
+      </c>
+      <c r="D58" s="18">
+        <v>1</v>
+      </c>
+      <c r="E58" s="18">
+        <v>1</v>
+      </c>
+      <c r="F58" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="G58" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="H58" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="I58" s="18">
+        <v>1</v>
+      </c>
+      <c r="J58" s="18">
+        <v>1</v>
+      </c>
+      <c r="K58" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="L58" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="M58" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="N58" s="18">
+        <v>0</v>
+      </c>
+      <c r="O58" s="18">
+        <v>0</v>
+      </c>
+      <c r="P58" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="Q58" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="R58" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="S58" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="T58" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="U58" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="V58" s="18">
+        <v>1</v>
+      </c>
+      <c r="W58" s="18">
+        <f t="shared" si="461"/>
+        <v>1</v>
+      </c>
+      <c r="X58" s="18">
+        <f t="shared" si="462"/>
+        <v>1</v>
+      </c>
+      <c r="Y58" s="18">
+        <f t="shared" si="463"/>
+        <v>0.9</v>
+      </c>
+      <c r="Z58" s="18">
+        <f t="shared" si="485"/>
+        <v>0.6</v>
+      </c>
+      <c r="AA58" s="18">
+        <f t="shared" si="486"/>
+        <v>0.5</v>
+      </c>
+      <c r="AB58" s="18">
+        <f t="shared" si="487"/>
+        <v>0.3</v>
+      </c>
+      <c r="AC58" s="18">
+        <f t="shared" si="488"/>
+        <v>3</v>
+      </c>
+      <c r="AD58" s="18">
+        <f t="shared" si="464"/>
+        <v>1.8927892607143721</v>
+      </c>
+      <c r="AE58" s="18">
+        <f t="shared" si="465"/>
+        <v>1.5</v>
+      </c>
+      <c r="AF58" s="18">
+        <f t="shared" si="466"/>
+        <v>0.43067655807339306</v>
+      </c>
+      <c r="AG58" s="18">
+        <f t="shared" si="467"/>
+        <v>0.38685280723454163</v>
+      </c>
+      <c r="AH58" s="18">
+        <f t="shared" si="468"/>
+        <v>0.35620718710802218</v>
+      </c>
+      <c r="AI58" s="18">
+        <f t="shared" si="469"/>
+        <v>1</v>
+      </c>
+      <c r="AJ58" s="18">
+        <f t="shared" si="470"/>
+        <v>0.94639463035718607</v>
+      </c>
+      <c r="AK58" s="18">
+        <f t="shared" si="471"/>
+        <v>0.30102999566398114</v>
+      </c>
+      <c r="AL58" s="18">
+        <f t="shared" si="472"/>
+        <v>0.28906482631788782</v>
+      </c>
+      <c r="AM58" s="18">
+        <f t="shared" si="473"/>
+        <v>0.27894294565112981</v>
+      </c>
+      <c r="AN58" s="18">
+        <f t="shared" si="474"/>
+        <v>0</v>
+      </c>
+      <c r="AO58" s="18">
+        <f t="shared" si="475"/>
+        <v>0</v>
+      </c>
+      <c r="AP58" s="18">
+        <f t="shared" si="476"/>
+        <v>0.2559580248098155</v>
+      </c>
+      <c r="AQ58" s="18">
+        <f t="shared" si="477"/>
+        <v>0.25</v>
+      </c>
+      <c r="AR58" s="18">
+        <f t="shared" si="478"/>
+        <v>0.24465054211822598</v>
+      </c>
+      <c r="AS58" s="18">
+        <f t="shared" si="479"/>
+        <v>0.23981246656813146</v>
+      </c>
+      <c r="AT58" s="18">
+        <f t="shared" si="480"/>
+        <v>0.23540891336663824</v>
+      </c>
+      <c r="AU58" s="18">
+        <f t="shared" si="481"/>
+        <v>0.23137821315975915</v>
+      </c>
+      <c r="AV58" s="18">
+        <f t="shared" si="482"/>
+        <v>0.68301074609085888</v>
+      </c>
+      <c r="AW58" s="18">
+        <f t="shared" si="483"/>
+        <v>7.2103186260223069</v>
+      </c>
+      <c r="AX58" s="18">
+        <f t="shared" si="484"/>
+        <v>10.103015265469386</v>
+      </c>
+      <c r="AY58" s="18">
+        <f t="shared" si="489"/>
+        <v>12.522177117233948</v>
+      </c>
+    </row>
+    <row r="59" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="B59" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="D59" s="18">
+        <v>1</v>
+      </c>
+      <c r="E59" s="18">
+        <v>1</v>
+      </c>
+      <c r="F59" s="18">
+        <v>1</v>
+      </c>
+      <c r="G59" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="H59" s="18">
+        <v>1</v>
+      </c>
+      <c r="I59" s="18">
+        <v>1</v>
+      </c>
+      <c r="J59" s="18">
+        <v>1</v>
+      </c>
+      <c r="K59" s="18">
+        <v>1</v>
+      </c>
+      <c r="L59" s="18">
+        <v>0</v>
+      </c>
+      <c r="M59" s="18">
+        <v>1</v>
+      </c>
+      <c r="N59" s="18">
+        <v>0</v>
+      </c>
+      <c r="O59" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="P59" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="R59" s="18">
+        <v>0</v>
+      </c>
+      <c r="S59" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="T59" s="18">
+        <v>0</v>
+      </c>
+      <c r="U59" s="18">
+        <v>1</v>
+      </c>
+      <c r="V59" s="18">
+        <v>1</v>
+      </c>
+      <c r="W59" s="18">
+        <f t="shared" si="461"/>
+        <v>1</v>
+      </c>
+      <c r="X59" s="18">
+        <f t="shared" si="462"/>
+        <v>0.9</v>
+      </c>
+      <c r="Y59" s="18">
+        <f t="shared" si="463"/>
+        <v>0.8</v>
+      </c>
+      <c r="Z59" s="18">
+        <f t="shared" si="485"/>
+        <v>0.6</v>
+      </c>
+      <c r="AA59" s="18">
+        <f t="shared" si="486"/>
+        <v>0.7</v>
+      </c>
+      <c r="AB59" s="18">
+        <f t="shared" si="487"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AC59" s="18">
+        <f t="shared" si="488"/>
+        <v>1</v>
+      </c>
+      <c r="AD59" s="18">
+        <f t="shared" si="464"/>
+        <v>1.8927892607143721</v>
+      </c>
+      <c r="AE59" s="18">
+        <f t="shared" si="465"/>
+        <v>1.5</v>
+      </c>
+      <c r="AF59" s="18">
+        <f t="shared" si="466"/>
+        <v>1.2920296742201793</v>
+      </c>
+      <c r="AG59" s="18">
+        <f t="shared" si="467"/>
+        <v>0.38685280723454163</v>
+      </c>
+      <c r="AH59" s="18">
+        <f t="shared" si="468"/>
+        <v>1.0686215613240666</v>
+      </c>
+      <c r="AI59" s="18">
+        <f t="shared" si="469"/>
+        <v>1</v>
+      </c>
+      <c r="AJ59" s="18">
+        <f t="shared" si="470"/>
+        <v>0.94639463035718607</v>
+      </c>
+      <c r="AK59" s="18">
+        <f t="shared" si="471"/>
+        <v>0.90308998699194354</v>
+      </c>
+      <c r="AL59" s="18">
+        <f t="shared" si="472"/>
+        <v>0</v>
+      </c>
+      <c r="AM59" s="18">
+        <f t="shared" si="473"/>
+        <v>0.8368288369533895</v>
+      </c>
+      <c r="AN59" s="18">
+        <f t="shared" si="474"/>
+        <v>0</v>
+      </c>
+      <c r="AO59" s="18">
+        <f t="shared" si="475"/>
+        <v>0.26264953503719357</v>
+      </c>
+      <c r="AP59" s="18">
+        <f t="shared" si="476"/>
+        <v>0.76787407442944644</v>
+      </c>
+      <c r="AQ59" s="18">
+        <f t="shared" si="477"/>
+        <v>0.25</v>
+      </c>
+      <c r="AR59" s="18">
+        <f t="shared" si="478"/>
+        <v>0</v>
+      </c>
+      <c r="AS59" s="18">
+        <f t="shared" si="479"/>
+        <v>0.23981246656813146</v>
+      </c>
+      <c r="AT59" s="18">
+        <f t="shared" si="480"/>
+        <v>0</v>
+      </c>
+      <c r="AU59" s="18">
+        <f t="shared" si="481"/>
+        <v>0.69413463947927745</v>
+      </c>
+      <c r="AV59" s="18">
+        <f t="shared" si="482"/>
+        <v>0.68301074609085888</v>
+      </c>
+      <c r="AW59" s="18">
+        <f t="shared" si="483"/>
+        <v>6.0716717421690936</v>
+      </c>
+      <c r="AX59" s="18">
+        <f t="shared" si="484"/>
+        <v>9.9897779208422897</v>
+      </c>
+      <c r="AY59" s="18">
+        <f t="shared" si="489"/>
+        <v>13.724088219400587</v>
+      </c>
+    </row>
+    <row r="60" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="B60" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" s="18">
+        <v>1</v>
+      </c>
+      <c r="D60" s="18">
+        <v>1</v>
+      </c>
+      <c r="E60" s="18">
+        <v>1</v>
+      </c>
+      <c r="F60" s="18">
+        <v>1</v>
+      </c>
+      <c r="G60" s="18">
+        <v>1</v>
+      </c>
+      <c r="H60" s="18">
+        <v>1</v>
+      </c>
+      <c r="I60" s="18">
+        <v>1</v>
+      </c>
+      <c r="J60" s="18">
+        <v>1</v>
+      </c>
+      <c r="K60" s="18">
+        <v>1</v>
+      </c>
+      <c r="L60" s="18">
+        <v>1</v>
+      </c>
+      <c r="M60" s="18">
+        <v>1</v>
+      </c>
+      <c r="N60" s="18">
+        <v>1</v>
+      </c>
+      <c r="O60" s="18">
+        <v>1</v>
+      </c>
+      <c r="P60" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="18">
+        <v>1</v>
+      </c>
+      <c r="R60" s="18">
+        <v>1</v>
+      </c>
+      <c r="S60" s="18">
+        <v>1</v>
+      </c>
+      <c r="T60" s="18">
+        <v>1</v>
+      </c>
+      <c r="U60" s="18">
+        <v>1</v>
+      </c>
+      <c r="V60" s="18">
+        <v>1</v>
+      </c>
+      <c r="W60" s="18">
+        <f t="shared" si="461"/>
+        <v>1</v>
+      </c>
+      <c r="X60" s="18">
+        <f t="shared" si="462"/>
+        <v>1</v>
+      </c>
+      <c r="Y60" s="18">
+        <f t="shared" si="463"/>
+        <v>1</v>
+      </c>
+      <c r="Z60" s="18">
+        <f t="shared" si="485"/>
+        <v>1</v>
+      </c>
+      <c r="AA60" s="18">
+        <f t="shared" si="486"/>
+        <v>1</v>
+      </c>
+      <c r="AB60" s="18">
+        <f t="shared" si="487"/>
+        <v>1</v>
+      </c>
+      <c r="AC60" s="18">
+        <f t="shared" si="488"/>
+        <v>3</v>
+      </c>
+      <c r="AD60" s="18">
+        <f t="shared" si="464"/>
+        <v>1.8927892607143721</v>
+      </c>
+      <c r="AE60" s="18">
+        <f t="shared" si="465"/>
+        <v>1.5</v>
+      </c>
+      <c r="AF60" s="18">
+        <f t="shared" si="466"/>
+        <v>1.2920296742201793</v>
+      </c>
+      <c r="AG60" s="18">
+        <f t="shared" si="467"/>
+        <v>1.1605584217036249</v>
+      </c>
+      <c r="AH60" s="18">
+        <f t="shared" si="468"/>
+        <v>1.0686215613240666</v>
+      </c>
+      <c r="AI60" s="18">
+        <f t="shared" si="469"/>
+        <v>1</v>
+      </c>
+      <c r="AJ60" s="18">
+        <f t="shared" si="470"/>
+        <v>0.94639463035718607</v>
+      </c>
+      <c r="AK60" s="18">
+        <f t="shared" si="471"/>
+        <v>0.90308998699194354</v>
+      </c>
+      <c r="AL60" s="18">
+        <f t="shared" si="472"/>
+        <v>0.86719447895366342</v>
+      </c>
+      <c r="AM60" s="18">
+        <f t="shared" si="473"/>
+        <v>0.8368288369533895</v>
+      </c>
+      <c r="AN60" s="18">
+        <f t="shared" si="474"/>
+        <v>0.81071446328195917</v>
+      </c>
+      <c r="AO60" s="18">
+        <f t="shared" si="475"/>
+        <v>0.78794860511158071</v>
+      </c>
+      <c r="AP60" s="18">
+        <f t="shared" si="476"/>
+        <v>0.76787407442944644</v>
+      </c>
+      <c r="AQ60" s="18">
+        <f t="shared" si="477"/>
+        <v>0.75</v>
+      </c>
+      <c r="AR60" s="18">
+        <f t="shared" si="478"/>
+        <v>0.73395162635467803</v>
+      </c>
+      <c r="AS60" s="18">
+        <f t="shared" si="479"/>
+        <v>0.71943739970439435</v>
+      </c>
+      <c r="AT60" s="18">
+        <f t="shared" si="480"/>
+        <v>0.70622674009991471</v>
+      </c>
+      <c r="AU60" s="18">
+        <f t="shared" si="481"/>
+        <v>0.69413463947927745</v>
+      </c>
+      <c r="AV60" s="18">
+        <f t="shared" si="482"/>
+        <v>0.68301074609085888</v>
+      </c>
+      <c r="AW60" s="18">
+        <f t="shared" si="483"/>
+        <v>8.8453773566381777</v>
+      </c>
+      <c r="AX60" s="18">
+        <f t="shared" si="484"/>
+        <v>13.630678014265039</v>
+      </c>
+      <c r="AY60" s="18">
+        <f t="shared" si="489"/>
+        <v>21.120805145770536</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="16">
+    <mergeCell ref="C48:V48"/>
+    <mergeCell ref="W48:Y48"/>
+    <mergeCell ref="Z48:AB48"/>
+    <mergeCell ref="AW48:AY48"/>
     <mergeCell ref="C5:V5"/>
     <mergeCell ref="C19:V19"/>
     <mergeCell ref="C33:V33"/>
@@ -8366,17 +10871,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.28515625" bestFit="1" customWidth="1"/>
@@ -8388,21 +10893,21 @@
       <c r="A2" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="25" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="25" t="s">
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19"/>
@@ -8438,31 +10943,31 @@
       <c r="A4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="25">
         <v>0.84444444444444444</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="26">
         <v>0.76666666666666661</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="27">
         <v>0.75555555555555565</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="25">
         <v>0.73333333333333328</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="26">
         <v>0.56666666666666665</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="27">
         <v>0.4555555555555556</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="25">
         <v>6.9890740457885174</v>
       </c>
-      <c r="I4" s="32">
+      <c r="I4" s="26">
         <v>9.392224444125981</v>
       </c>
-      <c r="J4" s="33">
+      <c r="J4" s="27">
         <v>12.066306168648717</v>
       </c>
     </row>
@@ -8470,31 +10975,31 @@
       <c r="A5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="25">
         <v>0.88888888888888884</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="26">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="27">
         <v>0.74444444444444446</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="25">
         <v>0.82222222222222219</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="26">
         <v>0.66666666666666663</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="27">
         <v>0.51666666666666672</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="25">
         <v>7.473270152778456</v>
       </c>
-      <c r="I5" s="32">
+      <c r="I5" s="26">
         <v>10.383854372092836</v>
       </c>
-      <c r="J5" s="33">
+      <c r="J5" s="27">
         <v>13.868233715443559</v>
       </c>
     </row>
@@ -8502,31 +11007,31 @@
       <c r="A6" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="28">
         <v>0.91111111111111098</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="29">
         <v>0.93333333333333335</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="30">
         <v>0.87222222222222223</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="28">
         <v>0.82222222222222219</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="29">
         <v>0.81111111111111112</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="30">
         <v>0.6166666666666667</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="28">
         <v>7.5296230007047518</v>
       </c>
-      <c r="I6" s="35">
+      <c r="I6" s="29">
         <v>11.614769661890849</v>
       </c>
-      <c r="J6" s="36">
+      <c r="J6" s="30">
         <v>15.797467638460009</v>
       </c>
     </row>
@@ -8546,7 +11051,316 @@
       <c r="E15" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:J24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D1" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+    </row>
+    <row r="2" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.376</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.376</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.376</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="J3">
+        <f>H3/D3</f>
+        <v>2.4361702127659575</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C4" s="3">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.872</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="J4">
+        <f>H4/D4</f>
+        <v>2.4646739130434785</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="3">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.53879999999999995</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="J5">
+        <f>H5/D5</f>
+        <v>1.6749049429657794</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="3">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.628</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="J6">
+        <f>H6/D6</f>
+        <v>1.5533453887884265</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="3">
+        <v>32</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="J7">
+        <f>H7/D7</f>
+        <v>1.7221052631578948</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="3">
+        <v>64</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.995</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="J8">
+        <f>H8/D8</f>
+        <v>1.5787321063394684</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="3">
+        <v>128</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.91</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.995</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="J9">
+        <f>H9/D9</f>
+        <v>2.4078947368421053</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="3">
+        <v>256</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.186</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.999</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="J10">
+        <f>H10/D10</f>
+        <v>3.7311827956989245</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="3">
+        <v>512</v>
+      </c>
+      <c r="D11" s="3">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.95530000000000004</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.999</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="J11">
+        <f>H11/D11</f>
+        <v>6.822916666666667</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="3">
+        <v>1024</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.107</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.96389999999999998</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="J12">
+        <f>H12/D12</f>
+        <v>5.7009345794392523</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <f>E12-E11</f>
+        <v>8.599999999999941E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <f>E15/E11</f>
+        <v>9.0024076206426679E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <f>E11-E10</f>
+        <v>1.7300000000000093E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <f>E19/E11</f>
+        <v>1.8109494399665124E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <f>E10-E9</f>
+        <v>2.7999999999999914E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <f>E23/E10</f>
+        <v>2.9850746268656626E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>